--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_659.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_659.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33047-d258058-Reviews-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>159</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Residence-Inn-By-Marriott-Santa-Clarita-Valencia.h42405.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_659.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_659.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="747">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2181 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r572303631-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>33047</t>
+  </si>
+  <si>
+    <t>258058</t>
+  </si>
+  <si>
+    <t>572303631</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Convenient location, very nice stay</t>
+  </si>
+  <si>
+    <t>We stay at Marriott properties often.  This one was no exception to our usual sense of pleasure.  We had a corner first floor room #129 which looked out on the parking lot but was nice and light inside and very quiet. It was also right next to a side entrance door to the hotel so it was very easy to get in and out of the building to the parking lot instead of the usual long trek down the halls.  (The door would only open with a card key so it was secure.).  The room was exceptionally clean.  We walked to dinner just five minutes away to Outback Steakhouse and had a fabulous meal and experience.  The hotel breakfast area was nice and orderly and the man in charge named Nacho was so very kind and helpful.  There were really beautiful and very large photographs on the walls in the common areas of what I assume were local (or al least semi-local) natural attractions/scenery.  This Marriott property is close to the Hiway 5 and Magic Mountain as well as many other city amenities.  It is on a hill just adjacent to town so you can walk or drive to reach whatever you need.  There is also a nice residential area on the hill right behind the hotel so if you are a fitness buff and want an aerobic walk you will be all set!  There is a nice and large...We stay at Marriott properties often.  This one was no exception to our usual sense of pleasure.  We had a corner first floor room #129 which looked out on the parking lot but was nice and light inside and very quiet. It was also right next to a side entrance door to the hotel so it was very easy to get in and out of the building to the parking lot instead of the usual long trek down the halls.  (The door would only open with a card key so it was secure.).  The room was exceptionally clean.  We walked to dinner just five minutes away to Outback Steakhouse and had a fabulous meal and experience.  The hotel breakfast area was nice and orderly and the man in charge named Nacho was so very kind and helpful.  There were really beautiful and very large photographs on the walls in the common areas of what I assume were local (or al least semi-local) natural attractions/scenery.  This Marriott property is close to the Hiway 5 and Magic Mountain as well as many other city amenities.  It is on a hill just adjacent to town so you can walk or drive to reach whatever you need.  There is also a nice residential area on the hill right behind the hotel so if you are a fitness buff and want an aerobic walk you will be all set!  There is a nice and large pool outdoors as well as a hot tub and fire pit and another seating area in addition to lots of pool chairs.  Our only complaint was that the pool towels were incredibly tiny and skimpy.  We enjoyed our time at this Marriott property and will undoubtedly return!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Residence Inn Santa Clarita Valencia, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>We stay at Marriott properties often.  This one was no exception to our usual sense of pleasure.  We had a corner first floor room #129 which looked out on the parking lot but was nice and light inside and very quiet. It was also right next to a side entrance door to the hotel so it was very easy to get in and out of the building to the parking lot instead of the usual long trek down the halls.  (The door would only open with a card key so it was secure.).  The room was exceptionally clean.  We walked to dinner just five minutes away to Outback Steakhouse and had a fabulous meal and experience.  The hotel breakfast area was nice and orderly and the man in charge named Nacho was so very kind and helpful.  There were really beautiful and very large photographs on the walls in the common areas of what I assume were local (or al least semi-local) natural attractions/scenery.  This Marriott property is close to the Hiway 5 and Magic Mountain as well as many other city amenities.  It is on a hill just adjacent to town so you can walk or drive to reach whatever you need.  There is also a nice residential area on the hill right behind the hotel so if you are a fitness buff and want an aerobic walk you will be all set!  There is a nice and large...We stay at Marriott properties often.  This one was no exception to our usual sense of pleasure.  We had a corner first floor room #129 which looked out on the parking lot but was nice and light inside and very quiet. It was also right next to a side entrance door to the hotel so it was very easy to get in and out of the building to the parking lot instead of the usual long trek down the halls.  (The door would only open with a card key so it was secure.).  The room was exceptionally clean.  We walked to dinner just five minutes away to Outback Steakhouse and had a fabulous meal and experience.  The hotel breakfast area was nice and orderly and the man in charge named Nacho was so very kind and helpful.  There were really beautiful and very large photographs on the walls in the common areas of what I assume were local (or al least semi-local) natural attractions/scenery.  This Marriott property is close to the Hiway 5 and Magic Mountain as well as many other city amenities.  It is on a hill just adjacent to town so you can walk or drive to reach whatever you need.  There is also a nice residential area on the hill right behind the hotel so if you are a fitness buff and want an aerobic walk you will be all set!  There is a nice and large pool outdoors as well as a hot tub and fire pit and another seating area in addition to lots of pool chairs.  Our only complaint was that the pool towels were incredibly tiny and skimpy.  We enjoyed our time at this Marriott property and will undoubtedly return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r561775915-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>561775915</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We arrived at 1am and Adam was cheerfully waiting to check us in.  We received a quiet location and top floor, just as requested.  The room was spotlessly clean and included a small kitchen area.  We had a great night's sleep and were up early for the breakfast buffet that is included with the room rate.  The buffet had a very nice selection of items, and it seemed that nothing had been left out in terms of variety.  The entire staff at this hotel is so friendly, welcoming, and helpful.  Their positive attitudes were like nothing I had experienced before...a welcome change!  They genuinely seem to care about your stay and do everything in their power to make it an enjoyable and memorable one.  Well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Residence Inn Santa Clarita Valencia, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>We arrived at 1am and Adam was cheerfully waiting to check us in.  We received a quiet location and top floor, just as requested.  The room was spotlessly clean and included a small kitchen area.  We had a great night's sleep and were up early for the breakfast buffet that is included with the room rate.  The buffet had a very nice selection of items, and it seemed that nothing had been left out in terms of variety.  The entire staff at this hotel is so friendly, welcoming, and helpful.  Their positive attitudes were like nothing I had experienced before...a welcome change!  They genuinely seem to care about your stay and do everything in their power to make it an enjoyable and memorable one.  Well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r561506807-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>561506807</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, good hotel </t>
+  </si>
+  <si>
+    <t>There isn’t much to choose from in the way of decent hotels in the area. This Residence Inn is a great option. We came for a family trip to Magic Mountain. The location was nice, less than 10 min to the park and we found plenty of food options close by. The staff really is super friendly. The employees in the breakfast room, especially so. The rooms were clean, queen beds were comfortable. Unfortunately, the pull out couch bed was very uncomfortable. This just seems to be the norm for hotels in general, which is unfortunate for us since we are a family of 5 that often needs to use the pull out. The lobby seems updated, but the rooms could use some updating, specifically the bathrooms. We found it to be a little tight in the bed area but a decent room overall. The breakfast was great for a complimentary breakfast and more than we expected. Housekeeping left extra towels without ever having to ask. Overall, good stay, would stay here again if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Residence Inn Santa Clarita Valencia, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>There isn’t much to choose from in the way of decent hotels in the area. This Residence Inn is a great option. We came for a family trip to Magic Mountain. The location was nice, less than 10 min to the park and we found plenty of food options close by. The staff really is super friendly. The employees in the breakfast room, especially so. The rooms were clean, queen beds were comfortable. Unfortunately, the pull out couch bed was very uncomfortable. This just seems to be the norm for hotels in general, which is unfortunate for us since we are a family of 5 that often needs to use the pull out. The lobby seems updated, but the rooms could use some updating, specifically the bathrooms. We found it to be a little tight in the bed area but a decent room overall. The breakfast was great for a complimentary breakfast and more than we expected. Housekeeping left extra towels without ever having to ask. Overall, good stay, would stay here again if in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r545639039-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>545639039</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>They even had a dog park</t>
+  </si>
+  <si>
+    <t>My husband and I moved here for his work and had to stay here for a few months.  We went for walks everyday and there were lots of people staying here for long stays, we made friends, so did our dog as i could not believe they had a dog park.The people were always friendly, helpful and only cleaned your room when you wanted them to.  With a Kitchen it was great to make our own healthy meals and they have a pool and are close to so many amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Residence Inn Santa Clarita Valencia, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I moved here for his work and had to stay here for a few months.  We went for walks everyday and there were lots of people staying here for long stays, we made friends, so did our dog as i could not believe they had a dog park.The people were always friendly, helpful and only cleaned your room when you wanted them to.  With a Kitchen it was great to make our own healthy meals and they have a pool and are close to so many amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r541880737-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>541880737</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Great friendly hotel</t>
+  </si>
+  <si>
+    <t>Friendly staff.Clean suites.Comfortable bedGood locationGreat for local eating - walking distance Lots of extra events happening at the hotelGood basic continental breakfast each dayComplimentary water and breakfast bars.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor  at Residence Inn Santa Clarita Valencia, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff.Clean suites.Comfortable bedGood locationGreat for local eating - walking distance Lots of extra events happening at the hotelGood basic continental breakfast each dayComplimentary water and breakfast bars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r498545615-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>498545615</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while visiting six flags magic mountain. Very clean place, comfortable bed and a great morning buffet. The staff at breakfast were very friendly and courteous. They had a pool and outdoor jacuzzi. I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while visiting six flags magic mountain. Very clean place, comfortable bed and a great morning buffet. The staff at breakfast were very friendly and courteous. They had a pool and outdoor jacuzzi. I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r475161396-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>475161396</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Great room, amazing staff...</t>
+  </si>
+  <si>
+    <t>We stayed in a 1 bedroom Queen bed suite with a sofa bed. My husband, 40, our daughter, 10 and myself, 40 stayed here for 6 nights. The breakfasts were varied and good. The rooms were clean, bathrooms impeccable and roomy. The three of us stayed comfortably for our vacation in Los Angeles area. The bed was a little hard for my husband, but I enjoyed it. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Residence Inn Santa Clarita Valencia, responded to this reviewResponded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>We stayed in a 1 bedroom Queen bed suite with a sofa bed. My husband, 40, our daughter, 10 and myself, 40 stayed here for 6 nights. The breakfasts were varied and good. The rooms were clean, bathrooms impeccable and roomy. The three of us stayed comfortably for our vacation in Los Angeles area. The bed was a little hard for my husband, but I enjoyed it. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r470662269-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>470662269</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Second Home! Love this place!</t>
+  </si>
+  <si>
+    <t>I started a trip advisor today because of this Residence Inn. I wanted to say what a professional and courteous staff they have. Food is great and they rotate things daily with the staples. It's not the same food every day. It's tasty and it's always abundant. They keep up with everything. The staff bends over backwards. The woman Sarah at the front desk is a professional and accommodating. Everyone is so helpful, from housecleaning(excellent job by all), food service(excellent by all involved) and all staff. Outstanding and helpful. I worked for a service company(communications) for 15 1/2 years with at&amp;t, and I know what it takes to make people happy with a product and service. This staff hits all the marks and exceeds! I can't recommend this place enough. Well done! and thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>RIFFISC, Lead Supervisor at Residence Inn Santa Clarita Valencia, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>I started a trip advisor today because of this Residence Inn. I wanted to say what a professional and courteous staff they have. Food is great and they rotate things daily with the staples. It's not the same food every day. It's tasty and it's always abundant. They keep up with everything. The staff bends over backwards. The woman Sarah at the front desk is a professional and accommodating. Everyone is so helpful, from housecleaning(excellent job by all), food service(excellent by all involved) and all staff. Outstanding and helpful. I worked for a service company(communications) for 15 1/2 years with at&amp;t, and I know what it takes to make people happy with a product and service. This staff hits all the marks and exceeds! I can't recommend this place enough. Well done! and thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r467997467-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>467997467</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>My home away from home. Residence Inn, Santa Clarita, CA. Each of the staff members here at this location are friendly, professional, and very helpful. My experience here every week is always pleasant. I also wanted to thank Justin, Sarah, Adam, John, and Waldo for making every bit of my stay, comfortable and enjoyable each week. Thanks again Residence Inn, Santa Clarita :)10 out of 10, come experience it too!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded March 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2017</t>
+  </si>
+  <si>
+    <t>My home away from home. Residence Inn, Santa Clarita, CA. Each of the staff members here at this location are friendly, professional, and very helpful. My experience here every week is always pleasant. I also wanted to thank Justin, Sarah, Adam, John, and Waldo for making every bit of my stay, comfortable and enjoyable each week. Thanks again Residence Inn, Santa Clarita :)10 out of 10, come experience it too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r457886609-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>457886609</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Awesome property for families</t>
+  </si>
+  <si>
+    <t>We stayed here on a quick trip down to Southern California and could not have been happier.  The property was clean, comfortable and in a great location.  We were traveling with 2 small children so having a 2nd bedroom and a crib was exactly what we needed to have a comfortable and relaxing stay.John and Justin at the front desk are rockstars and helped us with our every request.  We had originally booked a 1 bedroom suite but were pleasantly surprised to find out we had been upgraded to a 2 bedroom suite upon arrival (pays to have Marriott status I guess).The breakfast was everything you could ask for an more.  Very good food, great selection for kids and the staff were outstanding.Plenty of room in the suites and great amenities for families with children (small kiten, full fridge, etc, etc).We can't recommend this property enough and will definitely stay here next time we are in town with the family.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here on a quick trip down to Southern California and could not have been happier.  The property was clean, comfortable and in a great location.  We were traveling with 2 small children so having a 2nd bedroom and a crib was exactly what we needed to have a comfortable and relaxing stay.John and Justin at the front desk are rockstars and helped us with our every request.  We had originally booked a 1 bedroom suite but were pleasantly surprised to find out we had been upgraded to a 2 bedroom suite upon arrival (pays to have Marriott status I guess).The breakfast was everything you could ask for an more.  Very good food, great selection for kids and the staff were outstanding.Plenty of room in the suites and great amenities for families with children (small kiten, full fridge, etc, etc).We can't recommend this property enough and will definitely stay here next time we are in town with the family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r450729775-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>450729775</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>An older Marriott propery. OK but would try another property if not renovated</t>
+  </si>
+  <si>
+    <t>This Marriott has yet to have its make over so a little tired. It was clean and staff very friendly so we had a good stay but it does need investment.We had a double room but only had kings and they do not have roll-away's. The sofa can make up to a bed but is difficult arrangement if you have small kids who go to bed earlier than you.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>This Marriott has yet to have its make over so a little tired. It was clean and staff very friendly so we had a good stay but it does need investment.We had a double room but only had kings and they do not have roll-away's. The sofa can make up to a bed but is difficult arrangement if you have small kids who go to bed earlier than you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r441164758-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>441164758</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Not as good as other Residence Inns</t>
+  </si>
+  <si>
+    <t>The staff are very friendly and helpful.  The room is spacious and had a great area to set up the computer and lay out your papers.  The kitchen area is very nice and they had popcorn for us to heat up in the microwave.  I'm surprised that there is no guest information book in the room giving you hours of operation for the pool, fitness facility, breakfast buffet etc.  When my husband inquired about it at the front desk he was told that there was no such thing available.  All they gave him was a list of recommended restaurants.  We asked about location of an ice machine and were told that they do not have one.  They just gave him a bag of ice and told him to turn on the ice maker in the fridge as it is supposed to make ice very quickly.  I took an hour to get 6 ice cubes from the ice maker.We found that the noise from the freeway was very loud and made for a restless night's sleep.  Breakfast was not as good as other Marriott properties that we've stayed.  It was average at best - typical of most breakfast buffets.  We have had exceptional breakfasts at Springhill suites and they are less money than this Residence Inn.We probably would not stay here again as we just don't feel it is good value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>The staff are very friendly and helpful.  The room is spacious and had a great area to set up the computer and lay out your papers.  The kitchen area is very nice and they had popcorn for us to heat up in the microwave.  I'm surprised that there is no guest information book in the room giving you hours of operation for the pool, fitness facility, breakfast buffet etc.  When my husband inquired about it at the front desk he was told that there was no such thing available.  All they gave him was a list of recommended restaurants.  We asked about location of an ice machine and were told that they do not have one.  They just gave him a bag of ice and told him to turn on the ice maker in the fridge as it is supposed to make ice very quickly.  I took an hour to get 6 ice cubes from the ice maker.We found that the noise from the freeway was very loud and made for a restless night's sleep.  Breakfast was not as good as other Marriott properties that we've stayed.  It was average at best - typical of most breakfast buffets.  We have had exceptional breakfasts at Springhill suites and they are less money than this Residence Inn.We probably would not stay here again as we just don't feel it is good value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r409863684-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>409863684</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Soundproof, nice and clean spacious rooms</t>
+  </si>
+  <si>
+    <t>Great location for Family visits and Magic Mountain. The staff was very helpful and friendly. Really liked the rooms. Fresh, light, soundproof, clean and spacious. Always a pluss With the coffemaker:-)). We will for sure ba back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Great location for Family visits and Magic Mountain. The staff was very helpful and friendly. Really liked the rooms. Fresh, light, soundproof, clean and spacious. Always a pluss With the coffemaker:-)). We will for sure ba back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r375297677-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>375297677</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Great location for families headed to Six Flags Magic Mountain &amp; close to In-n-Out Burger</t>
+  </si>
+  <si>
+    <t>We stay here when we are traveling with my adult children, usually renting the 2 bedrooms suites.  You cannot beat the price for the size and convenience of these rooms.  The rooms are well appointed and taken care of.  We like having a kitchen and being in an apartment style atmosphere.  The breakfast here is great and a good way to start the day before heading to Six Flags Magic Mountain which is a quick drive away. Close to this location are many eateries with our favorite In-n-Out burger since we are not from California and eating there is always on our list.  We've often taken our food back to our room to get away from the crowd that is always at this eatery.  Not far from this location is a plethora of stores including a supermarket and a Wal-Mart.  Staying here will not be a disappointment if you are traveling with a family.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded May 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2016</t>
+  </si>
+  <si>
+    <t>We stay here when we are traveling with my adult children, usually renting the 2 bedrooms suites.  You cannot beat the price for the size and convenience of these rooms.  The rooms are well appointed and taken care of.  We like having a kitchen and being in an apartment style atmosphere.  The breakfast here is great and a good way to start the day before heading to Six Flags Magic Mountain which is a quick drive away. Close to this location are many eateries with our favorite In-n-Out burger since we are not from California and eating there is always on our list.  We've often taken our food back to our room to get away from the crowd that is always at this eatery.  Not far from this location is a plethora of stores including a supermarket and a Wal-Mart.  Staying here will not be a disappointment if you are traveling with a family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r366372619-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>366372619</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>I never write a review of a property after only the first of a three night stay, but I was so impressed with this particular Residence Inn that I broke that rule.
+With a hotel chain properties tend to blur together - nothing really stands out.  As long as the property is fresh, well maintained and comfortable I am happy and will rebook in the future. This property differentiates itself on service. 
+The night auditor (I regret not having his name) checked us in at 1:30 AM and bent over backwards to be helpful - apologizing that he couldn't meet our request for a first floor room (but saying they could possibly move us in the AM) then going and tracking down a luggage cart for us completely on his own volition. These might seem like small things but in our many years platinum or platinum premier membership that is not the norm. Typically if our room request can't be met no one says anything and I can't remember when a staffer went and got me a luggage cart when he wasn't a bellman. To me it's the thought that counts, and the fact that they acknowledged our request and tried to accommodate it was appreciated.
+The king studio we received was in excellent condition and the all important bed was extremely comfortable. The work space was excellent and quite large, there was even a second smaller desk area and...I never write a review of a property after only the first of a three night stay, but I was so impressed with this particular Residence Inn that I broke that rule.With a hotel chain properties tend to blur together - nothing really stands out.  As long as the property is fresh, well maintained and comfortable I am happy and will rebook in the future. This property differentiates itself on service. The night auditor (I regret not having his name) checked us in at 1:30 AM and bent over backwards to be helpful - apologizing that he couldn't meet our request for a first floor room (but saying they could possibly move us in the AM) then going and tracking down a luggage cart for us completely on his own volition. These might seem like small things but in our many years platinum or platinum premier membership that is not the norm. Typically if our room request can't be met no one says anything and I can't remember when a staffer went and got me a luggage cart when he wasn't a bellman. To me it's the thought that counts, and the fact that they acknowledged our request and tried to accommodate it was appreciated.The king studio we received was in excellent condition and the all important bed was extremely comfortable. The work space was excellent and quite large, there was even a second smaller desk area and a two seater peninsula for dining or whatever. The room, #202 was extremely and blessedly quiet. This studio even had a luggage stand in the closet. That might seem like another small thing but I can most assuredly say that most Residence Inns do not have them, the theory being that you will be there for a long stay, unpack completely and therefore don't need one. Breakfast at this property was another very pleasant surprise. Residence Inns offer a complementary breakfast. There is a minumum standard of hot and cold items and some properties skirt that edge. We've come across prepackaged processed sliced melon and other fruits; this property had fresh melons, strawberries, blueberries, apples and bananas, all of it was fresh.There were scrambled eggs, turkey Canadian bacon, potato pancakes, breakfast potatoes with peppers and onions - just a very good variety. There was oatmeal with a variety of toppings, even sliced almonds. Low fat yogurts and even what I call yogurt parfaits like you would get at Starbucks with a fresh fruit and granola topping. There was also a selection of breads, cereals and pastries. I am probably leaving things out - but I will tell you I was also surprised to see granola bars and small bottles of water available. The kicker was that the woman working the breakfast area brought me a full size bottle of water. I didn't ask for it, she just graciously brought it to me. Again, this was clearly not the standard at Residence Inns and I have never encountered that before. I am sorry I did not ask for her name.Javier at the front desk was also exceptional. I went over to ask a question and identified myself. He immediately said he had wanted to call me, but was aware of our late check in and didn't want to disturb. The reason for calling was that he was offering to move us to a ground floor room, all we had to do was leave our packed luggage and staff would transfer us directly to the new room. Again, this was unexpected and exceptional customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded April 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2016</t>
+  </si>
+  <si>
+    <t>I never write a review of a property after only the first of a three night stay, but I was so impressed with this particular Residence Inn that I broke that rule.
+With a hotel chain properties tend to blur together - nothing really stands out.  As long as the property is fresh, well maintained and comfortable I am happy and will rebook in the future. This property differentiates itself on service. 
+The night auditor (I regret not having his name) checked us in at 1:30 AM and bent over backwards to be helpful - apologizing that he couldn't meet our request for a first floor room (but saying they could possibly move us in the AM) then going and tracking down a luggage cart for us completely on his own volition. These might seem like small things but in our many years platinum or platinum premier membership that is not the norm. Typically if our room request can't be met no one says anything and I can't remember when a staffer went and got me a luggage cart when he wasn't a bellman. To me it's the thought that counts, and the fact that they acknowledged our request and tried to accommodate it was appreciated.
+The king studio we received was in excellent condition and the all important bed was extremely comfortable. The work space was excellent and quite large, there was even a second smaller desk area and...I never write a review of a property after only the first of a three night stay, but I was so impressed with this particular Residence Inn that I broke that rule.With a hotel chain properties tend to blur together - nothing really stands out.  As long as the property is fresh, well maintained and comfortable I am happy and will rebook in the future. This property differentiates itself on service. The night auditor (I regret not having his name) checked us in at 1:30 AM and bent over backwards to be helpful - apologizing that he couldn't meet our request for a first floor room (but saying they could possibly move us in the AM) then going and tracking down a luggage cart for us completely on his own volition. These might seem like small things but in our many years platinum or platinum premier membership that is not the norm. Typically if our room request can't be met no one says anything and I can't remember when a staffer went and got me a luggage cart when he wasn't a bellman. To me it's the thought that counts, and the fact that they acknowledged our request and tried to accommodate it was appreciated.The king studio we received was in excellent condition and the all important bed was extremely comfortable. The work space was excellent and quite large, there was even a second smaller desk area and a two seater peninsula for dining or whatever. The room, #202 was extremely and blessedly quiet. This studio even had a luggage stand in the closet. That might seem like another small thing but I can most assuredly say that most Residence Inns do not have them, the theory being that you will be there for a long stay, unpack completely and therefore don't need one. Breakfast at this property was another very pleasant surprise. Residence Inns offer a complementary breakfast. There is a minumum standard of hot and cold items and some properties skirt that edge. We've come across prepackaged processed sliced melon and other fruits; this property had fresh melons, strawberries, blueberries, apples and bananas, all of it was fresh.There were scrambled eggs, turkey Canadian bacon, potato pancakes, breakfast potatoes with peppers and onions - just a very good variety. There was oatmeal with a variety of toppings, even sliced almonds. Low fat yogurts and even what I call yogurt parfaits like you would get at Starbucks with a fresh fruit and granola topping. There was also a selection of breads, cereals and pastries. I am probably leaving things out - but I will tell you I was also surprised to see granola bars and small bottles of water available. The kicker was that the woman working the breakfast area brought me a full size bottle of water. I didn't ask for it, she just graciously brought it to me. Again, this was clearly not the standard at Residence Inns and I have never encountered that before. I am sorry I did not ask for her name.Javier at the front desk was also exceptional. I went over to ask a question and identified myself. He immediately said he had wanted to call me, but was aware of our late check in and didn't want to disturb. The reason for calling was that he was offering to move us to a ground floor room, all we had to do was leave our packed luggage and staff would transfer us directly to the new room. Again, this was unexpected and exceptional customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r349863115-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>349863115</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Hotel is right off the highway and part of a cluster of hotels and restaurants. There is a pool outside and breakfast/coffee in the lobby. Rooms are big, spacious, and clean with full size fridges.  Checked in late and relatively short stay but was quite satisfiedMoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is right off the highway and part of a cluster of hotels and restaurants. There is a pool outside and breakfast/coffee in the lobby. Rooms are big, spacious, and clean with full size fridges.  Checked in late and relatively short stay but was quite satisfiedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r341648146-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>341648146</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Room; Very Clean </t>
+  </si>
+  <si>
+    <t>Stayed on a Tuesday night while on a business trip. Check-in was a pleasant experience. Clerk was a pleasure to deal with (I didn't catch his name, though).Room was very clean and the hot water came quickly.Mgr's Reception was pretty good and attendant kept things going well.Same for breakfast. I would definitely come back, if I'm in the area again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed on a Tuesday night while on a business trip. Check-in was a pleasant experience. Clerk was a pleasure to deal with (I didn't catch his name, though).Room was very clean and the hot water came quickly.Mgr's Reception was pretty good and attendant kept things going well.Same for breakfast. I would definitely come back, if I'm in the area again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r341293057-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>341293057</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Great stop on I-5</t>
+  </si>
+  <si>
+    <t>Great hotel, and wonderful friendly staff. After 7 days of driving across country and many nights of inferior hotels, we were THRILLED to find this one. Great location off the freeway (and quiet) wonderful large, nicely appointed rooms. You are able to walk to decent restaurants, which is a huge plus for us. We arrived early but they had our room ready. Good place for pets, too. Breakfast- tho NOT the reason to pick a hotel, was really fun and unique. Pool and jacuzzi looked very inviting, but we did not partake. Pricewise, it was a bit spendy, but that fluctuates with time of year I suppose.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel, and wonderful friendly staff. After 7 days of driving across country and many nights of inferior hotels, we were THRILLED to find this one. Great location off the freeway (and quiet) wonderful large, nicely appointed rooms. You are able to walk to decent restaurants, which is a huge plus for us. We arrived early but they had our room ready. Good place for pets, too. Breakfast- tho NOT the reason to pick a hotel, was really fun and unique. Pool and jacuzzi looked very inviting, but we did not partake. Pricewise, it was a bit spendy, but that fluctuates with time of year I suppose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r336979114-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>336979114</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay!</t>
+  </si>
+  <si>
+    <t>My family of four stayed here for 1 night on our California trip.  Our room was clean, comfortable and spacious.  Breakfast was good.  Property is well-maintained.  Area near the hotel has many restaurants and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>My family of four stayed here for 1 night on our California trip.  Our room was clean, comfortable and spacious.  Breakfast was good.  Property is well-maintained.  Area near the hotel has many restaurants and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r325359576-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>325359576</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Visit to Six Flags Magic Mountain and Universal Studios</t>
+  </si>
+  <si>
+    <t>We chose to stay at the Residence Inn for four nights while visiting Six Flags Magic Mountain and Universal Studios.  From the time we checked in with John, who was so welcoming and friendly until the time we left we couldn't have found a better place to stay if we'd tried.  All the staff were so friendly and helpful, the rooms were spacious and with great facilities, the breakfast was superb and the pool and bbq area was fabulous.  We had an amazing time - thank you to all the staff.  We were even given a bag of goodies to take to Magic Mountain.  Our family of 10 so enjoyed our stay with you and would thoroughly recommend the Residence Inn for a relaxing and enjoyable stay in Santa Clarita.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>We chose to stay at the Residence Inn for four nights while visiting Six Flags Magic Mountain and Universal Studios.  From the time we checked in with John, who was so welcoming and friendly until the time we left we couldn't have found a better place to stay if we'd tried.  All the staff were so friendly and helpful, the rooms were spacious and with great facilities, the breakfast was superb and the pool and bbq area was fabulous.  We had an amazing time - thank you to all the staff.  We were even given a bag of goodies to take to Magic Mountain.  Our family of 10 so enjoyed our stay with you and would thoroughly recommend the Residence Inn for a relaxing and enjoyable stay in Santa Clarita.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r320269080-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>320269080</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>A Good Property</t>
+  </si>
+  <si>
+    <t>Residence Inns are just a solid bet for comfort, cleanliness, and a friendly helpful staff, with a good breakfast included. Staff was very helpful in helping to find a hometown bar with good food, a Dodgers game on, and it happened to be walking distance right across the street. For me, a firm mattress is perfect, as are most at this chain. Grounds and interior here are well kept, and that adds to a comfort level also.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded November 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2015</t>
+  </si>
+  <si>
+    <t>Residence Inns are just a solid bet for comfort, cleanliness, and a friendly helpful staff, with a good breakfast included. Staff was very helpful in helping to find a hometown bar with good food, a Dodgers game on, and it happened to be walking distance right across the street. For me, a firm mattress is perfect, as are most at this chain. Grounds and interior here are well kept, and that adds to a comfort level also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r318162023-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>318162023</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Best hotel suite ever</t>
+  </si>
+  <si>
+    <t>After we had contractors working in our house, my wife developed asthma from the dust and we had to quickly find a place to stay until they finished. Booked it at the last minute and we were very impressed by the friendly staff. The room was beautiful with it's own kitchen and TV in both the living room and bedroom.  The breakfast was delicious. We will stay here during our next house project.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2015</t>
+  </si>
+  <si>
+    <t>After we had contractors working in our house, my wife developed asthma from the dust and we had to quickly find a place to stay until they finished. Booked it at the last minute and we were very impressed by the friendly staff. The room was beautiful with it's own kitchen and TV in both the living room and bedroom.  The breakfast was delicious. We will stay here during our next house project.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r308825283-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>308825283</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Good place for an extended stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn Santa Clarita in Oct 2014 for one month with our 1 year old son.The hotel is located directly next to the Interstate 5. Restaurants and shopping locations are in close range.While the rooms are a bit outdated and require renovation, the staff of the hotel was excellent.The breakfast service staff was very friendly and did not get tired of joking around with our little son.The hotel is definitely a good choice in Valencia/Santa Clarita, if you have to stay for a longer period of time. If you just have to stay for a few nights, I'd always prefer the Hyatt Regency Valencia as it's closer to the town center.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn Santa Clarita in Oct 2014 for one month with our 1 year old son.The hotel is located directly next to the Interstate 5. Restaurants and shopping locations are in close range.While the rooms are a bit outdated and require renovation, the staff of the hotel was excellent.The breakfast service staff was very friendly and did not get tired of joking around with our little son.The hotel is definitely a good choice in Valencia/Santa Clarita, if you have to stay for a longer period of time. If you just have to stay for a few nights, I'd always prefer the Hyatt Regency Valencia as it's closer to the town center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r294108746-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>294108746</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Great from check in to check out</t>
+  </si>
+  <si>
+    <t>John was at the front desk wearing a nice suit. That was a pleasant surprise to see that level of professionalism. He was upbeat, fun and helpful. Our room was delightful! The hotel even hosted a beer, wine dessert social that evening. That too was a pleasant surprise. Breakfast in the morning was really good. We will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>John was at the front desk wearing a nice suit. That was a pleasant surprise to see that level of professionalism. He was upbeat, fun and helpful. Our room was delightful! The hotel even hosted a beer, wine dessert social that evening. That too was a pleasant surprise. Breakfast in the morning was really good. We will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r274629346-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>274629346</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!</t>
+  </si>
+  <si>
+    <t>Our family of 5 stayed here for three nights at the end of April.  From check in to check out, their staff goes above and beyond to ensure you are comfortable and have everything you need.  Starting each day with breakfast was such a pleasure!!  Teresa and Jose were so cheerful and really made us feel at home.  The food was delicious with a good variety of choices each day.  The hotel itself, as well as the grounds, were very clean.  The beds were comfortable and the suite was spacious.  Thank you to everyone there who made our stay such a wonderful one!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Our family of 5 stayed here for three nights at the end of April.  From check in to check out, their staff goes above and beyond to ensure you are comfortable and have everything you need.  Starting each day with breakfast was such a pleasure!!  Teresa and Jose were so cheerful and really made us feel at home.  The food was delicious with a good variety of choices each day.  The hotel itself, as well as the grounds, were very clean.  The beds were comfortable and the suite was spacious.  Thank you to everyone there who made our stay such a wonderful one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r273220249-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>273220249</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Good Pet Friendly Accommodations</t>
+  </si>
+  <si>
+    <t>Nice Residence Inn with all the standard Residence Inn amenities; free high speed Internet, free breakfast, Pet friendly, kitchen / kitchenette.  Stayed here because traveling with out Miniature Schnauzer.  Best for extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Nice Residence Inn with all the standard Residence Inn amenities; free high speed Internet, free breakfast, Pet friendly, kitchen / kitchenette.  Stayed here because traveling with out Miniature Schnauzer.  Best for extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r270205904-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>270205904</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Nighty, Nite in comfort</t>
+  </si>
+  <si>
+    <t>Stayed at this motel because we were going to attend the Santa Clarita Cowboy &amp; Poetry Festival.  We're costumers so we dress up at the drop of a cowboy hat.  So, we rented the suite so we could hang out with friends after the festival and have a pizza and champagne.  Very nice place but if you go, do not stay by the parking lot.  It was noisy all night.  We got up early to work out.  Were hoping for stationary bikes but only had an elliptical and treadmills.  TV's don't work on them but, eh.  The breakfast was awesome.  The staff so accommodating.  Just a super nice experience.  I highly recommend it.  Oh, and you'll need a compass to get around the maze of halls.  They do not post any signs so leave breadcrumbs....MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this motel because we were going to attend the Santa Clarita Cowboy &amp; Poetry Festival.  We're costumers so we dress up at the drop of a cowboy hat.  So, we rented the suite so we could hang out with friends after the festival and have a pizza and champagne.  Very nice place but if you go, do not stay by the parking lot.  It was noisy all night.  We got up early to work out.  Were hoping for stationary bikes but only had an elliptical and treadmills.  TV's don't work on them but, eh.  The breakfast was awesome.  The staff so accommodating.  Just a super nice experience.  I highly recommend it.  Oh, and you'll need a compass to get around the maze of halls.  They do not post any signs so leave breadcrumbs....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r263844826-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>263844826</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Wonderful staff and hotel</t>
+  </si>
+  <si>
+    <t>Teresa is the wonderful mother at breakfast to help and take care of you like you love.  She is wonderful and made the delicious breakfast even better.  There is fresh fruit and almost every hot and cold item you can imagine.  They even have little bottles of water and granola bars to take with you when you go.  John checked us in and was so helpful and I can't thank him enough.  Out by the pool is a lovely fire pit to sit by in the evenings and there is a cooler with water bottles by the pool.  You feel like you are staying with family when you are at this hotel.  I can't think of anything that this hotel does not have that you might need.  Our room was very quiet and clean.  The location couldn't be more perfect with lots of shopping, restaurants and six flags just up the street.  We even left the park to come back to the hotel to swim and then returned later in the evening for a few more rides.  This is my favorite Residence Inn that I have stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Teresa is the wonderful mother at breakfast to help and take care of you like you love.  She is wonderful and made the delicious breakfast even better.  There is fresh fruit and almost every hot and cold item you can imagine.  They even have little bottles of water and granola bars to take with you when you go.  John checked us in and was so helpful and I can't thank him enough.  Out by the pool is a lovely fire pit to sit by in the evenings and there is a cooler with water bottles by the pool.  You feel like you are staying with family when you are at this hotel.  I can't think of anything that this hotel does not have that you might need.  Our room was very quiet and clean.  The location couldn't be more perfect with lots of shopping, restaurants and six flags just up the street.  We even left the park to come back to the hotel to swim and then returned later in the evening for a few more rides.  This is my favorite Residence Inn that I have stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r263244874-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>263244874</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Early Easter, Wonderful</t>
+  </si>
+  <si>
+    <t>With Travel to LA during the holidays getting worse, we chose to have an early Easter with the inlaws.  So flew into Burbank about 9pm and got to Residence by 10pm.  Imagine 4 people tired (2 kids under 10) walking, sorry dragging themselves into the hotel.  The staff there did everything they could to make sure our room got setup and we had everything we wanted (Kids love pillows) by 10:15pm.  Fast friendly service and very clean rooms is why I will certainly come back here.  BTW - The breakfast is great tooMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>With Travel to LA during the holidays getting worse, we chose to have an early Easter with the inlaws.  So flew into Burbank about 9pm and got to Residence by 10pm.  Imagine 4 people tired (2 kids under 10) walking, sorry dragging themselves into the hotel.  The staff there did everything they could to make sure our room got setup and we had everything we wanted (Kids love pillows) by 10:15pm.  Fast friendly service and very clean rooms is why I will certainly come back here.  BTW - The breakfast is great tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r260978592-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>260978592</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>A great place near 6 Flags LA</t>
+  </si>
+  <si>
+    <t>The hotel is very clean, close to food, walking distance, and gas stations.  The breakfast was great and there was enough room to sit and eat without feeling pressured by others waiting for a seat.  We paln on staying there whenever we are in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very clean, close to food, walking distance, and gas stations.  The breakfast was great and there was enough room to sit and eat without feeling pressured by others waiting for a seat.  We paln on staying there whenever we are in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r256528570-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>256528570</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Quiet and friendy</t>
+  </si>
+  <si>
+    <t>Room 213 is a two room suite it's very quiet, clean and spacious. The young man at the front desk gave us a great rate as it was late and there was nothing else available in the area. The only downfall was the sheets... Very rough and scratchy!!!!! Decent breakfast. Close to universal, about an hour and a half from Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Room 213 is a two room suite it's very quiet, clean and spacious. The young man at the front desk gave us a great rate as it was late and there was nothing else available in the area. The only downfall was the sheets... Very rough and scratchy!!!!! Decent breakfast. Close to universal, about an hour and a half from Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r247942620-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>247942620</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Favorite Hotel in Santa Clarita</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  Really clean and nicely decorated rooms, friendly and helpful staff, great breakfast buffet.  We stayed at this hotel last year on four separate occasions when we were in town visiting family and friends.Front desk staff Tom and Delene always welcome us after our long road trip and honor our room requests too.We make full use of the kitchen whenever we stay which is completely stocked with dishes, silverware, glasses, etc. The refrigerator is a good size and there is a small dishwasher too.  There are a number of fast food and other restaurants within walking distance to the hotel and the freeway entrances are very close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  Really clean and nicely decorated rooms, friendly and helpful staff, great breakfast buffet.  We stayed at this hotel last year on four separate occasions when we were in town visiting family and friends.Front desk staff Tom and Delene always welcome us after our long road trip and honor our room requests too.We make full use of the kitchen whenever we stay which is completely stocked with dishes, silverware, glasses, etc. The refrigerator is a good size and there is a small dishwasher too.  There are a number of fast food and other restaurants within walking distance to the hotel and the freeway entrances are very close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r245537091-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>245537091</t>
+  </si>
+  <si>
+    <t>12/22/2014</t>
+  </si>
+  <si>
+    <t>Everything worked well!</t>
+  </si>
+  <si>
+    <t>Great stay began with knowledgable and very friendy front desk man Tom who put us in great room and secured a cart for me. The past half dozen or so Res Inns either didn't have a cart or couldn't find one anywhere. Place looked so great I thought it was brand new but turns out recent renovations made it look and feel that way. Very good sleeping with super beds and quiet, very quiet. One of the brst breakfast buffets in all the recent stays along the west coast. Very nicely designed and within a few hundred yards to a half mile of lots of good places to dine. Excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Great stay began with knowledgable and very friendy front desk man Tom who put us in great room and secured a cart for me. The past half dozen or so Res Inns either didn't have a cart or couldn't find one anywhere. Place looked so great I thought it was brand new but turns out recent renovations made it look and feel that way. Very good sleeping with super beds and quiet, very quiet. One of the brst breakfast buffets in all the recent stays along the west coast. Very nicely designed and within a few hundred yards to a half mile of lots of good places to dine. Excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r240919724-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>240919724</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel, Convenient Location</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times.  They've recently undergone a significant makeover and although it was nice before, it made it that much nicer.  The pool and hot tub were a big hit with my kids and is big enough for a lot of people without feeling crowded.  The rooms are quiet and comfortable.  The TV has lots of channels and, like all Residence Inns, the kitchen is very convenient if you are staying more than a couple nights.  Breakfast bar in the morning is pretty good sized; the highlight for me is the waffle maker.  The front desk and maintenance staff were always exceptionally friendly and helpful.The hotel is situated just off the I-5 over the hill (north) of the San Fernando Valley by 5-10 minutes.  It is 5 minutes from Six Flags Magic Mountain and an easy commute to get into Burbank, Pasadena, and downtown LA.  Santa Clarita is a much nicer, upscale, and safer area compared to the San Fernando Valley or quite frankly many places in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times.  They've recently undergone a significant makeover and although it was nice before, it made it that much nicer.  The pool and hot tub were a big hit with my kids and is big enough for a lot of people without feeling crowded.  The rooms are quiet and comfortable.  The TV has lots of channels and, like all Residence Inns, the kitchen is very convenient if you are staying more than a couple nights.  Breakfast bar in the morning is pretty good sized; the highlight for me is the waffle maker.  The front desk and maintenance staff were always exceptionally friendly and helpful.The hotel is situated just off the I-5 over the hill (north) of the San Fernando Valley by 5-10 minutes.  It is 5 minutes from Six Flags Magic Mountain and an easy commute to get into Burbank, Pasadena, and downtown LA.  Santa Clarita is a much nicer, upscale, and safer area compared to the San Fernando Valley or quite frankly many places in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r237868697-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>237868697</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Meeting Room and Staff are the best!</t>
+  </si>
+  <si>
+    <t>I love knowing I can plan, arrange and communicate a meeting room request from my own home and computer, and know I am in the best of hands and can be rest assured all will be taken care of as requested!  Thank you Alissa, Amy, and who can forget Nacho for laying it all out for me!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>I love knowing I can plan, arrange and communicate a meeting room request from my own home and computer, and know I am in the best of hands and can be rest assured all will be taken care of as requested!  Thank you Alissa, Amy, and who can forget Nacho for laying it all out for me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r235653150-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>235653150</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Good stay for a Six Flags Magic Mountain &amp; Universal Studios trip</t>
+  </si>
+  <si>
+    <t>Very convenient location for our trip to the amusement parks just right off interstate 5.  The facility is nice &amp; front desk staff were accomodating.  Plenty of restaurants nearby.  The only negative is that housekeeping needs to do a more thorough cleaning of the room.  Bed wasn't made properly and found some oreo cookie crumbs beneath the sofa bed during the first night of our stay when we pulled out the sofa bed.  Yikes:(MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Very convenient location for our trip to the amusement parks just right off interstate 5.  The facility is nice &amp; front desk staff were accomodating.  Plenty of restaurants nearby.  The only negative is that housekeeping needs to do a more thorough cleaning of the room.  Bed wasn't made properly and found some oreo cookie crumbs beneath the sofa bed during the first night of our stay when we pulled out the sofa bed.  Yikes:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r224662808-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>224662808</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Good business stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for a month while on business. The kitchen is equipped to cook a few basic dishes. One thing it lacked was an oven. Otherwise, this place is surprisingly comfortable for a long stay, with a living room and a separate sleeping area. We were on the ground floor facing the parking lot but it was not too much of a problem. There is a coin laundry. They were also very accommodating in terms of the cleaning times as I was staying in my room until 2pm sometimes. We even used the gas grill for a BBQ with some friends and always enjoyed the hot tub and swimming pool and gym. The WIFI is also stable and good. One thing the hotel can improve on is the quality and freshness of the breakfast. The meat, eggs, bread and juices were the high-fructose corn syrup variety and were clearly not freshly-made but looked and tasted synthetic.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Front Office Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a month while on business. The kitchen is equipped to cook a few basic dishes. One thing it lacked was an oven. Otherwise, this place is surprisingly comfortable for a long stay, with a living room and a separate sleeping area. We were on the ground floor facing the parking lot but it was not too much of a problem. There is a coin laundry. They were also very accommodating in terms of the cleaning times as I was staying in my room until 2pm sometimes. We even used the gas grill for a BBQ with some friends and always enjoyed the hot tub and swimming pool and gym. The WIFI is also stable and good. One thing the hotel can improve on is the quality and freshness of the breakfast. The meat, eggs, bread and juices were the high-fructose corn syrup variety and were clearly not freshly-made but looked and tasted synthetic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r223072413-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>223072413</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Joelyn made our stay special.</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a week.  Prior to our stay we received an email from the hotel  manager, Joelyn.  She introduced herself and asked if there was anything she could do to make our stay special.  We requested extra pillows, a high floor and mountain view room.  She told us that she couldn't guarantee our requests but would do her best to accommodate us.  Upon checking in to our room we were pleased to see that all of our requests had been made.  This hotel must have been recently renovated because the TA pictures are dated, you can visit there website for a more updated depiction of their rooms.  We had a one bedroom with kitchen and two TVs, the rooms were clean with modern decor. The wifi was consistent and we never experienced any issues with it, which is usually the case with most hotels that offer free wifi.  There was free hot breakfast daily as well as a weekday reception with light fare.  The kitchen staff as well as the front desk staff were always kind, helpful and accommodating.  Everyone here was happy to go above and beyond to make sure we were comfortable during our stay.  The hotel is in a decent location with chain restaurants,  supermarkets and malls nearby, though somewhat of a distance from downtown.  We would recommend this residence inn to anyone looking for a home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a week.  Prior to our stay we received an email from the hotel  manager, Joelyn.  She introduced herself and asked if there was anything she could do to make our stay special.  We requested extra pillows, a high floor and mountain view room.  She told us that she couldn't guarantee our requests but would do her best to accommodate us.  Upon checking in to our room we were pleased to see that all of our requests had been made.  This hotel must have been recently renovated because the TA pictures are dated, you can visit there website for a more updated depiction of their rooms.  We had a one bedroom with kitchen and two TVs, the rooms were clean with modern decor. The wifi was consistent and we never experienced any issues with it, which is usually the case with most hotels that offer free wifi.  There was free hot breakfast daily as well as a weekday reception with light fare.  The kitchen staff as well as the front desk staff were always kind, helpful and accommodating.  Everyone here was happy to go above and beyond to make sure we were comfortable during our stay.  The hotel is in a decent location with chain restaurants,  supermarkets and malls nearby, though somewhat of a distance from downtown.  We would recommend this residence inn to anyone looking for a home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r219572228-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>219572228</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Mgt went overboard!!!!!</t>
+  </si>
+  <si>
+    <t>I applaud a place where mgt takes charge of a situation to make it right. First of all they made sure we had two rooms adjoining so our big family could be near to each other---- that  is e normal sort of thing you might expect but a personal item got damaged and there was no argument Sonya the manager took care of it graciously and with charm and a true customer focus. I a am not a lifetime platinum Marriott person for nothing ------ they understand customer service fo the word go and I appreciate their focus. You can not go wrong here on any level. We chose it because of proximity to hurricane harbor and it is terrificMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>I applaud a place where mgt takes charge of a situation to make it right. First of all they made sure we had two rooms adjoining so our big family could be near to each other---- that  is e normal sort of thing you might expect but a personal item got damaged and there was no argument Sonya the manager took care of it graciously and with charm and a true customer focus. I a am not a lifetime platinum Marriott person for nothing ------ they understand customer service fo the word go and I appreciate their focus. You can not go wrong here on any level. We chose it because of proximity to hurricane harbor and it is terrificMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r214931304-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>214931304</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Lovely Staff and Room</t>
+  </si>
+  <si>
+    <t>We stayed one night and felt at home immediately.Front desk staff very friendly and helpful.Stayed in a two bed roomed suite great facilities.Pool was very nice and the complimentary drinks and breakfast very good.Would recommend to stay here as so close to Six flags theme parkMoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2014</t>
+  </si>
+  <si>
+    <t>We stayed one night and felt at home immediately.Front desk staff very friendly and helpful.Stayed in a two bed roomed suite great facilities.Pool was very nice and the complimentary drinks and breakfast very good.Would recommend to stay here as so close to Six flags theme parkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r213234285-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>213234285</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>GREAT STAY</t>
+  </si>
+  <si>
+    <t>I come to this hotel offten for business and I always check in early but this one time I checked in a little late and im glad I did because I met a black gentleman with very long cool hair I think his name was silvester. I All of the staff here are great but I would have to say silvester is the golden one. He was very polite and full of personality with GREAT customer service. this is my favorite hotel when I stay in santa claritaMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2014</t>
+  </si>
+  <si>
+    <t>I come to this hotel offten for business and I always check in early but this one time I checked in a little late and im glad I did because I met a black gentleman with very long cool hair I think his name was silvester. I All of the staff here are great but I would have to say silvester is the golden one. He was very polite and full of personality with GREAT customer service. this is my favorite hotel when I stay in santa claritaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r212322976-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>212322976</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Great Pet Friendly Hotel</t>
+  </si>
+  <si>
+    <t>Our 'family' (2 adults, 2 fur babies) spent two nights at this hotel, in a King Studio room, in June 2014
+Our room was modern, nicely furnished, larger than the standard hotel room, and most importantly, clean. It had an abundance of conveniently placed power outlets to charge all one's electronic gadgets.  The photos on the web site are an accurate representation. The kitchen has the basic requirements (although if you have a long stay and plan on cooking for a family, you might find it lacking). The hotel offers complimentary daily buffet breakfast, and dinner on three nights/week (Tue, Wed, Thu). They also offer a grocery stocking service if you need it. Also close by the hotel you will find all the usual fast food restaurant chains. 
+Complimentary WiFi (with a strong signal) is provided. They are genuinely pet friendly (not pet tolerant). I saw 6 other dogs during our short stay. All rooms appear to be made available for pets (not just a small section of old, ugly rooms). There's no extra daily charge for pets, but there is a $75 pet departure cleaning fee. This appears to be valid because there wasn't a hint of dogs being present in our room prior to us. There's a little fenced pet run for early morning/late night doggy business and there's also a number of landscaped grassy areas. You get a 'Four Legged Guest' magnet to place on your door...Our 'family' (2 adults, 2 fur babies) spent two nights at this hotel, in a King Studio room, in June 2014Our room was modern, nicely furnished, larger than the standard hotel room, and most importantly, clean. It had an abundance of conveniently placed power outlets to charge all one's electronic gadgets.  The photos on the web site are an accurate representation. The kitchen has the basic requirements (although if you have a long stay and plan on cooking for a family, you might find it lacking). The hotel offers complimentary daily buffet breakfast, and dinner on three nights/week (Tue, Wed, Thu). They also offer a grocery stocking service if you need it. Also close by the hotel you will find all the usual fast food restaurant chains. Complimentary WiFi (with a strong signal) is provided. They are genuinely pet friendly (not pet tolerant). I saw 6 other dogs during our short stay. All rooms appear to be made available for pets (not just a small section of old, ugly rooms). There's no extra daily charge for pets, but there is a $75 pet departure cleaning fee. This appears to be valid because there wasn't a hint of dogs being present in our room prior to us. There's a little fenced pet run for early morning/late night doggy business and there's also a number of landscaped grassy areas. You get a 'Four Legged Guest' magnet to place on your door to alert Housekeeping there is a pet inside. Stairs and elevator available (we stayed on the 3rd floor and used both) and there's a back entrance if you prefer not to walk your dogs through the lobby.Location of the hotel offers easy off/on to Interstate 5. Downside of that is traffic noise if you get a room on the highway side.  I had requested a room "on the third floor away from the highway". We didn't get "away from the highway" part. It was a bit noisy but it's relative. If you live in suburbia it will seem very noisy. If you live in a major city, downtown, apartment, it's probably no big deal.I would recommend this hotel for road-warrior business travelers (room to work and convenient meal solutions), couples, families traveling with children and/or pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Our 'family' (2 adults, 2 fur babies) spent two nights at this hotel, in a King Studio room, in June 2014
+Our room was modern, nicely furnished, larger than the standard hotel room, and most importantly, clean. It had an abundance of conveniently placed power outlets to charge all one's electronic gadgets.  The photos on the web site are an accurate representation. The kitchen has the basic requirements (although if you have a long stay and plan on cooking for a family, you might find it lacking). The hotel offers complimentary daily buffet breakfast, and dinner on three nights/week (Tue, Wed, Thu). They also offer a grocery stocking service if you need it. Also close by the hotel you will find all the usual fast food restaurant chains. 
+Complimentary WiFi (with a strong signal) is provided. They are genuinely pet friendly (not pet tolerant). I saw 6 other dogs during our short stay. All rooms appear to be made available for pets (not just a small section of old, ugly rooms). There's no extra daily charge for pets, but there is a $75 pet departure cleaning fee. This appears to be valid because there wasn't a hint of dogs being present in our room prior to us. There's a little fenced pet run for early morning/late night doggy business and there's also a number of landscaped grassy areas. You get a 'Four Legged Guest' magnet to place on your door...Our 'family' (2 adults, 2 fur babies) spent two nights at this hotel, in a King Studio room, in June 2014Our room was modern, nicely furnished, larger than the standard hotel room, and most importantly, clean. It had an abundance of conveniently placed power outlets to charge all one's electronic gadgets.  The photos on the web site are an accurate representation. The kitchen has the basic requirements (although if you have a long stay and plan on cooking for a family, you might find it lacking). The hotel offers complimentary daily buffet breakfast, and dinner on three nights/week (Tue, Wed, Thu). They also offer a grocery stocking service if you need it. Also close by the hotel you will find all the usual fast food restaurant chains. Complimentary WiFi (with a strong signal) is provided. They are genuinely pet friendly (not pet tolerant). I saw 6 other dogs during our short stay. All rooms appear to be made available for pets (not just a small section of old, ugly rooms). There's no extra daily charge for pets, but there is a $75 pet departure cleaning fee. This appears to be valid because there wasn't a hint of dogs being present in our room prior to us. There's a little fenced pet run for early morning/late night doggy business and there's also a number of landscaped grassy areas. You get a 'Four Legged Guest' magnet to place on your door to alert Housekeeping there is a pet inside. Stairs and elevator available (we stayed on the 3rd floor and used both) and there's a back entrance if you prefer not to walk your dogs through the lobby.Location of the hotel offers easy off/on to Interstate 5. Downside of that is traffic noise if you get a room on the highway side.  I had requested a room "on the third floor away from the highway". We didn't get "away from the highway" part. It was a bit noisy but it's relative. If you live in suburbia it will seem very noisy. If you live in a major city, downtown, apartment, it's probably no big deal.I would recommend this hotel for road-warrior business travelers (room to work and convenient meal solutions), couples, families traveling with children and/or pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r206539800-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>206539800</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>👌</t>
+  </si>
+  <si>
+    <t>This is the best hotel you can possibly stay at if you like amusement parks near by. I absolutely loveeee this hotel. I really recommend staying. The room service was polite, the pool was clean, the room was really really comforting, and the staff were really welcoming. ☺️MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>This is the best hotel you can possibly stay at if you like amusement parks near by. I absolutely loveeee this hotel. I really recommend staying. The room service was polite, the pool was clean, the room was really really comforting, and the staff were really welcoming. ☺️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r206262262-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>206262262</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Clean But Dated Hotel</t>
+  </si>
+  <si>
+    <t>Very good location, but our room (standard queen bed with pull out bed/couch) was TINY and the hotel felt dated even though they have done recent renovations. Breakfast was not very good - just the standard continental spread you can find anywhere. We used free e-certificates earned from Marriott good for category 1-5 hotels. This hotel seemed more like a category 3 than the category 5 Marriott claims. I would probably stay elsewhere in Santa Clarita on my next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Very good location, but our room (standard queen bed with pull out bed/couch) was TINY and the hotel felt dated even though they have done recent renovations. Breakfast was not very good - just the standard continental spread you can find anywhere. We used free e-certificates earned from Marriott good for category 1-5 hotels. This hotel seemed more like a category 3 than the category 5 Marriott claims. I would probably stay elsewhere in Santa Clarita on my next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r205477492-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>205477492</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable &amp; comfortable</t>
+  </si>
+  <si>
+    <t>This property and the staff were wonderful.  Some of the property was closed off for remodeling and updating but it didn't interfere with getting around the place.  The breakfast options were outstanding with helpful morning staff.  The two bedroom suite was very nice and roomy and the kitchen was very easy to work in.  We will stay there again and look forward to seeing the updated property.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>This property and the staff were wonderful.  Some of the property was closed off for remodeling and updating but it didn't interfere with getting around the place.  The breakfast options were outstanding with helpful morning staff.  The two bedroom suite was very nice and roomy and the kitchen was very easy to work in.  We will stay there again and look forward to seeing the updated property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r200362345-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>200362345</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>What every hotel should be like!</t>
+  </si>
+  <si>
+    <t>This isn't the first time I've used the Hotel, nor will it be the last. We have meetings very often--and the staff is more than accommodating, especially Alissa who is the Sales &amp; Catering manager there. She is beyond a delight to work with. Everything is very orderly and she will always do her best to accommodate you. She's also in charge of the same department for Hampton Inn, Fairfield Inn, and the Courtyard. If she can't get you in at one place, she will check the others. So not is it only convenient, but beyond efficient. I can't gloat enough about this place as I've had them accommodate us at the very last minute--as in less than a day!So if great hotel experience is what you're searching for--I more than HIGHLY recommend this.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2014</t>
+  </si>
+  <si>
+    <t>This isn't the first time I've used the Hotel, nor will it be the last. We have meetings very often--and the staff is more than accommodating, especially Alissa who is the Sales &amp; Catering manager there. She is beyond a delight to work with. Everything is very orderly and she will always do her best to accommodate you. She's also in charge of the same department for Hampton Inn, Fairfield Inn, and the Courtyard. If she can't get you in at one place, she will check the others. So not is it only convenient, but beyond efficient. I can't gloat enough about this place as I've had them accommodate us at the very last minute--as in less than a day!So if great hotel experience is what you're searching for--I more than HIGHLY recommend this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r170884190-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>170884190</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Excellent base close to 6 flags</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights as part of a California road trip to enable us to visit Six Flags Magic Mountain, for which the hotel is very convenient.  The suite we were in was extremely comfortable, with excellent breakfast and swimming pool complete with hot tub and fire pit.  A suggestion I would make is to provide a bar service near to the pool area.  That would make things perfect.  Would definitely stay here again, the only problem with our stay was a power cut which was not the hotel's fault.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r166770642-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>166770642</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Meeting Rooms with the best service!</t>
+  </si>
+  <si>
+    <t>We hold meetings at this property...and the service from the Sales &amp; Catering Manager Kelliann is always over the top exceptional!  Emails the week of the meeting for a final walkthrough of needs, wishes, set up and etc.  I don't need to send reminders to her...she reminds me!And just booked for 2014....easy peasy and stress-free!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>We hold meetings at this property...and the service from the Sales &amp; Catering Manager Kelliann is always over the top exceptional!  Emails the week of the meeting for a final walkthrough of needs, wishes, set up and etc.  I don't need to send reminders to her...she reminds me!And just booked for 2014....easy peasy and stress-free!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r165584697-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>165584697</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>This Residence Inn is awesome!  We travel to this area for work on a consistent basis and love staying here.  The staff are always helpful and accommodating and go out of their way to make sure we are taken care off.  It is always a good experience and we would not stay anywhere else!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2013</t>
+  </si>
+  <si>
+    <t>This Residence Inn is awesome!  We travel to this area for work on a consistent basis and love staying here.  The staff are always helpful and accommodating and go out of their way to make sure we are taken care off.  It is always a good experience and we would not stay anywhere else!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r165454150-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>165454150</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Great place for a large family, convenient!</t>
+  </si>
+  <si>
+    <t>I have a family of 5 and the Residence Inn is very accomadating.  The breakfast was great and the rooms are spacious and clean. I was impressed with the staff and they were very good with my kids running around the hotel! I definitely will stay here again on our next family trip to Magic Mountain.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I have a family of 5 and the Residence Inn is very accomadating.  The breakfast was great and the rooms are spacious and clean. I was impressed with the staff and they were very good with my kids running around the hotel! I definitely will stay here again on our next family trip to Magic Mountain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r164830488-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>164830488</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Sofa bed mattress had feces and blood stain, room smelled of extreme air freshener</t>
+  </si>
+  <si>
+    <t>This was my third and LAST stay in a Residence Inn. 
+My first stay was in Henderson Nevada. It was excellent with the best management, extremely clean suites and exceptional service for the two handicapped elders with whom we were traveling. Expecting the same service in other Marriott Residence Inns, I made the mistake of booking Marriott Residence Maingate in Anaheim (see my earlier review of that dirty, run-down dump) and also this Residence Inn in Santa Clarita. 
+We arrived with my 90+ year old mother around 1:00a.m. When we checked into the room I was overwhelmed by the extreme, choking odor from room freshener. The reason for the room freshener became abundantly clear when we opened the pull-out sofa. The mattress was caved in where there were blood and feces stains on one side and edge. We called the front desk. There was only person on duty, the front desk clerk, so there was nothing that could be done to remedy the situation. No other mattress available, no other rooms available. 
+We didn't want to risk our health by sleeping on a toxic waste mattress. My elderly mother had already fallen asleep or we would have immediately packed up and gone to another hotel even though it was almost 2 a.m. We requested additional sheets, folded up the sofa and slept on the sofa top with legs hanging over the edge. (DOESN'T THE SONG SAY, "OH WHAT A NIGHT"...This was my third and LAST stay in a Residence Inn. My first stay was in Henderson Nevada. It was excellent with the best management, extremely clean suites and exceptional service for the two handicapped elders with whom we were traveling. Expecting the same service in other Marriott Residence Inns, I made the mistake of booking Marriott Residence Maingate in Anaheim (see my earlier review of that dirty, run-down dump) and also this Residence Inn in Santa Clarita. We arrived with my 90+ year old mother around 1:00a.m. When we checked into the room I was overwhelmed by the extreme, choking odor from room freshener. The reason for the room freshener became abundantly clear when we opened the pull-out sofa. The mattress was caved in where there were blood and feces stains on one side and edge. We called the front desk. There was only person on duty, the front desk clerk, so there was nothing that could be done to remedy the situation. No other mattress available, no other rooms available. We didn't want to risk our health by sleeping on a toxic waste mattress. My elderly mother had already fallen asleep or we would have immediately packed up and gone to another hotel even though it was almost 2 a.m. We requested additional sheets, folded up the sofa and slept on the sofa top with legs hanging over the edge. (DOESN'T THE SONG SAY, "OH WHAT A NIGHT" seem appropriate about now?)Next morning we ventured to the breakfast room with trepidation because if housekeeping is that lax, what could the cooking/kitchen staff cleanliness standards include or exclude? The servers in that area were gracious but as another reviewer point out, plastic is the only service provided, how odd but I realize it saves on labor.The front desk clerk told me rudely that the room had been discounted. Of course I asked for the manager. A discount was not enough. I wanted a total refund. Without bringing the manager forward, who should have offered profuse apologies and explanation, they then said the charge had been removed from my account. When I wrote to the manager, I complained that his entire housekeeping staff was suspect in my opinion because they would make up a room with this absolutely unsafe blood and feces covered mattress that had been cleaned inadequately. If management allows for conditions that are unclean and toxic to which their guests or employees are exposed, they are not doing their job. I copied the same letter to Marriott Corporate. As a long-time Marriott platinum awards member, I had expected Marriott quality and consistency. This Residence Inn does not meet Marriott standards that I have known over the years. I would have been better off staying anywhere else. I'm very glad we didn't get sick from exposure to this toxic mattress and room. Manager, don't bother with a rebuttal. I have your letter in my Marriott file. No amount of excuses make up for that disgusting night.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, General Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>This was my third and LAST stay in a Residence Inn. 
+My first stay was in Henderson Nevada. It was excellent with the best management, extremely clean suites and exceptional service for the two handicapped elders with whom we were traveling. Expecting the same service in other Marriott Residence Inns, I made the mistake of booking Marriott Residence Maingate in Anaheim (see my earlier review of that dirty, run-down dump) and also this Residence Inn in Santa Clarita. 
+We arrived with my 90+ year old mother around 1:00a.m. When we checked into the room I was overwhelmed by the extreme, choking odor from room freshener. The reason for the room freshener became abundantly clear when we opened the pull-out sofa. The mattress was caved in where there were blood and feces stains on one side and edge. We called the front desk. There was only person on duty, the front desk clerk, so there was nothing that could be done to remedy the situation. No other mattress available, no other rooms available. 
+We didn't want to risk our health by sleeping on a toxic waste mattress. My elderly mother had already fallen asleep or we would have immediately packed up and gone to another hotel even though it was almost 2 a.m. We requested additional sheets, folded up the sofa and slept on the sofa top with legs hanging over the edge. (DOESN'T THE SONG SAY, "OH WHAT A NIGHT"...This was my third and LAST stay in a Residence Inn. My first stay was in Henderson Nevada. It was excellent with the best management, extremely clean suites and exceptional service for the two handicapped elders with whom we were traveling. Expecting the same service in other Marriott Residence Inns, I made the mistake of booking Marriott Residence Maingate in Anaheim (see my earlier review of that dirty, run-down dump) and also this Residence Inn in Santa Clarita. We arrived with my 90+ year old mother around 1:00a.m. When we checked into the room I was overwhelmed by the extreme, choking odor from room freshener. The reason for the room freshener became abundantly clear when we opened the pull-out sofa. The mattress was caved in where there were blood and feces stains on one side and edge. We called the front desk. There was only person on duty, the front desk clerk, so there was nothing that could be done to remedy the situation. No other mattress available, no other rooms available. We didn't want to risk our health by sleeping on a toxic waste mattress. My elderly mother had already fallen asleep or we would have immediately packed up and gone to another hotel even though it was almost 2 a.m. We requested additional sheets, folded up the sofa and slept on the sofa top with legs hanging over the edge. (DOESN'T THE SONG SAY, "OH WHAT A NIGHT" seem appropriate about now?)Next morning we ventured to the breakfast room with trepidation because if housekeeping is that lax, what could the cooking/kitchen staff cleanliness standards include or exclude? The servers in that area were gracious but as another reviewer point out, plastic is the only service provided, how odd but I realize it saves on labor.The front desk clerk told me rudely that the room had been discounted. Of course I asked for the manager. A discount was not enough. I wanted a total refund. Without bringing the manager forward, who should have offered profuse apologies and explanation, they then said the charge had been removed from my account. When I wrote to the manager, I complained that his entire housekeeping staff was suspect in my opinion because they would make up a room with this absolutely unsafe blood and feces covered mattress that had been cleaned inadequately. If management allows for conditions that are unclean and toxic to which their guests or employees are exposed, they are not doing their job. I copied the same letter to Marriott Corporate. As a long-time Marriott platinum awards member, I had expected Marriott quality and consistency. This Residence Inn does not meet Marriott standards that I have known over the years. I would have been better off staying anywhere else. I'm very glad we didn't get sick from exposure to this toxic mattress and room. Manager, don't bother with a rebuttal. I have your letter in my Marriott file. No amount of excuses make up for that disgusting night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r163309273-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>163309273</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable for family of 5</t>
+  </si>
+  <si>
+    <t>We stayed overnight here prior to going to Magic Mtn.  The 'oversized Studio' was very spacious (roomier than Embassy Suites).  We have three teenagers and the studio had 2 queens and a pull-out queen.  Breakfast was good (make your own Belgium waffles, fruit, cereal, bagels, coffee, juice).  Breakfast staff was very friendly. Room was very clean and updated.  This hotel has a small outdoor basketball court.  Free wi-fi.  And for meals, Santa Clarita has every possible restaurant (casual, fast food, take-out, sit down).MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded June 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2013</t>
+  </si>
+  <si>
+    <t>We stayed overnight here prior to going to Magic Mtn.  The 'oversized Studio' was very spacious (roomier than Embassy Suites).  We have three teenagers and the studio had 2 queens and a pull-out queen.  Breakfast was good (make your own Belgium waffles, fruit, cereal, bagels, coffee, juice).  Breakfast staff was very friendly. Room was very clean and updated.  This hotel has a small outdoor basketball court.  Free wi-fi.  And for meals, Santa Clarita has every possible restaurant (casual, fast food, take-out, sit down).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r162781454-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>162781454</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Need a bigger lobby &amp; dining room</t>
+  </si>
+  <si>
+    <t>A very clean, comfortable and safe stay in North LA.  The rooms were of 4 star quality and the service was very friendly and efficient.  A little bit on the expensive side for Santa Clarita.  The complimentary breakfast was good (especially the fresh fruit) but couldn't find a place to sit - too small - bad engineering.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>A very clean, comfortable and safe stay in North LA.  The rooms were of 4 star quality and the service was very friendly and efficient.  A little bit on the expensive side for Santa Clarita.  The complimentary breakfast was good (especially the fresh fruit) but couldn't find a place to sit - too small - bad engineering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r159473534-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>159473534</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>I stayed here on business in April 2013.  The hotel is conveniently located off the I-5 highway and is a short distance away from Six Flags Magic Mountain amusement park.  Like all Residence Inn hotels, they had a complimentary evening social and morning breakfast.  Internet access is also complimentary.  I had eaten dinner before my arrival but could not resist the barbecue beef they were serving for their evening social.  My room was spacious, and the staff was friendly.  I took advantage of their small exercise room for a morning run.  The breakfast spread in the morning offers a nice variety.  Residence Inn has a nice formula, and this hotel follows it pretty closely.  When I stay at a Residence Inn, I generally know what to expect.  As long as the hotel is clean and the staff is competent, I generally do not have a problem.  This hotel was clean, and the staff was friendly and helpful.  I was here for business, but I could definitely see staying here if I were planning to visit the amusement park.  It is quite close.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here on business in April 2013.  The hotel is conveniently located off the I-5 highway and is a short distance away from Six Flags Magic Mountain amusement park.  Like all Residence Inn hotels, they had a complimentary evening social and morning breakfast.  Internet access is also complimentary.  I had eaten dinner before my arrival but could not resist the barbecue beef they were serving for their evening social.  My room was spacious, and the staff was friendly.  I took advantage of their small exercise room for a morning run.  The breakfast spread in the morning offers a nice variety.  Residence Inn has a nice formula, and this hotel follows it pretty closely.  When I stay at a Residence Inn, I generally know what to expect.  As long as the hotel is clean and the staff is competent, I generally do not have a problem.  This hotel was clean, and the staff was friendly and helpful.  I was here for business, but I could definitely see staying here if I were planning to visit the amusement park.  It is quite close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r153908877-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>153908877</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Great place to stay, Wonderful location, within few minutes from Grocery stores and restaurants.  If you don't want to drive, you can walk to any of 4 or 5 fast food places next door.  Clean and well decorated rooms. Good service. Easy access to the highway and nice neighborhoods of Stevenson Ranch.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Great place to stay, Wonderful location, within few minutes from Grocery stores and restaurants.  If you don't want to drive, you can walk to any of 4 or 5 fast food places next door.  Clean and well decorated rooms. Good service. Easy access to the highway and nice neighborhoods of Stevenson Ranch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r152674311-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>152674311</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Great for families and business travelers. Weird HVAC!</t>
+  </si>
+  <si>
+    <t>I never stayed at a Residence Inn before, but decided to stay here because they accepted a Marriott Signature Certificate and it had good ratings.
+Overall, a nice place. Excellent for families and business travelers who need to stay multiple days. The kitchen is nice and large. They offer grocery running services as well.
+Beware that they only have queen beds available. No king size beds. 
+Also, something to consider is if you like your room cold while sleeping (we like 68) they have a GEM energy management system which turns off the AC when no one is in the room. Sounds great in theory.. no one wants to waste electricity when it isn't needed. However, the problem is that the GEM system uses motion sensors to detect movement. When you are sleeping in the bed- not moving, the system doesn't "see" you and thinks the room is unoccupied- hence turning off the AC. 
+For us, this meant we'd wake up when it got hot, the system would detect movement, turn on the AC, we'd fall asleep, then it would get hot again 30 mins later, repeat.
+Aside from the AC, the only other negative was that our refrigerator looks like it lost a battle with an angry guest- it had all sorts of dents in it. The stainless steel door really looked bad- and brought the whole room down with it.
+To end on a positive note, the staff...I never stayed at a Residence Inn before, but decided to stay here because they accepted a Marriott Signature Certificate and it had good ratings.Overall, a nice place. Excellent for families and business travelers who need to stay multiple days. The kitchen is nice and large. They offer grocery running services as well.Beware that they only have queen beds available. No king size beds. Also, something to consider is if you like your room cold while sleeping (we like 68) they have a GEM energy management system which turns off the AC when no one is in the room. Sounds great in theory.. no one wants to waste electricity when it isn't needed. However, the problem is that the GEM system uses motion sensors to detect movement. When you are sleeping in the bed- not moving, the system doesn't "see" you and thinks the room is unoccupied- hence turning off the AC. For us, this meant we'd wake up when it got hot, the system would detect movement, turn on the AC, we'd fall asleep, then it would get hot again 30 mins later, repeat.Aside from the AC, the only other negative was that our refrigerator looks like it lost a battle with an angry guest- it had all sorts of dents in it. The stainless steel door really looked bad- and brought the whole room down with it.To end on a positive note, the staff was really friendly and the shuttle service was free and very timely. This was a great plus for us since we didn't want to pay $17 to park our car at Magic Mountain.MoreShow less</t>
+  </si>
+  <si>
+    <t>I never stayed at a Residence Inn before, but decided to stay here because they accepted a Marriott Signature Certificate and it had good ratings.
+Overall, a nice place. Excellent for families and business travelers who need to stay multiple days. The kitchen is nice and large. They offer grocery running services as well.
+Beware that they only have queen beds available. No king size beds. 
+Also, something to consider is if you like your room cold while sleeping (we like 68) they have a GEM energy management system which turns off the AC when no one is in the room. Sounds great in theory.. no one wants to waste electricity when it isn't needed. However, the problem is that the GEM system uses motion sensors to detect movement. When you are sleeping in the bed- not moving, the system doesn't "see" you and thinks the room is unoccupied- hence turning off the AC. 
+For us, this meant we'd wake up when it got hot, the system would detect movement, turn on the AC, we'd fall asleep, then it would get hot again 30 mins later, repeat.
+Aside from the AC, the only other negative was that our refrigerator looks like it lost a battle with an angry guest- it had all sorts of dents in it. The stainless steel door really looked bad- and brought the whole room down with it.
+To end on a positive note, the staff...I never stayed at a Residence Inn before, but decided to stay here because they accepted a Marriott Signature Certificate and it had good ratings.Overall, a nice place. Excellent for families and business travelers who need to stay multiple days. The kitchen is nice and large. They offer grocery running services as well.Beware that they only have queen beds available. No king size beds. Also, something to consider is if you like your room cold while sleeping (we like 68) they have a GEM energy management system which turns off the AC when no one is in the room. Sounds great in theory.. no one wants to waste electricity when it isn't needed. However, the problem is that the GEM system uses motion sensors to detect movement. When you are sleeping in the bed- not moving, the system doesn't "see" you and thinks the room is unoccupied- hence turning off the AC. For us, this meant we'd wake up when it got hot, the system would detect movement, turn on the AC, we'd fall asleep, then it would get hot again 30 mins later, repeat.Aside from the AC, the only other negative was that our refrigerator looks like it lost a battle with an angry guest- it had all sorts of dents in it. The stainless steel door really looked bad- and brought the whole room down with it.To end on a positive note, the staff was really friendly and the shuttle service was free and very timely. This was a great plus for us since we didn't want to pay $17 to park our car at Magic Mountain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r152395187-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>152395187</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>Clean, New, Great price, Very comfortable</t>
+  </si>
+  <si>
+    <t>We stayed at Residence Inn, Santa clarita, and we really liked our stay.  The room was very clean and smelled new and fresh.  The beds were comfortable and the refrigerator was clean and new.  We really have nothing bad to say about it. The breakfast was very good and hot.  The proximity to the freeway and LA was just about right.  A great way to break up a trip from San Francisco to LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at Residence Inn, Santa clarita, and we really liked our stay.  The room was very clean and smelled new and fresh.  The beds were comfortable and the refrigerator was clean and new.  We really have nothing bad to say about it. The breakfast was very good and hot.  The proximity to the freeway and LA was just about right.  A great way to break up a trip from San Francisco to LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r146533292-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>146533292</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Good location &amp; great breakfast</t>
+  </si>
+  <si>
+    <t>This is an excellent location if you are planning on going to Magic Mountain.  This hotel is nestled with a number of other hotels and fast food restaurants.  It was clean, quiet, comfortable, and safe.  The complimentary breakfast was excellent! It had many options and was fresh. The pool &amp; hot tub were good.  Staff were friendly, courteous, and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Ian K, Public Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2012</t>
+  </si>
+  <si>
+    <t>This is an excellent location if you are planning on going to Magic Mountain.  This hotel is nestled with a number of other hotels and fast food restaurants.  It was clean, quiet, comfortable, and safe.  The complimentary breakfast was excellent! It had many options and was fresh. The pool &amp; hot tub were good.  Staff were friendly, courteous, and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r145763779-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>145763779</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We had a 2 bedroom suite both en-suites, plenty big enough for 3 of us for our 5 week stay.  Well equipped kitchen / standards of cleanliness were high / the staff were brilliant friendly, helpful and couldn't do enough for you.  Pool area cleaned every morning and towels left on sun beds.  Breakfasts were more than adequate.  3 evening meals are included more of a snack, always salad with usually one hot main, and free beer!  Shuttle bus available for local use.  We were 4 miles from Valencia town centre.  Would definately stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We had a 2 bedroom suite both en-suites, plenty big enough for 3 of us for our 5 week stay.  Well equipped kitchen / standards of cleanliness were high / the staff were brilliant friendly, helpful and couldn't do enough for you.  Pool area cleaned every morning and towels left on sun beds.  Breakfasts were more than adequate.  3 evening meals are included more of a snack, always salad with usually one hot main, and free beer!  Shuttle bus available for local use.  We were 4 miles from Valencia town centre.  Would definately stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r145379523-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>145379523</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Best experience in term of services &amp; friendly atmosphere</t>
+  </si>
+  <si>
+    <t>Due to business trip, get an opportunity to stay at Residence Inn, Santa Clarita from 28Aug till 16Sep 2012.I would say the best experience I ever had. Clean &amp; neat room with a convenient for cooking (yes, I cook some lite snack for myself by using microwave!!!)Friendly staffs, helpful &amp; informative, especially the front desk guys. They provide complimentary breakfast &amp; dinner on Tue to Thu, nice food &amp; friendly waitress. Strategic location with walking distance to food &amp; malls, nice walking around the area &amp; feel safe. Short distance drive to Valencia Boulevard with nice malls.Overall feel great.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Due to business trip, get an opportunity to stay at Residence Inn, Santa Clarita from 28Aug till 16Sep 2012.I would say the best experience I ever had. Clean &amp; neat room with a convenient for cooking (yes, I cook some lite snack for myself by using microwave!!!)Friendly staffs, helpful &amp; informative, especially the front desk guys. They provide complimentary breakfast &amp; dinner on Tue to Thu, nice food &amp; friendly waitress. Strategic location with walking distance to food &amp; malls, nice walking around the area &amp; feel safe. Short distance drive to Valencia Boulevard with nice malls.Overall feel great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r135014944-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>135014944</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Family Reunion 2012</t>
+  </si>
+  <si>
+    <t>We stayed a week at the Res Inn in Santa Clarita for a 35+ family reunion in the SF Valley area.  We were upgraded to a 2 bedroom suite for me and my daughter's family of 5.  Worked out great except for the upstairs guests who did a lot of running across the floor above us (We were in 214).  They graciously moved us to the same room type on the 3rd floor the next day and it was smooth sailing after that.  We can't say enough about the friendly staff who accommodated our every need.  The rooms had a full kitchen and was cleaned and freshened by housekeeping each day. The pool and jacuzzi were awesome and crystal clean.  We did several "midnight swims" with the children and they loved it.  They also have a firepit with comfortable chairs around it, but we preferred the jacuzzi! The inn serves a breakfast each morning with fresh fruit and the usual breakfast fare.  Not so sure about those eggs though! It was average, but free so who's complaining?!!  Never made it to the manager's reception. I also noticed that so many of the other guests were pleasant and fun to chat with.  We will definitely stay here again should we go back to the area.  We felt right at home!
+I will suggest you keep vigilant when you're using the freeways.  There was a LOT of construction with some signage missing...We stayed a week at the Res Inn in Santa Clarita for a 35+ family reunion in the SF Valley area.  We were upgraded to a 2 bedroom suite for me and my daughter's family of 5.  Worked out great except for the upstairs guests who did a lot of running across the floor above us (We were in 214).  They graciously moved us to the same room type on the 3rd floor the next day and it was smooth sailing after that.  We can't say enough about the friendly staff who accommodated our every need.  The rooms had a full kitchen and was cleaned and freshened by housekeeping each day. The pool and jacuzzi were awesome and crystal clean.  We did several "midnight swims" with the children and they loved it.  They also have a firepit with comfortable chairs around it, but we preferred the jacuzzi! The inn serves a breakfast each morning with fresh fruit and the usual breakfast fare.  Not so sure about those eggs though! It was average, but free so who's complaining?!!  Never made it to the manager's reception. I also noticed that so many of the other guests were pleasant and fun to chat with.  We will definitely stay here again should we go back to the area.  We felt right at home!I will suggest you keep vigilant when you're using the freeways.  There was a LOT of construction with some signage missing and we got lost a couple times.  Otherwise, it's a nice area for walking, shopping and just vegging by the pool.  We got very good at this!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2012</t>
+  </si>
+  <si>
+    <t>We stayed a week at the Res Inn in Santa Clarita for a 35+ family reunion in the SF Valley area.  We were upgraded to a 2 bedroom suite for me and my daughter's family of 5.  Worked out great except for the upstairs guests who did a lot of running across the floor above us (We were in 214).  They graciously moved us to the same room type on the 3rd floor the next day and it was smooth sailing after that.  We can't say enough about the friendly staff who accommodated our every need.  The rooms had a full kitchen and was cleaned and freshened by housekeeping each day. The pool and jacuzzi were awesome and crystal clean.  We did several "midnight swims" with the children and they loved it.  They also have a firepit with comfortable chairs around it, but we preferred the jacuzzi! The inn serves a breakfast each morning with fresh fruit and the usual breakfast fare.  Not so sure about those eggs though! It was average, but free so who's complaining?!!  Never made it to the manager's reception. I also noticed that so many of the other guests were pleasant and fun to chat with.  We will definitely stay here again should we go back to the area.  We felt right at home!
+I will suggest you keep vigilant when you're using the freeways.  There was a LOT of construction with some signage missing...We stayed a week at the Res Inn in Santa Clarita for a 35+ family reunion in the SF Valley area.  We were upgraded to a 2 bedroom suite for me and my daughter's family of 5.  Worked out great except for the upstairs guests who did a lot of running across the floor above us (We were in 214).  They graciously moved us to the same room type on the 3rd floor the next day and it was smooth sailing after that.  We can't say enough about the friendly staff who accommodated our every need.  The rooms had a full kitchen and was cleaned and freshened by housekeeping each day. The pool and jacuzzi were awesome and crystal clean.  We did several "midnight swims" with the children and they loved it.  They also have a firepit with comfortable chairs around it, but we preferred the jacuzzi! The inn serves a breakfast each morning with fresh fruit and the usual breakfast fare.  Not so sure about those eggs though! It was average, but free so who's complaining?!!  Never made it to the manager's reception. I also noticed that so many of the other guests were pleasant and fun to chat with.  We will definitely stay here again should we go back to the area.  We felt right at home!I will suggest you keep vigilant when you're using the freeways.  There was a LOT of construction with some signage missing and we got lost a couple times.  Otherwise, it's a nice area for walking, shopping and just vegging by the pool.  We got very good at this!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r134826298-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>134826298</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Great Location for Magic Mountain</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights while visiting Magic Mountain. Very easy check in. I made a request to change my room type and they were very accomodating. The hotel was very clean and well maintained. Everything in the room worked perfectly. We stayed in a studio and it was plenty spacious. The breakfast buffet was reasoanbly good. Food quality was average. Would have liked a little more variety. Basically 1 egg dish, 1 meat and a little fruit. They do have a waffle maker to make your own waffles. Plenty of seating in the breakfast area so it din't feel overcrowded. The hotels is about 2 miles from Magic Mountain and there are plenty of restaurants nearby. Just booked a return stay for next month.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights while visiting Magic Mountain. Very easy check in. I made a request to change my room type and they were very accomodating. The hotel was very clean and well maintained. Everything in the room worked perfectly. We stayed in a studio and it was plenty spacious. The breakfast buffet was reasoanbly good. Food quality was average. Would have liked a little more variety. Basically 1 egg dish, 1 meat and a little fruit. They do have a waffle maker to make your own waffles. Plenty of seating in the breakfast area so it din't feel overcrowded. The hotels is about 2 miles from Magic Mountain and there are plenty of restaurants nearby. Just booked a return stay for next month.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r133939289-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>133939289</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>First experience of long-stay hotel</t>
+  </si>
+  <si>
+    <t>Useful place if you have a family and great to have a fridge - otherwise - travelling solo - I'd rather have a standard hotel room. Rooms have everything but are dark and totally soul-less.  TV signal lousy, beds and baths fine. Tiny pool (not unusual). What did surprise me was that the free breakfast (which they started to clear before the deadline).  Choice was limited (OK for free though) but the scrambled eggs looked like they'd been made from egg powder - you cannot get such a uniform colour - or cement-like consistency from real eggs....BUT serving it on polystyrene plates with plastic cutlery - what do they think we'll do?  Go Greek and start throwing the plates on the floor and dance around them and steal the cutlery? Unfortunately as I stayed over 2 trips of Thursday night to Tuesday I didn't experience the Manager's buffet but hope it would be better than the breakfast.  However, stacks of cheap places to eat within walking distance, and better places a short drive away.Front desk staff were cheerful and helpful in every way and offered help when needed - and they were the heroes of the stay - otherwise - if I'd not used Marriott points for the stay I'd have checked out early and cancelled my second stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIFFISC, Guest Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Useful place if you have a family and great to have a fridge - otherwise - travelling solo - I'd rather have a standard hotel room. Rooms have everything but are dark and totally soul-less.  TV signal lousy, beds and baths fine. Tiny pool (not unusual). What did surprise me was that the free breakfast (which they started to clear before the deadline).  Choice was limited (OK for free though) but the scrambled eggs looked like they'd been made from egg powder - you cannot get such a uniform colour - or cement-like consistency from real eggs....BUT serving it on polystyrene plates with plastic cutlery - what do they think we'll do?  Go Greek and start throwing the plates on the floor and dance around them and steal the cutlery? Unfortunately as I stayed over 2 trips of Thursday night to Tuesday I didn't experience the Manager's buffet but hope it would be better than the breakfast.  However, stacks of cheap places to eat within walking distance, and better places a short drive away.Front desk staff were cheerful and helpful in every way and offered help when needed - and they were the heroes of the stay - otherwise - if I'd not used Marriott points for the stay I'd have checked out early and cancelled my second stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r129594374-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>129594374</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Everything you need plus friendly staff</t>
+  </si>
+  <si>
+    <t>I've been very fortunate to stay there 170 days over the past year and have experienced exceptional service with everything you need.  The staff there have become my second family and treat everyone as if they are family as well.   Always helpful, proactive and react quickly when things need to be done.   I work in the hospitality industry and look for the small details, which make the biggest difference for me.  The accommodation and maintenance staff are always consistent and always on top of things that need to be done.   From the smallest thing to when you need to change rooms, they are there to assist you in anyway.  Plus, they are very friendly and personable always giving me smile.The Front Desk team are always on top of things, making sure my favourite room is reserved to greeting me when I come through the lobby. It's nice to see there smiling faces everyday.  The morning and evening staff that provide service in the cafe' area are always first to greet you in the morning.  It's not unusual to see them helping the kids and knowing there favourite foods and drinks.   I would suggest you get 3rd Floor looking East if you like to have the sun coming into your room when you open your blinds.  I would highly recommend the Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded May 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2012</t>
+  </si>
+  <si>
+    <t>I've been very fortunate to stay there 170 days over the past year and have experienced exceptional service with everything you need.  The staff there have become my second family and treat everyone as if they are family as well.   Always helpful, proactive and react quickly when things need to be done.   I work in the hospitality industry and look for the small details, which make the biggest difference for me.  The accommodation and maintenance staff are always consistent and always on top of things that need to be done.   From the smallest thing to when you need to change rooms, they are there to assist you in anyway.  Plus, they are very friendly and personable always giving me smile.The Front Desk team are always on top of things, making sure my favourite room is reserved to greeting me when I come through the lobby. It's nice to see there smiling faces everyday.  The morning and evening staff that provide service in the cafe' area are always first to greet you in the morning.  It's not unusual to see them helping the kids and knowing there favourite foods and drinks.   I would suggest you get 3rd Floor looking East if you like to have the sun coming into your room when you open your blinds.  I would highly recommend the Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r129415642-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>129415642</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>Perfect for my needs</t>
+  </si>
+  <si>
+    <t>I stay approximately 80 nights per year at the Residence Inn in Santa Clarita (work related) usually 3 to 4 nights at a time. Their staff is excellent and the amenities are perfect for someone like me. I can cook my own meals, whether in the room or the grill by the pool, as it gets pretty old eating out at restaraunts all the time (although there are many fine dining establishments in the area). The rooms are large and comfortable with full size aplliances in the kichen area that includes dinner ware, pots, pans etc. My wife joins me occasionally as do my grandchildren and they all enjoy the pool/spa area. The grandkids practically live in the pool when thay visit. It has become my home away from home. I have stayed at other hotels in the area but thay seem cramped and dark compared to the Residence Inn. A great place to stay especially if your traveling with family and they do accept pets (for a fee).MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay approximately 80 nights per year at the Residence Inn in Santa Clarita (work related) usually 3 to 4 nights at a time. Their staff is excellent and the amenities are perfect for someone like me. I can cook my own meals, whether in the room or the grill by the pool, as it gets pretty old eating out at restaraunts all the time (although there are many fine dining establishments in the area). The rooms are large and comfortable with full size aplliances in the kichen area that includes dinner ware, pots, pans etc. My wife joins me occasionally as do my grandchildren and they all enjoy the pool/spa area. The grandkids practically live in the pool when thay visit. It has become my home away from home. I have stayed at other hotels in the area but thay seem cramped and dark compared to the Residence Inn. A great place to stay especially if your traveling with family and they do accept pets (for a fee).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r128086852-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>128086852</t>
+  </si>
+  <si>
+    <t>04/17/2012</t>
+  </si>
+  <si>
+    <t>way overpriced</t>
+  </si>
+  <si>
+    <t>this RI is ok but like all hotels around LA and Santa Clarita is overpriced by at least 40 $. Dont pay more than 80 bucks for this place. ITs not worth more than that. Truly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded April 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2012</t>
+  </si>
+  <si>
+    <t>this RI is ok but like all hotels around LA and Santa Clarita is overpriced by at least 40 $. Dont pay more than 80 bucks for this place. ITs not worth more than that. Truly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r122882399-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>122882399</t>
+  </si>
+  <si>
+    <t>01/10/2012</t>
+  </si>
+  <si>
+    <t>Fabulous Breakfast!</t>
+  </si>
+  <si>
+    <t>Nice hotel with a wonderful breakfast!  A great place to stay if visiting Six Flags Magic Mountain!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>RIFFISC, Public Relations Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded April 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2012</t>
+  </si>
+  <si>
+    <t>Nice hotel with a wonderful breakfast!  A great place to stay if visiting Six Flags Magic Mountain!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r121477023-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>121477023</t>
+  </si>
+  <si>
+    <t>12/06/2011</t>
+  </si>
+  <si>
+    <t>Plenty of room at the inn...</t>
+  </si>
+  <si>
+    <t>We were driving from Northern California down to Anaheim to visit family and Disneyland and we decided to leave a day early to get over the grapevine and beat the rain...  Glad we did, because we did indeed beat the rain.  What we neglected to do, however, was research where to stay on the way.  Once we got to Santa Clarita we decided we needed to find a place to stay for the night.  We started out at the Hampton Inn only to find out that their rooms only offer two beds, no roll-away beds are available.  (Since we were traveling with our high school aged daughter and college aged son we needed three beds.)  The staff at the front desk were quite helpful, they said that the Residence Inn across the parking lot would be perfect for us.  They gave me the number and suggested I call right then and there, which I did.  "Kyle with a smile" at the Residence Inn took our information and saved a room for us.  We made our way across the parking lot, and waited about five minutes for the front desk clerk to come out and register us and assign us a room.  We were tired and cranky, but once we opened the door to our very spacious room we were happy.  Two beds, sofa bed, full kitchen, flat screen TV...  Clean and tidy!  It was perfect!  The next morning before checking...We were driving from Northern California down to Anaheim to visit family and Disneyland and we decided to leave a day early to get over the grapevine and beat the rain...  Glad we did, because we did indeed beat the rain.  What we neglected to do, however, was research where to stay on the way.  Once we got to Santa Clarita we decided we needed to find a place to stay for the night.  We started out at the Hampton Inn only to find out that their rooms only offer two beds, no roll-away beds are available.  (Since we were traveling with our high school aged daughter and college aged son we needed three beds.)  The staff at the front desk were quite helpful, they said that the Residence Inn across the parking lot would be perfect for us.  They gave me the number and suggested I call right then and there, which I did.  "Kyle with a smile" at the Residence Inn took our information and saved a room for us.  We made our way across the parking lot, and waited about five minutes for the front desk clerk to come out and register us and assign us a room.  We were tired and cranky, but once we opened the door to our very spacious room we were happy.  Two beds, sofa bed, full kitchen, flat screen TV...  Clean and tidy!  It was perfect!  The next morning before checking out and heading down to Anaheim we had breakfast.  It was great.  Waffles, eggs, breakfast meat, fresh fruit, muffins, bagels, toast, juice, coffee, tea, soda...  Everything you could ask for; the place is great.  I would definitely recommend it to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We were driving from Northern California down to Anaheim to visit family and Disneyland and we decided to leave a day early to get over the grapevine and beat the rain...  Glad we did, because we did indeed beat the rain.  What we neglected to do, however, was research where to stay on the way.  Once we got to Santa Clarita we decided we needed to find a place to stay for the night.  We started out at the Hampton Inn only to find out that their rooms only offer two beds, no roll-away beds are available.  (Since we were traveling with our high school aged daughter and college aged son we needed three beds.)  The staff at the front desk were quite helpful, they said that the Residence Inn across the parking lot would be perfect for us.  They gave me the number and suggested I call right then and there, which I did.  "Kyle with a smile" at the Residence Inn took our information and saved a room for us.  We made our way across the parking lot, and waited about five minutes for the front desk clerk to come out and register us and assign us a room.  We were tired and cranky, but once we opened the door to our very spacious room we were happy.  Two beds, sofa bed, full kitchen, flat screen TV...  Clean and tidy!  It was perfect!  The next morning before checking...We were driving from Northern California down to Anaheim to visit family and Disneyland and we decided to leave a day early to get over the grapevine and beat the rain...  Glad we did, because we did indeed beat the rain.  What we neglected to do, however, was research where to stay on the way.  Once we got to Santa Clarita we decided we needed to find a place to stay for the night.  We started out at the Hampton Inn only to find out that their rooms only offer two beds, no roll-away beds are available.  (Since we were traveling with our high school aged daughter and college aged son we needed three beds.)  The staff at the front desk were quite helpful, they said that the Residence Inn across the parking lot would be perfect for us.  They gave me the number and suggested I call right then and there, which I did.  "Kyle with a smile" at the Residence Inn took our information and saved a room for us.  We made our way across the parking lot, and waited about five minutes for the front desk clerk to come out and register us and assign us a room.  We were tired and cranky, but once we opened the door to our very spacious room we were happy.  Two beds, sofa bed, full kitchen, flat screen TV...  Clean and tidy!  It was perfect!  The next morning before checking out and heading down to Anaheim we had breakfast.  It was great.  Waffles, eggs, breakfast meat, fresh fruit, muffins, bagels, toast, juice, coffee, tea, soda...  Everything you could ask for; the place is great.  I would definitely recommend it to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r120966887-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>120966887</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>Nice and clean rooms. Convenient if more than two people travel together and get a room with 2 bedrooms. It has everything incl. kitchen and utilities. Nice and serviceminded staff and housekeeping as well as the breakfast restaurant. Well managed hotel. The best recommendations.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r118106740-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>118106740</t>
+  </si>
+  <si>
+    <t>09/14/2011</t>
+  </si>
+  <si>
+    <t>I'd do it again in Santa Clarita!</t>
+  </si>
+  <si>
+    <t>Nice hotel for a one nighter, which is all I did. It's off the freeway and up the hill so it's nice and quiet. There are a couple good restaurants within walking distance however you are on quite a hill.The staff was nice, the hotel is clean and I honestly can't think of any negative things to write about. The internet was good and the breakfast was hot and ready to go in the morning. convenience store and gas nearby as well. I'd do it again in Santa Clarita!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r118066786-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>118066786</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Excellent experience!</t>
+  </si>
+  <si>
+    <t>I always stay at the Residence Inn in Santa Clarita when visiting relatives.  Rooms are large and well thought out.  We love the two bedroom room as the bedrooms are separated by the living/dining area.  Always immaculate and if anything is missing room service brings it to our room immediately.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r116912690-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>116912690</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Lovely little find, Lovely place/location too!!</t>
+  </si>
+  <si>
+    <t>Rm no. 302,3,4First night. Lovely first impression. Pool is public but warm, secure (with access cards) and well presented with sofas around a firepit (not needed on our trip :) &amp; BBQ &amp; spaRooms are spacious and well kitted out kitchenetteLarge rooms (one of ours has seperate bedroom)Cookies in receptionBeakfast was excellent with hot and cold items aplentyStaff well presented and happy (even at 3am when I couldn't sleep and needed a fresh coffee :)If we were staying in LA we would probably book this hotel and commute in as it is lovely and a VERY good price</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r98028943-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>98028943</t>
+  </si>
+  <si>
+    <t>02/25/2011</t>
+  </si>
+  <si>
+    <t>I will not stay where dogs are welcome</t>
+  </si>
+  <si>
+    <t>Many people have allergies, &amp; we go to a hotel for a nice clean place to stay.  The fact that dogs are allowed in the room is as bad as smokers.   The grounds have bacteria from the droppings (picked up or not), and the rooms and hotel cannot be that clean.  As well as noise from the occasional bark.    I am a MVC owner of 2 weeks, &amp; a Gold rewards member, and I was ready to make a reservation, but I am going to have to look for another hotel.   Really disappointed.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r90263924-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>90263924</t>
+  </si>
+  <si>
+    <t>12/19/2010</t>
+  </si>
+  <si>
+    <t>In love with Santa Clarita</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights with my teenage sons (17 &amp; 19) in a 2 Queen bed suite (with a sofa bed).  The purpose was to be close-by 6 Flags Magic Mountain.The Hotel was fantastic.  From the moment we stepped inside we felt completely welcome.  The staff were excellent, the room was lovely (and huge) and the buffet breakfast got a "thumbs up" from my boys.As a first-timer to this area, my expectations were exceeded.  The Hotel is easy to locate and is close to some great shopping and restaurants.  And, of course, magic mountain.It was a lovely, quiet break between our LA and San Diego stays.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r85746719-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>85746719</t>
+  </si>
+  <si>
+    <t>11/02/2010</t>
+  </si>
+  <si>
+    <t>Close to Magic Mountain</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its proximity to Magic Mountain. The hotel offers complimentary shuttle service to and from the park--it was a huge convenience to be dropped off in front of the park and to avoid parking fees! (Make sure to reserve your shuttle times in advance as it is first-come/first served service.)
+The complimentary breakfast surpassed our expectations. The two dining areas were clean and cheerful and could accommodate a lot of people. The food area was also clean and very well stocked by the attentive staff. The breakfast spread included many unexpected extras, such as chocolate chips and whipped cream for the waffles. 
+Our 2-bedroom suite was very clean and sound proof. The furnishings were nice (including a flat screen TV in each room), although our mattresses were a little springy. The kitchenette was clean and updated (including a stainless steel microwave).  Our room had free Wi-Fi with a good connection.
+The front desk staff was a little scarce at times. I think they spend most of their time in the office area behind the front desk. Someone did come forward when we waited at the desk, but I would have preferred easier access. I don't know if the fact that this is an extended stay hotel (and many longer-stay guests may be self sufficient) explains why the desk was sometimes unoccupied? Overall, the front desk staff did address our needs, so this observation may be...We chose this hotel because of its proximity to Magic Mountain. The hotel offers complimentary shuttle service to and from the park--it was a huge convenience to be dropped off in front of the park and to avoid parking fees! (Make sure to reserve your shuttle times in advance as it is first-come/first served service.)The complimentary breakfast surpassed our expectations. The two dining areas were clean and cheerful and could accommodate a lot of people. The food area was also clean and very well stocked by the attentive staff. The breakfast spread included many unexpected extras, such as chocolate chips and whipped cream for the waffles. Our 2-bedroom suite was very clean and sound proof. The furnishings were nice (including a flat screen TV in each room), although our mattresses were a little springy. The kitchenette was clean and updated (including a stainless steel microwave).  Our room had free Wi-Fi with a good connection.The front desk staff was a little scarce at times. I think they spend most of their time in the office area behind the front desk. Someone did come forward when we waited at the desk, but I would have preferred easier access. I don't know if the fact that this is an extended stay hotel (and many longer-stay guests may be self sufficient) explains why the desk was sometimes unoccupied? Overall, the front desk staff did address our needs, so this observation may be a little picky.Considering the shuttle service to Magic Mountain and the terrific breakfast, this hotel is a solid value.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>fom0430, Manager at Residence Inn Santa Clarita Valencia, responded to this reviewResponded November 4, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2010</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its proximity to Magic Mountain. The hotel offers complimentary shuttle service to and from the park--it was a huge convenience to be dropped off in front of the park and to avoid parking fees! (Make sure to reserve your shuttle times in advance as it is first-come/first served service.)
+The complimentary breakfast surpassed our expectations. The two dining areas were clean and cheerful and could accommodate a lot of people. The food area was also clean and very well stocked by the attentive staff. The breakfast spread included many unexpected extras, such as chocolate chips and whipped cream for the waffles. 
+Our 2-bedroom suite was very clean and sound proof. The furnishings were nice (including a flat screen TV in each room), although our mattresses were a little springy. The kitchenette was clean and updated (including a stainless steel microwave).  Our room had free Wi-Fi with a good connection.
+The front desk staff was a little scarce at times. I think they spend most of their time in the office area behind the front desk. Someone did come forward when we waited at the desk, but I would have preferred easier access. I don't know if the fact that this is an extended stay hotel (and many longer-stay guests may be self sufficient) explains why the desk was sometimes unoccupied? Overall, the front desk staff did address our needs, so this observation may be...We chose this hotel because of its proximity to Magic Mountain. The hotel offers complimentary shuttle service to and from the park--it was a huge convenience to be dropped off in front of the park and to avoid parking fees! (Make sure to reserve your shuttle times in advance as it is first-come/first served service.)The complimentary breakfast surpassed our expectations. The two dining areas were clean and cheerful and could accommodate a lot of people. The food area was also clean and very well stocked by the attentive staff. The breakfast spread included many unexpected extras, such as chocolate chips and whipped cream for the waffles. Our 2-bedroom suite was very clean and sound proof. The furnishings were nice (including a flat screen TV in each room), although our mattresses were a little springy. The kitchenette was clean and updated (including a stainless steel microwave).  Our room had free Wi-Fi with a good connection.The front desk staff was a little scarce at times. I think they spend most of their time in the office area behind the front desk. Someone did come forward when we waited at the desk, but I would have preferred easier access. I don't know if the fact that this is an extended stay hotel (and many longer-stay guests may be self sufficient) explains why the desk was sometimes unoccupied? Overall, the front desk staff did address our needs, so this observation may be a little picky.Considering the shuttle service to Magic Mountain and the terrific breakfast, this hotel is a solid value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r58717633-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>58717633</t>
+  </si>
+  <si>
+    <t>03/16/2010</t>
+  </si>
+  <si>
+    <t>Far from the maddening crowd</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while visiting our daughter based mostly on the prior glowing reviews.  Everybody was right.  Great hotel! Too cold to use the pool while we were there, but the small fitness room gave us a chance to workout each day.  Room walls are thin, though, so be prepared if you're a light sleeper.  Staff was outstanding--very helpful.  The morning breakfast was very good, and the evening snack was great, as well.  Would definitely recommend this hotel to someone who doesn't want to stay right in the teeth of smog-infested L.A.  My only recommendation to the hotel would be to have some recycling containers around, and offer the option of having the linens changed every 3rd day to save water and energy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while visiting our daughter based mostly on the prior glowing reviews.  Everybody was right.  Great hotel! Too cold to use the pool while we were there, but the small fitness room gave us a chance to workout each day.  Room walls are thin, though, so be prepared if you're a light sleeper.  Staff was outstanding--very helpful.  The morning breakfast was very good, and the evening snack was great, as well.  Would definitely recommend this hotel to someone who doesn't want to stay right in the teeth of smog-infested L.A.  My only recommendation to the hotel would be to have some recycling containers around, and offer the option of having the linens changed every 3rd day to save water and energy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r48961830-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>48961830</t>
+  </si>
+  <si>
+    <t>11/11/2009</t>
+  </si>
+  <si>
+    <t>Great hotel needs a little more flexibility</t>
+  </si>
+  <si>
+    <t>We love this hotel.  Great room size.  Kitchen was well equipped and the design and the layout of the suites works well for our family get-togethers.  The front desk is very helpful and the buffet breakfast and light dinner fare was great. We have always enjoyed staying here when we visit our parents. We have stayed here numerous times. The only issue I have is that on our last two stays, our room was not serviced on the second night on both of our last stays - even though we did not leave a do not disturb sign. Also, I wish the hotel was a little more flexible with late check-outs. We were willing to pay for a small difference but they were not so flexible. I work for another hotel chain and we try our best to always accommodate the guests needs. I could understand a full house or busy check-in but busy check-outs leaves me a little puzzled.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>We love this hotel.  Great room size.  Kitchen was well equipped and the design and the layout of the suites works well for our family get-togethers.  The front desk is very helpful and the buffet breakfast and light dinner fare was great. We have always enjoyed staying here when we visit our parents. We have stayed here numerous times. The only issue I have is that on our last two stays, our room was not serviced on the second night on both of our last stays - even though we did not leave a do not disturb sign. Also, I wish the hotel was a little more flexible with late check-outs. We were willing to pay for a small difference but they were not so flexible. I work for another hotel chain and we try our best to always accommodate the guests needs. I could understand a full house or busy check-in but busy check-outs leaves me a little puzzled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r42467544-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>42467544</t>
+  </si>
+  <si>
+    <t>09/17/2009</t>
+  </si>
+  <si>
+    <t>Nice hotel but a couple of complaints...</t>
+  </si>
+  <si>
+    <t>We stayed  5 nights at this hotel in a one bedroom suite.  Overall, we were happy with our stay.   The location worked well for us &amp; we liked having a kitchen.  Because we had to leave early most days, we only had the complimentary breakfast on the day we checked out - the breakfast was quite good with many choices.
+The air conditioning was noisy.  Our room faced the freeway but we chose to open the windows for cool air at night (and hear some road noise) instead of listening to the air conditioner.  That worked for us because we were on an upper floor &amp; the evenings were cool.  If we had been on the ground floor or the nights wee hot, we would have had to use the air conditioning.  
+The vanity/sink area is outside the bathroom, which I liked.   What I didn't like was the heat put off by the lights over the mirror.  If we accidently left the lights on, they would heat up the area just as if a heater had been turned on.  The heat from the lamps was especially irritating when we were using the hairdryer.  
+I would recommend this hotel to  friends (after telling them about the negatives) if they wanted a suite with a kitchen.   If I was only staying one or two nights &amp; didn't need extra space or a kitchen, I would stay somewhere else but I would probably...We stayed  5 nights at this hotel in a one bedroom suite.  Overall, we were happy with our stay.   The location worked well for us &amp; we liked having a kitchen.  Because we had to leave early most days, we only had the complimentary breakfast on the day we checked out - the breakfast was quite good with many choices.The air conditioning was noisy.  Our room faced the freeway but we chose to open the windows for cool air at night (and hear some road noise) instead of listening to the air conditioner.  That worked for us because we were on an upper floor &amp; the evenings were cool.  If we had been on the ground floor or the nights wee hot, we would have had to use the air conditioning.  The vanity/sink area is outside the bathroom, which I liked.   What I didn't like was the heat put off by the lights over the mirror.  If we accidently left the lights on, they would heat up the area just as if a heater had been turned on.  The heat from the lamps was especially irritating when we were using the hairdryer.  I would recommend this hotel to  friends (after telling them about the negatives) if they wanted a suite with a kitchen.   If I was only staying one or two nights &amp; didn't need extra space or a kitchen, I would stay somewhere else but I would probably stay at the Residence Inn again for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>We stayed  5 nights at this hotel in a one bedroom suite.  Overall, we were happy with our stay.   The location worked well for us &amp; we liked having a kitchen.  Because we had to leave early most days, we only had the complimentary breakfast on the day we checked out - the breakfast was quite good with many choices.
+The air conditioning was noisy.  Our room faced the freeway but we chose to open the windows for cool air at night (and hear some road noise) instead of listening to the air conditioner.  That worked for us because we were on an upper floor &amp; the evenings were cool.  If we had been on the ground floor or the nights wee hot, we would have had to use the air conditioning.  
+The vanity/sink area is outside the bathroom, which I liked.   What I didn't like was the heat put off by the lights over the mirror.  If we accidently left the lights on, they would heat up the area just as if a heater had been turned on.  The heat from the lamps was especially irritating when we were using the hairdryer.  
+I would recommend this hotel to  friends (after telling them about the negatives) if they wanted a suite with a kitchen.   If I was only staying one or two nights &amp; didn't need extra space or a kitchen, I would stay somewhere else but I would probably...We stayed  5 nights at this hotel in a one bedroom suite.  Overall, we were happy with our stay.   The location worked well for us &amp; we liked having a kitchen.  Because we had to leave early most days, we only had the complimentary breakfast on the day we checked out - the breakfast was quite good with many choices.The air conditioning was noisy.  Our room faced the freeway but we chose to open the windows for cool air at night (and hear some road noise) instead of listening to the air conditioner.  That worked for us because we were on an upper floor &amp; the evenings were cool.  If we had been on the ground floor or the nights wee hot, we would have had to use the air conditioning.  The vanity/sink area is outside the bathroom, which I liked.   What I didn't like was the heat put off by the lights over the mirror.  If we accidently left the lights on, they would heat up the area just as if a heater had been turned on.  The heat from the lamps was especially irritating when we were using the hairdryer.  I would recommend this hotel to  friends (after telling them about the negatives) if they wanted a suite with a kitchen.   If I was only staying one or two nights &amp; didn't need extra space or a kitchen, I would stay somewhere else but I would probably stay at the Residence Inn again for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r23248584-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>23248584</t>
+  </si>
+  <si>
+    <t>01/04/2009</t>
+  </si>
+  <si>
+    <t>Quiet and Clean rooms</t>
+  </si>
+  <si>
+    <t>We spent a night here as we arrived to L.A and on our way to San Francisco. Its location near the 101 highway was comvenient for us. The hotel is quiet, the rooms clean. It's more like a business hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Bunny_Feranda, Director of Sales at Residence Inn Santa Clarita Valencia, responded to this reviewResponded March 19, 2009</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2009</t>
+  </si>
+  <si>
+    <t>We spent a night here as we arrived to L.A and on our way to San Francisco. Its location near the 101 highway was comvenient for us. The hotel is quiet, the rooms clean. It's more like a business hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r19627064-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>19627064</t>
+  </si>
+  <si>
+    <t>09/01/2008</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Our family of 5(3 kids) stayed here for the Labor Day holiday for 2 nights. We booked the oversized suite, 2 queen and 1 sofabed. The overall experience was good, clean, updated rooms, very nice staff,  and the best FREE breakfast buffet around. We have stayed at many Residence Inn's and this one was very nice, you will not be disapponted! The only real complaint is its not the biggest room we have stayed in at Residence and the 1 bedroom suites are actually smaller in size with only 1 queen bed and 1 sofa bed.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r16259213-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>16259213</t>
+  </si>
+  <si>
+    <t>05/20/2008</t>
+  </si>
+  <si>
+    <t>Good Choice</t>
+  </si>
+  <si>
+    <t>A group of us stayed in two rooms for two nights in May during a trip to visit the Six Flags Park.
+I booked the rooms over the phone directly with the hotel and the service was excellent.  The rep patiently walked me through the various options and discounts.
+We had the 1 Queen studio ($110/night) and the 2 Queen studio ($149/night).  Each room had a sofa sleeper so there was plenty of space.  The rooms were clean, spacious, updated and very comfortable.
+The buffet breakfast had plenty of variety and stayed open well past the 7:00 - 9:30 am estimate the front desk gave upon my check-in.  
+Check-in was smooth and I used express check-out so that was painless as well.
+The only complaint I had was the shuttle service - which is one of the main reasons why I chose this hotel.  We had a large group and so having a shuttle service to Six Flags was a big deal for us.  The night before our park visit we inquired at the front desk about the shuttle service offered.  The gentleman at the desk said that he didn't know anything about the shuttle and that we'd have to wait until the morning to ask the person working the next shift.  So, at about 9 am we inquired again about the shuttle so we could get to the park at 10 am when it opens and the lady at...A group of us stayed in two rooms for two nights in May during a trip to visit the Six Flags Park.I booked the rooms over the phone directly with the hotel and the service was excellent.  The rep patiently walked me through the various options and discounts.We had the 1 Queen studio ($110/night) and the 2 Queen studio ($149/night).  Each room had a sofa sleeper so there was plenty of space.  The rooms were clean, spacious, updated and very comfortable.The buffet breakfast had plenty of variety and stayed open well past the 7:00 - 9:30 am estimate the front desk gave upon my check-in.  Check-in was smooth and I used express check-out so that was painless as well.The only complaint I had was the shuttle service - which is one of the main reasons why I chose this hotel.  We had a large group and so having a shuttle service to Six Flags was a big deal for us.  The night before our park visit we inquired at the front desk about the shuttle service offered.  The gentleman at the desk said that he didn't know anything about the shuttle and that we'd have to wait until the morning to ask the person working the next shift.  So, at about 9 am we inquired again about the shuttle so we could get to the park at 10 am when it opens and the lady at the desk told us that we needed to reserve the shuttle at least 2 hours in advance.  After we told her that we tried to reserve it the night before but the man at the desk didn't know anything about it, she said that there was a shuttle scheduled for 9:30 but it was already full and there are no other drivers since the hotel is short-staffed on the weekends so really there was nothing she could do.  Well, needless to say that was disappointing since the shuttle service was a large part of the reason why we chose this hotel.Overall, I would recommend this hotel to others - just know that you may not be able to depend on the park shuttle if you are factoring that into your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>A group of us stayed in two rooms for two nights in May during a trip to visit the Six Flags Park.
+I booked the rooms over the phone directly with the hotel and the service was excellent.  The rep patiently walked me through the various options and discounts.
+We had the 1 Queen studio ($110/night) and the 2 Queen studio ($149/night).  Each room had a sofa sleeper so there was plenty of space.  The rooms were clean, spacious, updated and very comfortable.
+The buffet breakfast had plenty of variety and stayed open well past the 7:00 - 9:30 am estimate the front desk gave upon my check-in.  
+Check-in was smooth and I used express check-out so that was painless as well.
+The only complaint I had was the shuttle service - which is one of the main reasons why I chose this hotel.  We had a large group and so having a shuttle service to Six Flags was a big deal for us.  The night before our park visit we inquired at the front desk about the shuttle service offered.  The gentleman at the desk said that he didn't know anything about the shuttle and that we'd have to wait until the morning to ask the person working the next shift.  So, at about 9 am we inquired again about the shuttle so we could get to the park at 10 am when it opens and the lady at...A group of us stayed in two rooms for two nights in May during a trip to visit the Six Flags Park.I booked the rooms over the phone directly with the hotel and the service was excellent.  The rep patiently walked me through the various options and discounts.We had the 1 Queen studio ($110/night) and the 2 Queen studio ($149/night).  Each room had a sofa sleeper so there was plenty of space.  The rooms were clean, spacious, updated and very comfortable.The buffet breakfast had plenty of variety and stayed open well past the 7:00 - 9:30 am estimate the front desk gave upon my check-in.  Check-in was smooth and I used express check-out so that was painless as well.The only complaint I had was the shuttle service - which is one of the main reasons why I chose this hotel.  We had a large group and so having a shuttle service to Six Flags was a big deal for us.  The night before our park visit we inquired at the front desk about the shuttle service offered.  The gentleman at the desk said that he didn't know anything about the shuttle and that we'd have to wait until the morning to ask the person working the next shift.  So, at about 9 am we inquired again about the shuttle so we could get to the park at 10 am when it opens and the lady at the desk told us that we needed to reserve the shuttle at least 2 hours in advance.  After we told her that we tried to reserve it the night before but the man at the desk didn't know anything about it, she said that there was a shuttle scheduled for 9:30 but it was already full and there are no other drivers since the hotel is short-staffed on the weekends so really there was nothing she could do.  Well, needless to say that was disappointing since the shuttle service was a large part of the reason why we chose this hotel.Overall, I would recommend this hotel to others - just know that you may not be able to depend on the park shuttle if you are factoring that into your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r13674123-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>13674123</t>
+  </si>
+  <si>
+    <t>02/19/2008</t>
+  </si>
+  <si>
+    <t>Excellent Choice in Santa Clarita</t>
+  </si>
+  <si>
+    <t>Wow - what can I say about this hotel? It is really excellent. From when you first arrive you can tell that this hotel is good. The exterior is in great condition. The front desk staff are really friendly when you check in.
+We stayed for 5 nights at the end of August 2007.
+We chose this hotel because of it's location - we wanted to visit Six Flags Magic Mountain and Hurricane Harbor. The hotel has a free shuttle to anywhere within 5 miles of the hotel - so we used this to get to the parks. It was on-time almost always except one day where it was 30 minutes late picking us up.
+The free Santa Clarita Trolley bus comes to this hotel also - which you can use to get around the various sites of the city - e.g. the Westfield Shops or even Six Flags.
+The rooms are very big - which is what is expected for a Residence Inn. We had a studio with 2 queen beds. The beds are really comfy. The rooms were kept well stocked and very clean during our stay.
+The free breakfast in the morning is also very good - lots of selection - both hot and cold foods. The free manager's reception hour in the evening's on weekdays is also quite good. There was a lot of different soft drinks to choose from plus a couple of beers on...Wow - what can I say about this hotel? It is really excellent. From when you first arrive you can tell that this hotel is good. The exterior is in great condition. The front desk staff are really friendly when you check in.We stayed for 5 nights at the end of August 2007.We chose this hotel because of it's location - we wanted to visit Six Flags Magic Mountain and Hurricane Harbor. The hotel has a free shuttle to anywhere within 5 miles of the hotel - so we used this to get to the parks. It was on-time almost always except one day where it was 30 minutes late picking us up.The free Santa Clarita Trolley bus comes to this hotel also - which you can use to get around the various sites of the city - e.g. the Westfield Shops or even Six Flags.The rooms are very big - which is what is expected for a Residence Inn. We had a studio with 2 queen beds. The beds are really comfy. The rooms were kept well stocked and very clean during our stay.The free breakfast in the morning is also very good - lots of selection - both hot and cold foods. The free manager's reception hour in the evening's on weekdays is also quite good. There was a lot of different soft drinks to choose from plus a couple of beers on tap also.Overall an excellent experience for the first stop of our holiday.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>Wow - what can I say about this hotel? It is really excellent. From when you first arrive you can tell that this hotel is good. The exterior is in great condition. The front desk staff are really friendly when you check in.
+We stayed for 5 nights at the end of August 2007.
+We chose this hotel because of it's location - we wanted to visit Six Flags Magic Mountain and Hurricane Harbor. The hotel has a free shuttle to anywhere within 5 miles of the hotel - so we used this to get to the parks. It was on-time almost always except one day where it was 30 minutes late picking us up.
+The free Santa Clarita Trolley bus comes to this hotel also - which you can use to get around the various sites of the city - e.g. the Westfield Shops or even Six Flags.
+The rooms are very big - which is what is expected for a Residence Inn. We had a studio with 2 queen beds. The beds are really comfy. The rooms were kept well stocked and very clean during our stay.
+The free breakfast in the morning is also very good - lots of selection - both hot and cold foods. The free manager's reception hour in the evening's on weekdays is also quite good. There was a lot of different soft drinks to choose from plus a couple of beers on...Wow - what can I say about this hotel? It is really excellent. From when you first arrive you can tell that this hotel is good. The exterior is in great condition. The front desk staff are really friendly when you check in.We stayed for 5 nights at the end of August 2007.We chose this hotel because of it's location - we wanted to visit Six Flags Magic Mountain and Hurricane Harbor. The hotel has a free shuttle to anywhere within 5 miles of the hotel - so we used this to get to the parks. It was on-time almost always except one day where it was 30 minutes late picking us up.The free Santa Clarita Trolley bus comes to this hotel also - which you can use to get around the various sites of the city - e.g. the Westfield Shops or even Six Flags.The rooms are very big - which is what is expected for a Residence Inn. We had a studio with 2 queen beds. The beds are really comfy. The rooms were kept well stocked and very clean during our stay.The free breakfast in the morning is also very good - lots of selection - both hot and cold foods. The free manager's reception hour in the evening's on weekdays is also quite good. There was a lot of different soft drinks to choose from plus a couple of beers on tap also.Overall an excellent experience for the first stop of our holiday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r10478667-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>10478667</t>
+  </si>
+  <si>
+    <t>10/31/2007</t>
+  </si>
+  <si>
+    <t>We used to be Locals; we stay here every trip; very wheelchair friendly</t>
+  </si>
+  <si>
+    <t>We used to live in Valencia; we were moved to Chicago in 2004.  Our adult children still live in the area, one in Sylmar (15 minutes south...) uses a wheelchair and the other one lives in Santa Barbara (90 minutes NW).  The hotel staff is gracious and accommodating, especially with our special needs for access and space due to our severely disabled daughters wheelchair.  Good, hearty breakfast in the mornings;  meet &amp; greet in the evenings on many nights.  EZ park access, EZ freeway access, close to Stevenson Ranch shopping area.  This is a very, very SAFE area - again, we were locals - we love this hotel and it's staff and location.  It has made visiting a real treat for us. The two bedroom suite is like a small apartment - wonderful for our situation. We'll be back - again, again and again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>We used to live in Valencia; we were moved to Chicago in 2004.  Our adult children still live in the area, one in Sylmar (15 minutes south...) uses a wheelchair and the other one lives in Santa Barbara (90 minutes NW).  The hotel staff is gracious and accommodating, especially with our special needs for access and space due to our severely disabled daughters wheelchair.  Good, hearty breakfast in the mornings;  meet &amp; greet in the evenings on many nights.  EZ park access, EZ freeway access, close to Stevenson Ranch shopping area.  This is a very, very SAFE area - again, we were locals - we love this hotel and it's staff and location.  It has made visiting a real treat for us. The two bedroom suite is like a small apartment - wonderful for our situation. We'll be back - again, again and again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r8619307-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>8619307</t>
+  </si>
+  <si>
+    <t>09/03/2007</t>
+  </si>
+  <si>
+    <t>Faultless</t>
+  </si>
+  <si>
+    <t>The best place to stay with families - and I've travelled alot and stayed in Plenty of hotels, This can't be beat. We had a 2 bedroom suite which was basically a 2-bedroom apartment which included 3 tv's, 2 bathrooms lounge and kitchen. It was kept immaculate by the maids and everything was restocked continuously. The staff were the nicest and most helpful I have EVER encountered. The complimentary breakfast was beyond expectations and the complimentary wine/beer and supper was fantastic. The pool and surrounding area was kept well stocked with towels and perfectly clean. The landerette was a defiante bonus. Overall, Couldn't possibly find fault - a rareity for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>The best place to stay with families - and I've travelled alot and stayed in Plenty of hotels, This can't be beat. We had a 2 bedroom suite which was basically a 2-bedroom apartment which included 3 tv's, 2 bathrooms lounge and kitchen. It was kept immaculate by the maids and everything was restocked continuously. The staff were the nicest and most helpful I have EVER encountered. The complimentary breakfast was beyond expectations and the complimentary wine/beer and supper was fantastic. The pool and surrounding area was kept well stocked with towels and perfectly clean. The landerette was a defiante bonus. Overall, Couldn't possibly find fault - a rareity for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r6833340-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>6833340</t>
+  </si>
+  <si>
+    <t>02/22/2007</t>
+  </si>
+  <si>
+    <t>What a find!</t>
+  </si>
+  <si>
+    <t>All we were looking for was a place to stay to break up a long driving trip, and instead we found a real gem.  We've stated in Residence Inns in several other places, and always enjoy them, but this one is superior to all the others, mainly because of their food service.  In addition to the ususal juices, cereals, breads and muffins that most hotels serve, there were scrambled eggs, potatoes, sausage and/or bacon, fresh fruit that was actually fresh and good, a variety of waffles, hard-boiled eggs.  On weekday evenings, a "light supper" was served, but both evenings that we were there, the food was more than adequate for our dinner.  The first night we had minestrone soup and barbecued beef sandwiches;  the second night there was a taco bar.  Both evenings there was green salad,  potato salad, and other side dishes that I can't remember.  There was also wine (not too good), beer and soft drinks, and freshly baked chocolate chip and M&amp;M cookies.  And all of this was included in the very reasoanble room rate!  And those freshyly baked cookies and tea and coffee were available at the front desk all day.
+The people who cooked and served the food and kept the area clean were exceptionally helpful and attentive. 
+Unlike most hotels and motels, the dining areas in this Residence Inn were large enough to comfortably accommodate all the guests who were there, and spacious enough...All we were looking for was a place to stay to break up a long driving trip, and instead we found a real gem.  We've stated in Residence Inns in several other places, and always enjoy them, but this one is superior to all the others, mainly because of their food service.  In addition to the ususal juices, cereals, breads and muffins that most hotels serve, there were scrambled eggs, potatoes, sausage and/or bacon, fresh fruit that was actually fresh and good, a variety of waffles, hard-boiled eggs.  On weekday evenings, a "light supper" was served, but both evenings that we were there, the food was more than adequate for our dinner.  The first night we had minestrone soup and barbecued beef sandwiches;  the second night there was a taco bar.  Both evenings there was green salad,  potato salad, and other side dishes that I can't remember.  There was also wine (not too good), beer and soft drinks, and freshly baked chocolate chip and M&amp;M cookies.  And all of this was included in the very reasoanble room rate!  And those freshyly baked cookies and tea and coffee were available at the front desk all day.The people who cooked and served the food and kept the area clean were exceptionally helpful and attentive. Unlike most hotels and motels, the dining areas in this Residence Inn were large enough to comfortably accommodate all the guests who were there, and spacious enough so that we never felt crowded.  There was one large room, and one smaller, quieter one, which we preferred.  My only complaint is that both rooms had TVs that were ususally showing  cartoons because many families stay there because of its proximity to Six Flags Magic Mountain.Our room was light, comfortable, quiet, and spacious.  Front desk service was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>All we were looking for was a place to stay to break up a long driving trip, and instead we found a real gem.  We've stated in Residence Inns in several other places, and always enjoy them, but this one is superior to all the others, mainly because of their food service.  In addition to the ususal juices, cereals, breads and muffins that most hotels serve, there were scrambled eggs, potatoes, sausage and/or bacon, fresh fruit that was actually fresh and good, a variety of waffles, hard-boiled eggs.  On weekday evenings, a "light supper" was served, but both evenings that we were there, the food was more than adequate for our dinner.  The first night we had minestrone soup and barbecued beef sandwiches;  the second night there was a taco bar.  Both evenings there was green salad,  potato salad, and other side dishes that I can't remember.  There was also wine (not too good), beer and soft drinks, and freshly baked chocolate chip and M&amp;M cookies.  And all of this was included in the very reasoanble room rate!  And those freshyly baked cookies and tea and coffee were available at the front desk all day.
+The people who cooked and served the food and kept the area clean were exceptionally helpful and attentive. 
+Unlike most hotels and motels, the dining areas in this Residence Inn were large enough to comfortably accommodate all the guests who were there, and spacious enough...All we were looking for was a place to stay to break up a long driving trip, and instead we found a real gem.  We've stated in Residence Inns in several other places, and always enjoy them, but this one is superior to all the others, mainly because of their food service.  In addition to the ususal juices, cereals, breads and muffins that most hotels serve, there were scrambled eggs, potatoes, sausage and/or bacon, fresh fruit that was actually fresh and good, a variety of waffles, hard-boiled eggs.  On weekday evenings, a "light supper" was served, but both evenings that we were there, the food was more than adequate for our dinner.  The first night we had minestrone soup and barbecued beef sandwiches;  the second night there was a taco bar.  Both evenings there was green salad,  potato salad, and other side dishes that I can't remember.  There was also wine (not too good), beer and soft drinks, and freshly baked chocolate chip and M&amp;M cookies.  And all of this was included in the very reasoanble room rate!  And those freshyly baked cookies and tea and coffee were available at the front desk all day.The people who cooked and served the food and kept the area clean were exceptionally helpful and attentive. Unlike most hotels and motels, the dining areas in this Residence Inn were large enough to comfortably accommodate all the guests who were there, and spacious enough so that we never felt crowded.  There was one large room, and one smaller, quieter one, which we preferred.  My only complaint is that both rooms had TVs that were ususally showing  cartoons because many families stay there because of its proximity to Six Flags Magic Mountain.Our room was light, comfortable, quiet, and spacious.  Front desk service was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r5928462-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>5928462</t>
+  </si>
+  <si>
+    <t>10/07/2006</t>
+  </si>
+  <si>
+    <t>Staff was great!</t>
+  </si>
+  <si>
+    <t>This is a very nice, clean, family oriented hotel.  Where all of the staff are friendly and greet you when you walk by.  The rooms are clean,and spacious.    We like them because they have separate bedrooms (1 or 2 bedrooms) and then a common living room/kitchen area.  They also have studios, which we haven't stayed in.The pool area is nice and the water is heated.  The breakfast in the morning is more than a continental breakfast.  They offer hot food as well.  The mornings that we were here there were always scrambled eggs and potatoes.  The other hot food choices were differet each day but included sausage patties, tortillas, biscuits and gravy,  and french toast.  They also offered yogurt, fruit, cooked oatmeal, cold cereals, waffles that you cook yourself, bagels and other assorted pastries, juices, coffee, and milk.  We stayed at this hotel in July, 2006.  It is near Magic Mountain so when we decided to come back this hotel was our first choice.  When we arrived there was a problem with our room reservation but the staff, "M", "T", and "O" went out of their way to make sure that we were happy and taken care of.  Mistakes happen, I don't expect perfection, but it is how you handle the repair of the situation that will determine whether or not you will have a repeat customer or an angry one.  They have a repeat customer!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>This is a very nice, clean, family oriented hotel.  Where all of the staff are friendly and greet you when you walk by.  The rooms are clean,and spacious.    We like them because they have separate bedrooms (1 or 2 bedrooms) and then a common living room/kitchen area.  They also have studios, which we haven't stayed in.The pool area is nice and the water is heated.  The breakfast in the morning is more than a continental breakfast.  They offer hot food as well.  The mornings that we were here there were always scrambled eggs and potatoes.  The other hot food choices were differet each day but included sausage patties, tortillas, biscuits and gravy,  and french toast.  They also offered yogurt, fruit, cooked oatmeal, cold cereals, waffles that you cook yourself, bagels and other assorted pastries, juices, coffee, and milk.  We stayed at this hotel in July, 2006.  It is near Magic Mountain so when we decided to come back this hotel was our first choice.  When we arrived there was a problem with our room reservation but the staff, "M", "T", and "O" went out of their way to make sure that we were happy and taken care of.  Mistakes happen, I don't expect perfection, but it is how you handle the repair of the situation that will determine whether or not you will have a repeat customer or an angry one.  They have a repeat customer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r4895143-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>4895143</t>
+  </si>
+  <si>
+    <t>04/03/2006</t>
+  </si>
+  <si>
+    <t>Nice place....</t>
+  </si>
+  <si>
+    <t>We spent 1 night here and it was a nice place.  We had a two bedroom suite and the bedrooms were very large and good sized bathrooms.  The road noise got a little irritating because of being right on the I-5 but it didn't wake us at night.  Breakfast was great too and it is an easy drive to some shopping and 5 minutes from Magic Mountain.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r3750264-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>3750264</t>
+  </si>
+  <si>
+    <t>08/08/2005</t>
+  </si>
+  <si>
+    <t>Evening receptions and breakfast buffets were great</t>
+  </si>
+  <si>
+    <t>We arrived early with young children, and our room type (oversized studio) was not yet ready.  The front desk recommended the use of the pool while waiting.  We checked back regularly and were able to check in prior to the official check-in time of 4 p.m.  We appreciated the extra area of the kitchenette with the full size refrigerator to keep our drinks cold, with the dishware/utensils to eat snacks, and with the free popcorn to microwave.We decided to enjoy the M-Th evening reception prior to heading into Magic Mountain, and we're glad we did.  The chicken salad, tortilla chips with cheese or salsa, and cookies became our dinner and held us so that we wouldn't have to eat the expensive amusement park food.  The morning breakfasts were wonderful and got us off to great starts in the morning.While they have complimentary shuttle service to local areas (including Magic Mountain), the service was limited to 6 people, a slight disappointment since parking at Magic Mountain was $10 per day.  I'm sure we could've split our party, but we didn't want to wait to get into the park.Overall, the facilities were clean, and the staff (especially the hospitality crew) was courteous and efficient.  With free food and drinks included within the room rates to feed a group of hungry and picky kids, you can't ask for much more.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived early with young children, and our room type (oversized studio) was not yet ready.  The front desk recommended the use of the pool while waiting.  We checked back regularly and were able to check in prior to the official check-in time of 4 p.m.  We appreciated the extra area of the kitchenette with the full size refrigerator to keep our drinks cold, with the dishware/utensils to eat snacks, and with the free popcorn to microwave.We decided to enjoy the M-Th evening reception prior to heading into Magic Mountain, and we're glad we did.  The chicken salad, tortilla chips with cheese or salsa, and cookies became our dinner and held us so that we wouldn't have to eat the expensive amusement park food.  The morning breakfasts were wonderful and got us off to great starts in the morning.While they have complimentary shuttle service to local areas (including Magic Mountain), the service was limited to 6 people, a slight disappointment since parking at Magic Mountain was $10 per day.  I'm sure we could've split our party, but we didn't want to wait to get into the park.Overall, the facilities were clean, and the staff (especially the hospitality crew) was courteous and efficient.  With free food and drinks included within the room rates to feed a group of hungry and picky kids, you can't ask for much more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r3610200-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>3610200</t>
+  </si>
+  <si>
+    <t>06/24/2005</t>
+  </si>
+  <si>
+    <t>uneven experiences</t>
+  </si>
+  <si>
+    <t>HI:I am a silver elite member of marriott's reward program.  I am an airline pilot and have stayed in way too many hotels.This residence inn is uneven at best.  Always less than stellar performance by the front desk.On one trip to this hotel, I was given a studio suite.  It was not bad.  No handholds to get into shower/tub at all.  All hotels should have minimum hand holds if not fully handicapped equipped.The second trip, I requested a disabled studio suite.  Upon arrival it was NOT available.  A non handicapped one bedroom suite was substituted.  This room was not nearly as nice as the studio!!!!!!!!Simple questions of the front desk staff proved a great challenge:  does your hotel have screens on the windows?  no.   When I got there, they did have screens.  The front desk staff had not even been IN the rooms in their careers!!!!!I would not take any room here except a studio, but the lack of hand holds has me looking for other hotels in the Valencia area.Why is it so hard to get a decent hotel?  I ask for something modern, safe, comfortable  (how about a recliner chair like a LA-Z-Boy?)  lots of cable tv channels.jonMoreShow less</t>
+  </si>
+  <si>
+    <t>HI:I am a silver elite member of marriott's reward program.  I am an airline pilot and have stayed in way too many hotels.This residence inn is uneven at best.  Always less than stellar performance by the front desk.On one trip to this hotel, I was given a studio suite.  It was not bad.  No handholds to get into shower/tub at all.  All hotels should have minimum hand holds if not fully handicapped equipped.The second trip, I requested a disabled studio suite.  Upon arrival it was NOT available.  A non handicapped one bedroom suite was substituted.  This room was not nearly as nice as the studio!!!!!!!!Simple questions of the front desk staff proved a great challenge:  does your hotel have screens on the windows?  no.   When I got there, they did have screens.  The front desk staff had not even been IN the rooms in their careers!!!!!I would not take any room here except a studio, but the lack of hand holds has me looking for other hotels in the Valencia area.Why is it so hard to get a decent hotel?  I ask for something modern, safe, comfortable  (how about a recliner chair like a LA-Z-Boy?)  lots of cable tv channels.jonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r2575232-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>2575232</t>
+  </si>
+  <si>
+    <t>09/14/2004</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>I reserved a 1BR suite here. Front desk gave me the keys... opened the door and found the place trashed, untouched by housekeeping after the previous guests. Went back to the desk. They weren't terribly helpful, but offered another room, which turned out to be a studio. (They seemed to be hoping I wouldn't notice.) The four of us didn't particularly want to stay in a studio (no offer to change the rate, either).  Finally, they found us a room equivalent to what I'd booked... and congratulated me on my "luck." (?!) Room was adequate, but barely, with harsh, flickering flourescent lights. Breakfast was pitiful, and the hours it was offered extremely limited. For less $, all of this would have been easier to swallow, but it wasn't at all worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>I reserved a 1BR suite here. Front desk gave me the keys... opened the door and found the place trashed, untouched by housekeeping after the previous guests. Went back to the desk. They weren't terribly helpful, but offered another room, which turned out to be a studio. (They seemed to be hoping I wouldn't notice.) The four of us didn't particularly want to stay in a studio (no offer to change the rate, either).  Finally, they found us a room equivalent to what I'd booked... and congratulated me on my "luck." (?!) Room was adequate, but barely, with harsh, flickering flourescent lights. Breakfast was pitiful, and the hours it was offered extremely limited. For less $, all of this would have been easier to swallow, but it wasn't at all worth the price.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2823,5972 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>196</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>197</v>
+      </c>
+      <c r="X18" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>250</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>251</v>
+      </c>
+      <c r="X25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>260</v>
+      </c>
+      <c r="X26" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s">
+        <v>267</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>268</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>259</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>260</v>
+      </c>
+      <c r="X28" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>260</v>
+      </c>
+      <c r="X29" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>287</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>288</v>
+      </c>
+      <c r="X30" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>288</v>
+      </c>
+      <c r="X31" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>311</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>328</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>320</v>
+      </c>
+      <c r="X35" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>335</v>
+      </c>
+      <c r="X36" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>343</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>335</v>
+      </c>
+      <c r="X37" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>350</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>351</v>
+      </c>
+      <c r="X38" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J39" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" t="s">
+        <v>358</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>359</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>360</v>
+      </c>
+      <c r="X39" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>369</v>
+      </c>
+      <c r="X40" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" t="s">
+        <v>374</v>
+      </c>
+      <c r="K41" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" t="s">
+        <v>376</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>377</v>
+      </c>
+      <c r="X41" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>385</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>386</v>
+      </c>
+      <c r="X42" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>390</v>
+      </c>
+      <c r="J43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K43" t="s">
+        <v>392</v>
+      </c>
+      <c r="L43" t="s">
+        <v>393</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>394</v>
+      </c>
+      <c r="X43" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>398</v>
+      </c>
+      <c r="J44" t="s">
+        <v>399</v>
+      </c>
+      <c r="K44" t="s">
+        <v>400</v>
+      </c>
+      <c r="L44" t="s">
+        <v>401</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>402</v>
+      </c>
+      <c r="X44" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>405</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>406</v>
+      </c>
+      <c r="J45" t="s">
+        <v>407</v>
+      </c>
+      <c r="K45" t="s">
+        <v>408</v>
+      </c>
+      <c r="L45" t="s">
+        <v>409</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>350</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>410</v>
+      </c>
+      <c r="X45" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>413</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>414</v>
+      </c>
+      <c r="J46" t="s">
+        <v>415</v>
+      </c>
+      <c r="K46" t="s">
+        <v>416</v>
+      </c>
+      <c r="L46" t="s">
+        <v>417</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>328</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>418</v>
+      </c>
+      <c r="X46" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" t="s">
+        <v>424</v>
+      </c>
+      <c r="L47" t="s">
+        <v>425</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>328</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>426</v>
+      </c>
+      <c r="X47" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" t="s">
+        <v>431</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>434</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>434</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>440</v>
+      </c>
+      <c r="X49" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" t="s">
+        <v>446</v>
+      </c>
+      <c r="L50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>448</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>449</v>
+      </c>
+      <c r="X50" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>453</v>
+      </c>
+      <c r="J51" t="s">
+        <v>454</v>
+      </c>
+      <c r="K51" t="s">
+        <v>455</v>
+      </c>
+      <c r="L51" t="s">
+        <v>456</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>457</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>449</v>
+      </c>
+      <c r="X51" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>459</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J52" t="s">
+        <v>461</v>
+      </c>
+      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s">
+        <v>463</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>448</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>464</v>
+      </c>
+      <c r="X52" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>467</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>468</v>
+      </c>
+      <c r="J53" t="s">
+        <v>469</v>
+      </c>
+      <c r="K53" t="s">
+        <v>470</v>
+      </c>
+      <c r="L53" t="s">
+        <v>471</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>457</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>472</v>
+      </c>
+      <c r="X53" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>476</v>
+      </c>
+      <c r="J54" t="s">
+        <v>477</v>
+      </c>
+      <c r="K54" t="s">
+        <v>478</v>
+      </c>
+      <c r="L54" t="s">
+        <v>479</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>457</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>480</v>
+      </c>
+      <c r="X54" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>483</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>484</v>
+      </c>
+      <c r="J55" t="s">
+        <v>485</v>
+      </c>
+      <c r="K55" t="s">
+        <v>486</v>
+      </c>
+      <c r="L55" t="s">
+        <v>487</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>488</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>489</v>
+      </c>
+      <c r="X55" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>492</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>493</v>
+      </c>
+      <c r="J56" t="s">
+        <v>494</v>
+      </c>
+      <c r="K56" t="s">
+        <v>495</v>
+      </c>
+      <c r="L56" t="s">
+        <v>496</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>497</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>498</v>
+      </c>
+      <c r="X56" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>501</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>502</v>
+      </c>
+      <c r="J57" t="s">
+        <v>503</v>
+      </c>
+      <c r="K57" t="s">
+        <v>504</v>
+      </c>
+      <c r="L57" t="s">
+        <v>505</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>497</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>498</v>
+      </c>
+      <c r="X57" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>507</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>508</v>
+      </c>
+      <c r="J58" t="s">
+        <v>509</v>
+      </c>
+      <c r="K58" t="s">
+        <v>510</v>
+      </c>
+      <c r="L58" t="s">
+        <v>511</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>497</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>512</v>
+      </c>
+      <c r="X58" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>515</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>516</v>
+      </c>
+      <c r="J59" t="s">
+        <v>517</v>
+      </c>
+      <c r="K59" t="s">
+        <v>518</v>
+      </c>
+      <c r="L59" t="s">
+        <v>519</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>520</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>521</v>
+      </c>
+      <c r="X59" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>524</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>525</v>
+      </c>
+      <c r="J60" t="s">
+        <v>526</v>
+      </c>
+      <c r="K60" t="s">
+        <v>527</v>
+      </c>
+      <c r="L60" t="s">
+        <v>528</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>529</v>
+      </c>
+      <c r="O60" t="s">
+        <v>530</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>521</v>
+      </c>
+      <c r="X60" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>532</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>533</v>
+      </c>
+      <c r="J61" t="s">
+        <v>534</v>
+      </c>
+      <c r="K61" t="s">
+        <v>535</v>
+      </c>
+      <c r="L61" t="s">
+        <v>536</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>537</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>521</v>
+      </c>
+      <c r="X61" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>539</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>540</v>
+      </c>
+      <c r="J62" t="s">
+        <v>541</v>
+      </c>
+      <c r="K62" t="s">
+        <v>542</v>
+      </c>
+      <c r="L62" t="s">
+        <v>543</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>544</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>545</v>
+      </c>
+      <c r="X62" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>548</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>549</v>
+      </c>
+      <c r="J63" t="s">
+        <v>550</v>
+      </c>
+      <c r="K63" t="s">
+        <v>551</v>
+      </c>
+      <c r="L63" t="s">
+        <v>552</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>553</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>545</v>
+      </c>
+      <c r="X63" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>555</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>556</v>
+      </c>
+      <c r="J64" t="s">
+        <v>557</v>
+      </c>
+      <c r="K64" t="s">
+        <v>558</v>
+      </c>
+      <c r="L64" t="s">
+        <v>559</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>553</v>
+      </c>
+      <c r="O64" t="s">
+        <v>530</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>560</v>
+      </c>
+      <c r="X64" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>563</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>564</v>
+      </c>
+      <c r="J65" t="s">
+        <v>565</v>
+      </c>
+      <c r="K65" t="s">
+        <v>566</v>
+      </c>
+      <c r="L65" t="s">
+        <v>567</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>568</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>569</v>
+      </c>
+      <c r="X65" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>572</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>573</v>
+      </c>
+      <c r="J66" t="s">
+        <v>574</v>
+      </c>
+      <c r="K66" t="s">
+        <v>575</v>
+      </c>
+      <c r="L66" t="s">
+        <v>576</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>568</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>569</v>
+      </c>
+      <c r="X66" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>578</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>579</v>
+      </c>
+      <c r="J67" t="s">
+        <v>580</v>
+      </c>
+      <c r="K67" t="s">
+        <v>581</v>
+      </c>
+      <c r="L67" t="s">
+        <v>582</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>583</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>584</v>
+      </c>
+      <c r="X67" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>587</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>588</v>
+      </c>
+      <c r="J68" t="s">
+        <v>589</v>
+      </c>
+      <c r="K68" t="s">
+        <v>590</v>
+      </c>
+      <c r="L68" t="s">
+        <v>591</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>592</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>593</v>
+      </c>
+      <c r="X68" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>596</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>597</v>
+      </c>
+      <c r="J69" t="s">
+        <v>598</v>
+      </c>
+      <c r="K69" t="s">
+        <v>599</v>
+      </c>
+      <c r="L69" t="s">
+        <v>600</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>601</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>603</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>604</v>
+      </c>
+      <c r="J70" t="s">
+        <v>605</v>
+      </c>
+      <c r="K70" t="s">
+        <v>97</v>
+      </c>
+      <c r="L70" t="s">
+        <v>606</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>607</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>608</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>609</v>
+      </c>
+      <c r="J71" t="s">
+        <v>610</v>
+      </c>
+      <c r="K71" t="s">
+        <v>611</v>
+      </c>
+      <c r="L71" t="s">
+        <v>612</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>613</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>614</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>615</v>
+      </c>
+      <c r="J72" t="s">
+        <v>616</v>
+      </c>
+      <c r="K72" t="s">
+        <v>617</v>
+      </c>
+      <c r="L72" t="s">
+        <v>618</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>619</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>620</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>621</v>
+      </c>
+      <c r="J73" t="s">
+        <v>622</v>
+      </c>
+      <c r="K73" t="s">
+        <v>623</v>
+      </c>
+      <c r="L73" t="s">
+        <v>624</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>625</v>
+      </c>
+      <c r="O73" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>626</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>627</v>
+      </c>
+      <c r="J74" t="s">
+        <v>628</v>
+      </c>
+      <c r="K74" t="s">
+        <v>629</v>
+      </c>
+      <c r="L74" t="s">
+        <v>630</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>631</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>632</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>633</v>
+      </c>
+      <c r="J75" t="s">
+        <v>634</v>
+      </c>
+      <c r="K75" t="s">
+        <v>635</v>
+      </c>
+      <c r="L75" t="s">
+        <v>636</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>637</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>638</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>639</v>
+      </c>
+      <c r="J76" t="s">
+        <v>640</v>
+      </c>
+      <c r="K76" t="s">
+        <v>641</v>
+      </c>
+      <c r="L76" t="s">
+        <v>642</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>643</v>
+      </c>
+      <c r="O76" t="s">
+        <v>72</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>644</v>
+      </c>
+      <c r="X76" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>647</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>648</v>
+      </c>
+      <c r="J77" t="s">
+        <v>649</v>
+      </c>
+      <c r="K77" t="s">
+        <v>650</v>
+      </c>
+      <c r="L77" t="s">
+        <v>651</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>652</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>654</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>655</v>
+      </c>
+      <c r="J78" t="s">
+        <v>656</v>
+      </c>
+      <c r="K78" t="s">
+        <v>657</v>
+      </c>
+      <c r="L78" t="s">
+        <v>658</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>659</v>
+      </c>
+      <c r="O78" t="s">
+        <v>530</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>661</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>662</v>
+      </c>
+      <c r="J79" t="s">
+        <v>663</v>
+      </c>
+      <c r="K79" t="s">
+        <v>664</v>
+      </c>
+      <c r="L79" t="s">
+        <v>665</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>666</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>668</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>669</v>
+      </c>
+      <c r="J80" t="s">
+        <v>670</v>
+      </c>
+      <c r="K80" t="s">
+        <v>671</v>
+      </c>
+      <c r="L80" t="s">
+        <v>672</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>673</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>674</v>
+      </c>
+      <c r="X80" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>677</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>678</v>
+      </c>
+      <c r="J81" t="s">
+        <v>679</v>
+      </c>
+      <c r="K81" t="s">
+        <v>680</v>
+      </c>
+      <c r="L81" t="s">
+        <v>681</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>682</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>683</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>684</v>
+      </c>
+      <c r="J82" t="s">
+        <v>685</v>
+      </c>
+      <c r="K82" t="s">
+        <v>686</v>
+      </c>
+      <c r="L82" t="s">
+        <v>687</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>688</v>
+      </c>
+      <c r="O82" t="s">
+        <v>530</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>690</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>691</v>
+      </c>
+      <c r="J83" t="s">
+        <v>692</v>
+      </c>
+      <c r="K83" t="s">
+        <v>693</v>
+      </c>
+      <c r="L83" t="s">
+        <v>694</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>695</v>
+      </c>
+      <c r="O83" t="s">
+        <v>530</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>697</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>698</v>
+      </c>
+      <c r="J84" t="s">
+        <v>699</v>
+      </c>
+      <c r="K84" t="s">
+        <v>700</v>
+      </c>
+      <c r="L84" t="s">
+        <v>701</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>702</v>
+      </c>
+      <c r="O84" t="s">
+        <v>72</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>704</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>705</v>
+      </c>
+      <c r="J85" t="s">
+        <v>706</v>
+      </c>
+      <c r="K85" t="s">
+        <v>707</v>
+      </c>
+      <c r="L85" t="s">
+        <v>708</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>710</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>711</v>
+      </c>
+      <c r="J86" t="s">
+        <v>712</v>
+      </c>
+      <c r="K86" t="s">
+        <v>713</v>
+      </c>
+      <c r="L86" t="s">
+        <v>714</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>715</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>717</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>718</v>
+      </c>
+      <c r="J87" t="s">
+        <v>719</v>
+      </c>
+      <c r="K87" t="s">
+        <v>720</v>
+      </c>
+      <c r="L87" t="s">
+        <v>721</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>722</v>
+      </c>
+      <c r="O87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>724</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>725</v>
+      </c>
+      <c r="J88" t="s">
+        <v>726</v>
+      </c>
+      <c r="K88" t="s">
+        <v>727</v>
+      </c>
+      <c r="L88" t="s">
+        <v>728</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>729</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>730</v>
+      </c>
+      <c r="J89" t="s">
+        <v>731</v>
+      </c>
+      <c r="K89" t="s">
+        <v>732</v>
+      </c>
+      <c r="L89" t="s">
+        <v>733</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>735</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>736</v>
+      </c>
+      <c r="J90" t="s">
+        <v>737</v>
+      </c>
+      <c r="K90" t="s">
+        <v>738</v>
+      </c>
+      <c r="L90" t="s">
+        <v>739</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33068</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>741</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>742</v>
+      </c>
+      <c r="J91" t="s">
+        <v>743</v>
+      </c>
+      <c r="K91" t="s">
+        <v>744</v>
+      </c>
+      <c r="L91" t="s">
+        <v>745</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>746</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_659.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_659.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>travelgirl93463</t>
+  </si>
+  <si>
     <t>07/09/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We stay at Marriott properties often.  This one was no exception to our usual sense of pleasure.  We had a corner first floor room #129 which looked out on the parking lot but was nice and light inside and very quiet. It was also right next to a side entrance door to the hotel so it was very easy to get in and out of the building to the parking lot instead of the usual long trek down the halls.  (The door would only open with a card key so it was secure.).  The room was exceptionally clean.  We walked to dinner just five minutes away to Outback Steakhouse and had a fabulous meal and experience.  The hotel breakfast area was nice and orderly and the man in charge named Nacho was so very kind and helpful.  There were really beautiful and very large photographs on the walls in the common areas of what I assume were local (or al least semi-local) natural attractions/scenery.  This Marriott property is close to the Hiway 5 and Magic Mountain as well as many other city amenities.  It is on a hill just adjacent to town so you can walk or drive to reach whatever you need.  There is also a nice residential area on the hill right behind the hotel so if you are a fitness buff and want an aerobic walk you will be all set!  There is a nice and large...We stay at Marriott properties often.  This one was no exception to our usual sense of pleasure.  We had a corner first floor room #129 which looked out on the parking lot but was nice and light inside and very quiet. It was also right next to a side entrance door to the hotel so it was very easy to get in and out of the building to the parking lot instead of the usual long trek down the halls.  (The door would only open with a card key so it was secure.).  The room was exceptionally clean.  We walked to dinner just five minutes away to Outback Steakhouse and had a fabulous meal and experience.  The hotel breakfast area was nice and orderly and the man in charge named Nacho was so very kind and helpful.  There were really beautiful and very large photographs on the walls in the common areas of what I assume were local (or al least semi-local) natural attractions/scenery.  This Marriott property is close to the Hiway 5 and Magic Mountain as well as many other city amenities.  It is on a hill just adjacent to town so you can walk or drive to reach whatever you need.  There is also a nice residential area on the hill right behind the hotel so if you are a fitness buff and want an aerobic walk you will be all set!  There is a nice and large pool outdoors as well as a hot tub and fire pit and another seating area in addition to lots of pool chairs.  Our only complaint was that the pool towels were incredibly tiny and skimpy.  We enjoyed our time at this Marriott property and will undoubtedly return!More</t>
   </si>
   <si>
+    <t>rescue-you</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r561775915-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We arrived at 1am and Adam was cheerfully waiting to check us in.  We received a quiet location and top floor, just as requested.  The room was spotlessly clean and included a small kitchen area.  We had a great night's sleep and were up early for the breakfast buffet that is included with the room rate.  The buffet had a very nice selection of items, and it seemed that nothing had been left out in terms of variety.  The entire staff at this hotel is so friendly, welcoming, and helpful.  Their positive attitudes were like nothing I had experienced before...a welcome change!  They genuinely seem to care about your stay and do everything in their power to make it an enjoyable and memorable one.  Well done!More</t>
   </si>
   <si>
+    <t>3kidtravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r561506807-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>There isn’t much to choose from in the way of decent hotels in the area. This Residence Inn is a great option. We came for a family trip to Magic Mountain. The location was nice, less than 10 min to the park and we found plenty of food options close by. The staff really is super friendly. The employees in the breakfast room, especially so. The rooms were clean, queen beds were comfortable. Unfortunately, the pull out couch bed was very uncomfortable. This just seems to be the norm for hotels in general, which is unfortunate for us since we are a family of 5 that often needs to use the pull out. The lobby seems updated, but the rooms could use some updating, specifically the bathrooms. We found it to be a little tight in the bed area but a decent room overall. The breakfast was great for a complimentary breakfast and more than we expected. Housekeeping left extra towels without ever having to ask. Overall, good stay, would stay here again if in the area. More</t>
   </si>
   <si>
+    <t>JazzWilliams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r545639039-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>My husband and I moved here for his work and had to stay here for a few months.  We went for walks everyday and there were lots of people staying here for long stays, we made friends, so did our dog as i could not believe they had a dog park.The people were always friendly, helpful and only cleaned your room when you wanted them to.  With a Kitchen it was great to make our own healthy meals and they have a pool and are close to so many amenities.More</t>
   </si>
   <si>
+    <t>Neillis45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r541880737-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Friendly staff.Clean suites.Comfortable bedGood locationGreat for local eating - walking distance Lots of extra events happening at the hotelGood basic continental breakfast each dayComplimentary water and breakfast bars.More</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r498545615-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>Stayed here for two nights while visiting six flags magic mountain. Very clean place, comfortable bed and a great morning buffet. The staff at breakfast were very friendly and courteous. They had a pool and outdoor jacuzzi. I would definitely stay here again. More</t>
   </si>
   <si>
+    <t>Jen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r475161396-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>We stayed in a 1 bedroom Queen bed suite with a sofa bed. My husband, 40, our daughter, 10 and myself, 40 stayed here for 6 nights. The breakfasts were varied and good. The rooms were clean, bathrooms impeccable and roomy. The three of us stayed comfortably for our vacation in Los Angeles area. The bed was a little hard for my husband, but I enjoyed it. Thank you!More</t>
   </si>
   <si>
+    <t>Christopher P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r470662269-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>I started a trip advisor today because of this Residence Inn. I wanted to say what a professional and courteous staff they have. Food is great and they rotate things daily with the staples. It's not the same food every day. It's tasty and it's always abundant. They keep up with everything. The staff bends over backwards. The woman Sarah at the front desk is a professional and accommodating. Everyone is so helpful, from housecleaning(excellent job by all), food service(excellent by all involved) and all staff. Outstanding and helpful. I worked for a service company(communications) for 15 1/2 years with at&amp;t, and I know what it takes to make people happy with a product and service. This staff hits all the marks and exceeds! I can't recommend this place enough. Well done! and thank you!More</t>
   </si>
   <si>
+    <t>Jeffrey L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r467997467-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>My home away from home. Residence Inn, Santa Clarita, CA. Each of the staff members here at this location are friendly, professional, and very helpful. My experience here every week is always pleasant. I also wanted to thank Justin, Sarah, Adam, John, and Waldo for making every bit of my stay, comfortable and enjoyable each week. Thanks again Residence Inn, Santa Clarita :)10 out of 10, come experience it too!More</t>
   </si>
   <si>
+    <t>Franchise35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r457886609-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -432,6 +462,9 @@
     <t>We stayed here on a quick trip down to Southern California and could not have been happier.  The property was clean, comfortable and in a great location.  We were traveling with 2 small children so having a 2nd bedroom and a crib was exactly what we needed to have a comfortable and relaxing stay.John and Justin at the front desk are rockstars and helped us with our every request.  We had originally booked a 1 bedroom suite but were pleasantly surprised to find out we had been upgraded to a 2 bedroom suite upon arrival (pays to have Marriott status I guess).The breakfast was everything you could ask for an more.  Very good food, great selection for kids and the staff were outstanding.Plenty of room in the suites and great amenities for families with children (small kiten, full fridge, etc, etc).We can't recommend this property enough and will definitely stay here next time we are in town with the family.More</t>
   </si>
   <si>
+    <t>Alan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r450729775-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -459,6 +492,9 @@
     <t>This Marriott has yet to have its make over so a little tired. It was clean and staff very friendly so we had a good stay but it does need investment.We had a double room but only had kings and they do not have roll-away's. The sofa can make up to a bed but is difficult arrangement if you have small kids who go to bed earlier than you.More</t>
   </si>
   <si>
+    <t>vbrother</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r441164758-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -486,6 +522,9 @@
     <t>The staff are very friendly and helpful.  The room is spacious and had a great area to set up the computer and lay out your papers.  The kitchen area is very nice and they had popcorn for us to heat up in the microwave.  I'm surprised that there is no guest information book in the room giving you hours of operation for the pool, fitness facility, breakfast buffet etc.  When my husband inquired about it at the front desk he was told that there was no such thing available.  All they gave him was a list of recommended restaurants.  We asked about location of an ice machine and were told that they do not have one.  They just gave him a bag of ice and told him to turn on the ice maker in the fridge as it is supposed to make ice very quickly.  I took an hour to get 6 ice cubes from the ice maker.We found that the noise from the freeway was very loud and made for a restless night's sleep.  Breakfast was not as good as other Marriott properties that we've stayed.  It was average at best - typical of most breakfast buffets.  We have had exceptional breakfasts at Springhill suites and they are less money than this Residence Inn.We probably would not stay here again as we just don't feel it is good value for the money.More</t>
   </si>
   <si>
+    <t>HildeKols</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r409863684-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -513,6 +552,9 @@
     <t>Great location for Family visits and Magic Mountain. The staff was very helpful and friendly. Really liked the rooms. Fresh, light, soundproof, clean and spacious. Always a pluss With the coffemaker:-)). We will for sure ba back.More</t>
   </si>
   <si>
+    <t>qoe505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r375297677-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -538,6 +580,9 @@
   </si>
   <si>
     <t>We stay here when we are traveling with my adult children, usually renting the 2 bedrooms suites.  You cannot beat the price for the size and convenience of these rooms.  The rooms are well appointed and taken care of.  We like having a kitchen and being in an apartment style atmosphere.  The breakfast here is great and a good way to start the day before heading to Six Flags Magic Mountain which is a quick drive away. Close to this location are many eateries with our favorite In-n-Out burger since we are not from California and eating there is always on our list.  We've often taken our food back to our room to get away from the crowd that is always at this eatery.  Not far from this location is a plethora of stores including a supermarket and a Wal-Mart.  Staying here will not be a disappointment if you are traveling with a family.More</t>
+  </si>
+  <si>
+    <t>Shigeru-Charlie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r366372619-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -573,6 +618,9 @@
 The king studio we received was in excellent condition and the all important bed was extremely comfortable. The work space was excellent and quite large, there was even a second smaller desk area and...I never write a review of a property after only the first of a three night stay, but I was so impressed with this particular Residence Inn that I broke that rule.With a hotel chain properties tend to blur together - nothing really stands out.  As long as the property is fresh, well maintained and comfortable I am happy and will rebook in the future. This property differentiates itself on service. The night auditor (I regret not having his name) checked us in at 1:30 AM and bent over backwards to be helpful - apologizing that he couldn't meet our request for a first floor room (but saying they could possibly move us in the AM) then going and tracking down a luggage cart for us completely on his own volition. These might seem like small things but in our many years platinum or platinum premier membership that is not the norm. Typically if our room request can't be met no one says anything and I can't remember when a staffer went and got me a luggage cart when he wasn't a bellman. To me it's the thought that counts, and the fact that they acknowledged our request and tried to accommodate it was appreciated.The king studio we received was in excellent condition and the all important bed was extremely comfortable. The work space was excellent and quite large, there was even a second smaller desk area and a two seater peninsula for dining or whatever. The room, #202 was extremely and blessedly quiet. This studio even had a luggage stand in the closet. That might seem like another small thing but I can most assuredly say that most Residence Inns do not have them, the theory being that you will be there for a long stay, unpack completely and therefore don't need one. Breakfast at this property was another very pleasant surprise. Residence Inns offer a complementary breakfast. There is a minumum standard of hot and cold items and some properties skirt that edge. We've come across prepackaged processed sliced melon and other fruits; this property had fresh melons, strawberries, blueberries, apples and bananas, all of it was fresh.There were scrambled eggs, turkey Canadian bacon, potato pancakes, breakfast potatoes with peppers and onions - just a very good variety. There was oatmeal with a variety of toppings, even sliced almonds. Low fat yogurts and even what I call yogurt parfaits like you would get at Starbucks with a fresh fruit and granola topping. There was also a selection of breads, cereals and pastries. I am probably leaving things out - but I will tell you I was also surprised to see granola bars and small bottles of water available. The kicker was that the woman working the breakfast area brought me a full size bottle of water. I didn't ask for it, she just graciously brought it to me. Again, this was clearly not the standard at Residence Inns and I have never encountered that before. I am sorry I did not ask for her name.Javier at the front desk was also exceptional. I went over to ask a question and identified myself. He immediately said he had wanted to call me, but was aware of our late check in and didn't want to disturb. The reason for calling was that he was offering to move us to a ground floor room, all we had to do was leave our packed luggage and staff would transfer us directly to the new room. Again, this was unexpected and exceptional customer service.More</t>
   </si>
   <si>
+    <t>HankW80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r349863115-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -597,6 +645,9 @@
     <t>Hotel is right off the highway and part of a cluster of hotels and restaurants. There is a pool outside and breakfast/coffee in the lobby. Rooms are big, spacious, and clean with full size fridges.  Checked in late and relatively short stay but was quite satisfiedMore</t>
   </si>
   <si>
+    <t>Steve N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r341648146-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -624,6 +675,9 @@
     <t>Stayed on a Tuesday night while on a business trip. Check-in was a pleasant experience. Clerk was a pleasure to deal with (I didn't catch his name, though).Room was very clean and the hot water came quickly.Mgr's Reception was pretty good and attendant kept things going well.Same for breakfast. I would definitely come back, if I'm in the area again. More</t>
   </si>
   <si>
+    <t>Amy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r341293057-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -642,6 +696,9 @@
     <t>Great hotel, and wonderful friendly staff. After 7 days of driving across country and many nights of inferior hotels, we were THRILLED to find this one. Great location off the freeway (and quiet) wonderful large, nicely appointed rooms. You are able to walk to decent restaurants, which is a huge plus for us. We arrived early but they had our room ready. Good place for pets, too. Breakfast- tho NOT the reason to pick a hotel, was really fun and unique. Pool and jacuzzi looked very inviting, but we did not partake. Pricewise, it was a bit spendy, but that fluctuates with time of year I suppose.More</t>
   </si>
   <si>
+    <t>TravelIntl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r336979114-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -669,6 +726,9 @@
     <t>My family of four stayed here for 1 night on our California trip.  Our room was clean, comfortable and spacious.  Breakfast was good.  Property is well-maintained.  Area near the hotel has many restaurants and stores.More</t>
   </si>
   <si>
+    <t>orfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r325359576-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -693,6 +753,9 @@
     <t>We chose to stay at the Residence Inn for four nights while visiting Six Flags Magic Mountain and Universal Studios.  From the time we checked in with John, who was so welcoming and friendly until the time we left we couldn't have found a better place to stay if we'd tried.  All the staff were so friendly and helpful, the rooms were spacious and with great facilities, the breakfast was superb and the pool and bbq area was fabulous.  We had an amazing time - thank you to all the staff.  We were even given a bag of goodies to take to Magic Mountain.  Our family of 10 so enjoyed our stay with you and would thoroughly recommend the Residence Inn for a relaxing and enjoyable stay in Santa Clarita.More</t>
   </si>
   <si>
+    <t>w57chev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r320269080-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -717,6 +780,9 @@
     <t>Residence Inns are just a solid bet for comfort, cleanliness, and a friendly helpful staff, with a good breakfast included. Staff was very helpful in helping to find a hometown bar with good food, a Dodgers game on, and it happened to be walking distance right across the street. For me, a firm mattress is perfect, as are most at this chain. Grounds and interior here are well kept, and that adds to a comfort level also.More</t>
   </si>
   <si>
+    <t>Doug T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r318162023-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -741,6 +807,9 @@
     <t>After we had contractors working in our house, my wife developed asthma from the dust and we had to quickly find a place to stay until they finished. Booked it at the last minute and we were very impressed by the friendly staff. The room was beautiful with it's own kitchen and TV in both the living room and bedroom.  The breakfast was delicious. We will stay here during our next house project.More</t>
   </si>
   <si>
+    <t>hilti18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r308825283-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -759,6 +828,9 @@
     <t>We stayed at the Residence Inn Santa Clarita in Oct 2014 for one month with our 1 year old son.The hotel is located directly next to the Interstate 5. Restaurants and shopping locations are in close range.While the rooms are a bit outdated and require renovation, the staff of the hotel was excellent.The breakfast service staff was very friendly and did not get tired of joking around with our little son.The hotel is definitely a good choice in Valencia/Santa Clarita, if you have to stay for a longer period of time. If you just have to stay for a few nights, I'd always prefer the Hyatt Regency Valencia as it's closer to the town center.More</t>
   </si>
   <si>
+    <t>Bill G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r294108746-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -786,6 +858,9 @@
     <t>John was at the front desk wearing a nice suit. That was a pleasant surprise to see that level of professionalism. He was upbeat, fun and helpful. Our room was delightful! The hotel even hosted a beer, wine dessert social that evening. That too was a pleasant surprise. Breakfast in the morning was really good. We will stay here again!More</t>
   </si>
   <si>
+    <t>JMFletcher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r274629346-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -813,6 +888,9 @@
     <t>Our family of 5 stayed here for three nights at the end of April.  From check in to check out, their staff goes above and beyond to ensure you are comfortable and have everything you need.  Starting each day with breakfast was such a pleasure!!  Teresa and Jose were so cheerful and really made us feel at home.  The food was delicious with a good variety of choices each day.  The hotel itself, as well as the grounds, were very clean.  The beds were comfortable and the suite was spacious.  Thank you to everyone there who made our stay such a wonderful one!More</t>
   </si>
   <si>
+    <t>eniwder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r273220249-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -834,6 +912,9 @@
     <t>Nice Residence Inn with all the standard Residence Inn amenities; free high speed Internet, free breakfast, Pet friendly, kitchen / kitchenette.  Stayed here because traveling with out Miniature Schnauzer.  Best for extended stay.More</t>
   </si>
   <si>
+    <t>Bianca S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r270205904-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -852,6 +933,9 @@
     <t>Stayed at this motel because we were going to attend the Santa Clarita Cowboy &amp; Poetry Festival.  We're costumers so we dress up at the drop of a cowboy hat.  So, we rented the suite so we could hang out with friends after the festival and have a pizza and champagne.  Very nice place but if you go, do not stay by the parking lot.  It was noisy all night.  We got up early to work out.  Were hoping for stationary bikes but only had an elliptical and treadmills.  TV's don't work on them but, eh.  The breakfast was awesome.  The staff so accommodating.  Just a super nice experience.  I highly recommend it.  Oh, and you'll need a compass to get around the maze of halls.  They do not post any signs so leave breadcrumbs....More</t>
   </si>
   <si>
+    <t>Heidi A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r263844826-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -870,6 +954,9 @@
     <t>Teresa is the wonderful mother at breakfast to help and take care of you like you love.  She is wonderful and made the delicious breakfast even better.  There is fresh fruit and almost every hot and cold item you can imagine.  They even have little bottles of water and granola bars to take with you when you go.  John checked us in and was so helpful and I can't thank him enough.  Out by the pool is a lovely fire pit to sit by in the evenings and there is a cooler with water bottles by the pool.  You feel like you are staying with family when you are at this hotel.  I can't think of anything that this hotel does not have that you might need.  Our room was very quiet and clean.  The location couldn't be more perfect with lots of shopping, restaurants and six flags just up the street.  We even left the park to come back to the hotel to swim and then returned later in the evening for a few more rides.  This is my favorite Residence Inn that I have stayed in.More</t>
   </si>
   <si>
+    <t>356AndrewR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r263244874-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -897,6 +984,9 @@
     <t>With Travel to LA during the holidays getting worse, we chose to have an early Easter with the inlaws.  So flew into Burbank about 9pm and got to Residence by 10pm.  Imagine 4 people tired (2 kids under 10) walking, sorry dragging themselves into the hotel.  The staff there did everything they could to make sure our room got setup and we had everything we wanted (Kids love pillows) by 10:15pm.  Fast friendly service and very clean rooms is why I will certainly come back here.  BTW - The breakfast is great tooMore</t>
   </si>
   <si>
+    <t>jergmar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r260978592-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -915,6 +1005,9 @@
     <t>The hotel is very clean, close to food, walking distance, and gas stations.  The breakfast was great and there was enough room to sit and eat without feeling pressured by others waiting for a seat.  We paln on staying there whenever we are in that area.More</t>
   </si>
   <si>
+    <t>DiannaC20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r256528570-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -942,6 +1035,9 @@
     <t>Room 213 is a two room suite it's very quiet, clean and spacious. The young man at the front desk gave us a great rate as it was late and there was nothing else available in the area. The only downfall was the sheets... Very rough and scratchy!!!!! Decent breakfast. Close to universal, about an hour and a half from Disneyland.More</t>
   </si>
   <si>
+    <t>Chip12014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r247942620-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -969,6 +1065,9 @@
     <t>This is a great hotel.  Really clean and nicely decorated rooms, friendly and helpful staff, great breakfast buffet.  We stayed at this hotel last year on four separate occasions when we were in town visiting family and friends.Front desk staff Tom and Delene always welcome us after our long road trip and honor our room requests too.We make full use of the kitchen whenever we stay which is completely stocked with dishes, silverware, glasses, etc. The refrigerator is a good size and there is a small dishwasher too.  There are a number of fast food and other restaurants within walking distance to the hotel and the freeway entrances are very close by.More</t>
   </si>
   <si>
+    <t>MikeandSarah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r245537091-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -993,6 +1092,9 @@
     <t>Great stay began with knowledgable and very friendy front desk man Tom who put us in great room and secured a cart for me. The past half dozen or so Res Inns either didn't have a cart or couldn't find one anywhere. Place looked so great I thought it was brand new but turns out recent renovations made it look and feel that way. Very good sleeping with super beds and quiet, very quiet. One of the brst breakfast buffets in all the recent stays along the west coast. Very nicely designed and within a few hundred yards to a half mile of lots of good places to dine. Excellent stay.More</t>
   </si>
   <si>
+    <t>Adamurican</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r240919724-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1014,6 +1116,9 @@
     <t>I've stayed at this hotel several times.  They've recently undergone a significant makeover and although it was nice before, it made it that much nicer.  The pool and hot tub were a big hit with my kids and is big enough for a lot of people without feeling crowded.  The rooms are quiet and comfortable.  The TV has lots of channels and, like all Residence Inns, the kitchen is very convenient if you are staying more than a couple nights.  Breakfast bar in the morning is pretty good sized; the highlight for me is the waffle maker.  The front desk and maintenance staff were always exceptionally friendly and helpful.The hotel is situated just off the I-5 over the hill (north) of the San Fernando Valley by 5-10 minutes.  It is 5 minutes from Six Flags Magic Mountain and an easy commute to get into Burbank, Pasadena, and downtown LA.  Santa Clarita is a much nicer, upscale, and safer area compared to the San Fernando Valley or quite frankly many places in LA.More</t>
   </si>
   <si>
+    <t>Ginger N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r237868697-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1038,6 +1143,9 @@
     <t>I love knowing I can plan, arrange and communicate a meeting room request from my own home and computer, and know I am in the best of hands and can be rest assured all will be taken care of as requested!  Thank you Alissa, Amy, and who can forget Nacho for laying it all out for me!More</t>
   </si>
   <si>
+    <t>HotWingsDotCom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r235653150-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1059,6 +1167,9 @@
     <t>Very convenient location for our trip to the amusement parks just right off interstate 5.  The facility is nice &amp; front desk staff were accomodating.  Plenty of restaurants nearby.  The only negative is that housekeeping needs to do a more thorough cleaning of the room.  Bed wasn't made properly and found some oreo cookie crumbs beneath the sofa bed during the first night of our stay when we pulled out the sofa bed.  Yikes:(More</t>
   </si>
   <si>
+    <t>SMSJH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r224662808-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1086,6 +1197,9 @@
     <t>We stayed here for a month while on business. The kitchen is equipped to cook a few basic dishes. One thing it lacked was an oven. Otherwise, this place is surprisingly comfortable for a long stay, with a living room and a separate sleeping area. We were on the ground floor facing the parking lot but it was not too much of a problem. There is a coin laundry. They were also very accommodating in terms of the cleaning times as I was staying in my room until 2pm sometimes. We even used the gas grill for a BBQ with some friends and always enjoyed the hot tub and swimming pool and gym. The WIFI is also stable and good. One thing the hotel can improve on is the quality and freshness of the breakfast. The meat, eggs, bread and juices were the high-fructose corn syrup variety and were clearly not freshly-made but looked and tasted synthetic.More</t>
   </si>
   <si>
+    <t>SheOnPoint</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r223072413-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1113,6 +1227,9 @@
     <t>We recently stayed here for a week.  Prior to our stay we received an email from the hotel  manager, Joelyn.  She introduced herself and asked if there was anything she could do to make our stay special.  We requested extra pillows, a high floor and mountain view room.  She told us that she couldn't guarantee our requests but would do her best to accommodate us.  Upon checking in to our room we were pleased to see that all of our requests had been made.  This hotel must have been recently renovated because the TA pictures are dated, you can visit there website for a more updated depiction of their rooms.  We had a one bedroom with kitchen and two TVs, the rooms were clean with modern decor. The wifi was consistent and we never experienced any issues with it, which is usually the case with most hotels that offer free wifi.  There was free hot breakfast daily as well as a weekday reception with light fare.  The kitchen staff as well as the front desk staff were always kind, helpful and accommodating.  Everyone here was happy to go above and beyond to make sure we were comfortable during our stay.  The hotel is in a decent location with chain restaurants,  supermarkets and malls nearby, though somewhat of a distance from downtown.  We would recommend this residence inn to anyone looking for a home away from home.More</t>
   </si>
   <si>
+    <t>Steven F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r219572228-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1140,6 +1257,9 @@
     <t>I applaud a place where mgt takes charge of a situation to make it right. First of all they made sure we had two rooms adjoining so our big family could be near to each other---- that  is e normal sort of thing you might expect but a personal item got damaged and there was no argument Sonya the manager took care of it graciously and with charm and a true customer focus. I a am not a lifetime platinum Marriott person for nothing ------ they understand customer service fo the word go and I appreciate their focus. You can not go wrong here on any level. We chose it because of proximity to hurricane harbor and it is terrificMore</t>
   </si>
   <si>
+    <t>Sarah D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r214931304-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1164,6 +1284,9 @@
     <t>We stayed one night and felt at home immediately.Front desk staff very friendly and helpful.Stayed in a two bed roomed suite great facilities.Pool was very nice and the complimentary drinks and breakfast very good.Would recommend to stay here as so close to Six flags theme parkMore</t>
   </si>
   <si>
+    <t>jamie  p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r213234285-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1189,6 +1312,9 @@
   </si>
   <si>
     <t>I come to this hotel offten for business and I always check in early but this one time I checked in a little late and im glad I did because I met a black gentleman with very long cool hair I think his name was silvester. I All of the staff here are great but I would have to say silvester is the golden one. He was very polite and full of personality with GREAT customer service. this is my favorite hotel when I stay in santa claritaMore</t>
+  </si>
+  <si>
+    <t>Kate M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r212322976-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1219,6 +1345,9 @@
 Complimentary WiFi (with a strong signal) is provided. They are genuinely pet friendly (not pet tolerant). I saw 6 other dogs during our short stay. All rooms appear to be made available for pets (not just a small section of old, ugly rooms). There's no extra daily charge for pets, but there is a $75 pet departure cleaning fee. This appears to be valid because there wasn't a hint of dogs being present in our room prior to us. There's a little fenced pet run for early morning/late night doggy business and there's also a number of landscaped grassy areas. You get a 'Four Legged Guest' magnet to place on your door...Our 'family' (2 adults, 2 fur babies) spent two nights at this hotel, in a King Studio room, in June 2014Our room was modern, nicely furnished, larger than the standard hotel room, and most importantly, clean. It had an abundance of conveniently placed power outlets to charge all one's electronic gadgets.  The photos on the web site are an accurate representation. The kitchen has the basic requirements (although if you have a long stay and plan on cooking for a family, you might find it lacking). The hotel offers complimentary daily buffet breakfast, and dinner on three nights/week (Tue, Wed, Thu). They also offer a grocery stocking service if you need it. Also close by the hotel you will find all the usual fast food restaurant chains. Complimentary WiFi (with a strong signal) is provided. They are genuinely pet friendly (not pet tolerant). I saw 6 other dogs during our short stay. All rooms appear to be made available for pets (not just a small section of old, ugly rooms). There's no extra daily charge for pets, but there is a $75 pet departure cleaning fee. This appears to be valid because there wasn't a hint of dogs being present in our room prior to us. There's a little fenced pet run for early morning/late night doggy business and there's also a number of landscaped grassy areas. You get a 'Four Legged Guest' magnet to place on your door to alert Housekeeping there is a pet inside. Stairs and elevator available (we stayed on the 3rd floor and used both) and there's a back entrance if you prefer not to walk your dogs through the lobby.Location of the hotel offers easy off/on to Interstate 5. Downside of that is traffic noise if you get a room on the highway side.  I had requested a room "on the third floor away from the highway". We didn't get "away from the highway" part. It was a bit noisy but it's relative. If you live in suburbia it will seem very noisy. If you live in a major city, downtown, apartment, it's probably no big deal.I would recommend this hotel for road-warrior business travelers (room to work and convenient meal solutions), couples, families traveling with children and/or pets.More</t>
   </si>
   <si>
+    <t>1Dforever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r206539800-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1243,6 +1372,9 @@
     <t>This is the best hotel you can possibly stay at if you like amusement parks near by. I absolutely loveeee this hotel. I really recommend staying. The room service was polite, the pool was clean, the room was really really comforting, and the staff were really welcoming. ☺️More</t>
   </si>
   <si>
+    <t>DenverTrvlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r206262262-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1267,6 +1399,9 @@
     <t>Very good location, but our room (standard queen bed with pull out bed/couch) was TINY and the hotel felt dated even though they have done recent renovations. Breakfast was not very good - just the standard continental spread you can find anywhere. We used free e-certificates earned from Marriott good for category 1-5 hotels. This hotel seemed more like a category 3 than the category 5 Marriott claims. I would probably stay elsewhere in Santa Clarita on my next trip.More</t>
   </si>
   <si>
+    <t>DWro60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r205477492-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1291,6 +1426,9 @@
     <t>This property and the staff were wonderful.  Some of the property was closed off for remodeling and updating but it didn't interfere with getting around the place.  The breakfast options were outstanding with helpful morning staff.  The two bedroom suite was very nice and roomy and the kitchen was very easy to work in.  We will stay there again and look forward to seeing the updated property.More</t>
   </si>
   <si>
+    <t>Lucinda N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r200362345-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1315,6 +1453,9 @@
     <t>This isn't the first time I've used the Hotel, nor will it be the last. We have meetings very often--and the staff is more than accommodating, especially Alissa who is the Sales &amp; Catering manager there. She is beyond a delight to work with. Everything is very orderly and she will always do her best to accommodate you. She's also in charge of the same department for Hampton Inn, Fairfield Inn, and the Courtyard. If she can't get you in at one place, she will check the others. So not is it only convenient, but beyond efficient. I can't gloat enough about this place as I've had them accommodate us at the very last minute--as in less than a day!So if great hotel experience is what you're searching for--I more than HIGHLY recommend this.More</t>
   </si>
   <si>
+    <t>Tomboofleics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r170884190-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1357,6 +1498,9 @@
     <t>We hold meetings at this property...and the service from the Sales &amp; Catering Manager Kelliann is always over the top exceptional!  Emails the week of the meeting for a final walkthrough of needs, wishes, set up and etc.  I don't need to send reminders to her...she reminds me!And just booked for 2014....easy peasy and stress-free!More</t>
   </si>
   <si>
+    <t>Travelwise58277</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r165584697-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1384,6 +1528,9 @@
     <t>This Residence Inn is awesome!  We travel to this area for work on a consistent basis and love staying here.  The staff are always helpful and accommodating and go out of their way to make sure we are taken care off.  It is always a good experience and we would not stay anywhere else!!More</t>
   </si>
   <si>
+    <t>Veronica P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r165454150-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1403,6 +1550,9 @@
   </si>
   <si>
     <t>I have a family of 5 and the Residence Inn is very accomadating.  The breakfast was great and the rooms are spacious and clean. I was impressed with the staff and they were very good with my kids running around the hotel! I definitely will stay here again on our next family trip to Magic Mountain.More</t>
+  </si>
+  <si>
+    <t>Forevermemories</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r164830488-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1435,6 +1585,9 @@
 We didn't want to risk our health by sleeping on a toxic waste mattress. My elderly mother had already fallen asleep or we would have immediately packed up and gone to another hotel even though it was almost 2 a.m. We requested additional sheets, folded up the sofa and slept on the sofa top with legs hanging over the edge. (DOESN'T THE SONG SAY, "OH WHAT A NIGHT"...This was my third and LAST stay in a Residence Inn. My first stay was in Henderson Nevada. It was excellent with the best management, extremely clean suites and exceptional service for the two handicapped elders with whom we were traveling. Expecting the same service in other Marriott Residence Inns, I made the mistake of booking Marriott Residence Maingate in Anaheim (see my earlier review of that dirty, run-down dump) and also this Residence Inn in Santa Clarita. We arrived with my 90+ year old mother around 1:00a.m. When we checked into the room I was overwhelmed by the extreme, choking odor from room freshener. The reason for the room freshener became abundantly clear when we opened the pull-out sofa. The mattress was caved in where there were blood and feces stains on one side and edge. We called the front desk. There was only person on duty, the front desk clerk, so there was nothing that could be done to remedy the situation. No other mattress available, no other rooms available. We didn't want to risk our health by sleeping on a toxic waste mattress. My elderly mother had already fallen asleep or we would have immediately packed up and gone to another hotel even though it was almost 2 a.m. We requested additional sheets, folded up the sofa and slept on the sofa top with legs hanging over the edge. (DOESN'T THE SONG SAY, "OH WHAT A NIGHT" seem appropriate about now?)Next morning we ventured to the breakfast room with trepidation because if housekeeping is that lax, what could the cooking/kitchen staff cleanliness standards include or exclude? The servers in that area were gracious but as another reviewer point out, plastic is the only service provided, how odd but I realize it saves on labor.The front desk clerk told me rudely that the room had been discounted. Of course I asked for the manager. A discount was not enough. I wanted a total refund. Without bringing the manager forward, who should have offered profuse apologies and explanation, they then said the charge had been removed from my account. When I wrote to the manager, I complained that his entire housekeeping staff was suspect in my opinion because they would make up a room with this absolutely unsafe blood and feces covered mattress that had been cleaned inadequately. If management allows for conditions that are unclean and toxic to which their guests or employees are exposed, they are not doing their job. I copied the same letter to Marriott Corporate. As a long-time Marriott platinum awards member, I had expected Marriott quality and consistency. This Residence Inn does not meet Marriott standards that I have known over the years. I would have been better off staying anywhere else. I'm very glad we didn't get sick from exposure to this toxic mattress and room. Manager, don't bother with a rebuttal. I have your letter in my Marriott file. No amount of excuses make up for that disgusting night.More</t>
   </si>
   <si>
+    <t>bstcal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r163309273-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1459,6 +1612,9 @@
     <t>We stayed overnight here prior to going to Magic Mtn.  The 'oversized Studio' was very spacious (roomier than Embassy Suites).  We have three teenagers and the studio had 2 queens and a pull-out queen.  Breakfast was good (make your own Belgium waffles, fruit, cereal, bagels, coffee, juice).  Breakfast staff was very friendly. Room was very clean and updated.  This hotel has a small outdoor basketball court.  Free wi-fi.  And for meals, Santa Clarita has every possible restaurant (casual, fast food, take-out, sit down).More</t>
   </si>
   <si>
+    <t>jhorell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r162781454-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1483,6 +1639,9 @@
     <t>A very clean, comfortable and safe stay in North LA.  The rooms were of 4 star quality and the service was very friendly and efficient.  A little bit on the expensive side for Santa Clarita.  The complimentary breakfast was good (especially the fresh fruit) but couldn't find a place to sit - too small - bad engineering.More</t>
   </si>
   <si>
+    <t>Greg A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r159473534-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1510,6 +1669,9 @@
     <t>I stayed here on business in April 2013.  The hotel is conveniently located off the I-5 highway and is a short distance away from Six Flags Magic Mountain amusement park.  Like all Residence Inn hotels, they had a complimentary evening social and morning breakfast.  Internet access is also complimentary.  I had eaten dinner before my arrival but could not resist the barbecue beef they were serving for their evening social.  My room was spacious, and the staff was friendly.  I took advantage of their small exercise room for a morning run.  The breakfast spread in the morning offers a nice variety.  Residence Inn has a nice formula, and this hotel follows it pretty closely.  When I stay at a Residence Inn, I generally know what to expect.  As long as the hotel is clean and the staff is competent, I generally do not have a problem.  This hotel was clean, and the staff was friendly and helpful.  I was here for business, but I could definitely see staying here if I were planning to visit the amusement park.  It is quite close.More</t>
   </si>
   <si>
+    <t>M_GO_BLUE_A2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r153908877-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1535,6 +1697,9 @@
   </si>
   <si>
     <t>Great place to stay, Wonderful location, within few minutes from Grocery stores and restaurants.  If you don't want to drive, you can walk to any of 4 or 5 fast food places next door.  Clean and well decorated rooms. Good service. Easy access to the highway and nice neighborhoods of Stevenson Ranch.More</t>
+  </si>
+  <si>
+    <t>Ed W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r152674311-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1567,6 +1732,9 @@
 To end on a positive note, the staff...I never stayed at a Residence Inn before, but decided to stay here because they accepted a Marriott Signature Certificate and it had good ratings.Overall, a nice place. Excellent for families and business travelers who need to stay multiple days. The kitchen is nice and large. They offer grocery running services as well.Beware that they only have queen beds available. No king size beds. Also, something to consider is if you like your room cold while sleeping (we like 68) they have a GEM energy management system which turns off the AC when no one is in the room. Sounds great in theory.. no one wants to waste electricity when it isn't needed. However, the problem is that the GEM system uses motion sensors to detect movement. When you are sleeping in the bed- not moving, the system doesn't "see" you and thinks the room is unoccupied- hence turning off the AC. For us, this meant we'd wake up when it got hot, the system would detect movement, turn on the AC, we'd fall asleep, then it would get hot again 30 mins later, repeat.Aside from the AC, the only other negative was that our refrigerator looks like it lost a battle with an angry guest- it had all sorts of dents in it. The stainless steel door really looked bad- and brought the whole room down with it.To end on a positive note, the staff was really friendly and the shuttle service was free and very timely. This was a great plus for us since we didn't want to pay $17 to park our car at Magic Mountain.More</t>
   </si>
   <si>
+    <t>buffalomoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r152395187-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1591,6 +1759,9 @@
     <t>We stayed at Residence Inn, Santa clarita, and we really liked our stay.  The room was very clean and smelled new and fresh.  The beds were comfortable and the refrigerator was clean and new.  We really have nothing bad to say about it. The breakfast was very good and hot.  The proximity to the freeway and LA was just about right.  A great way to break up a trip from San Francisco to LA.More</t>
   </si>
   <si>
+    <t>JCGH777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r146533292-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1618,6 +1789,9 @@
     <t>This is an excellent location if you are planning on going to Magic Mountain.  This hotel is nestled with a number of other hotels and fast food restaurants.  It was clean, quiet, comfortable, and safe.  The complimentary breakfast was excellent! It had many options and was fresh. The pool &amp; hot tub were good.  Staff were friendly, courteous, and accommodating.More</t>
   </si>
   <si>
+    <t>Alex&amp;Anne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r145763779-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1642,6 +1816,9 @@
     <t>We had a 2 bedroom suite both en-suites, plenty big enough for 3 of us for our 5 week stay.  Well equipped kitchen / standards of cleanliness were high / the staff were brilliant friendly, helpful and couldn't do enough for you.  Pool area cleaned every morning and towels left on sun beds.  Breakfasts were more than adequate.  3 evening meals are included more of a snack, always salad with usually one hot main, and free beer!  Shuttle bus available for local use.  We were 4 miles from Valencia town centre.  Would definately stay there again.More</t>
   </si>
   <si>
+    <t>Elvin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r145379523-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1661,6 +1838,9 @@
   </si>
   <si>
     <t>Due to business trip, get an opportunity to stay at Residence Inn, Santa Clarita from 28Aug till 16Sep 2012.I would say the best experience I ever had. Clean &amp; neat room with a convenient for cooking (yes, I cook some lite snack for myself by using microwave!!!)Friendly staffs, helpful &amp; informative, especially the front desk guys. They provide complimentary breakfast &amp; dinner on Tue to Thu, nice food &amp; friendly waitress. Strategic location with walking distance to food &amp; malls, nice walking around the area &amp; feel safe. Short distance drive to Valencia Boulevard with nice malls.Overall feel great.More</t>
+  </si>
+  <si>
+    <t>Judy O</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r135014944-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1692,6 +1872,9 @@
 I will suggest you keep vigilant when you're using the freeways.  There was a LOT of construction with some signage missing...We stayed a week at the Res Inn in Santa Clarita for a 35+ family reunion in the SF Valley area.  We were upgraded to a 2 bedroom suite for me and my daughter's family of 5.  Worked out great except for the upstairs guests who did a lot of running across the floor above us (We were in 214).  They graciously moved us to the same room type on the 3rd floor the next day and it was smooth sailing after that.  We can't say enough about the friendly staff who accommodated our every need.  The rooms had a full kitchen and was cleaned and freshened by housekeeping each day. The pool and jacuzzi were awesome and crystal clean.  We did several "midnight swims" with the children and they loved it.  They also have a firepit with comfortable chairs around it, but we preferred the jacuzzi! The inn serves a breakfast each morning with fresh fruit and the usual breakfast fare.  Not so sure about those eggs though! It was average, but free so who's complaining?!!  Never made it to the manager's reception. I also noticed that so many of the other guests were pleasant and fun to chat with.  We will definitely stay here again should we go back to the area.  We felt right at home!I will suggest you keep vigilant when you're using the freeways.  There was a LOT of construction with some signage missing and we got lost a couple times.  Otherwise, it's a nice area for walking, shopping and just vegging by the pool.  We got very good at this!More</t>
   </si>
   <si>
+    <t>JFredPhoenixAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r134826298-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1713,6 +1896,9 @@
     <t>Stayed for 2 nights while visiting Magic Mountain. Very easy check in. I made a request to change my room type and they were very accomodating. The hotel was very clean and well maintained. Everything in the room worked perfectly. We stayed in a studio and it was plenty spacious. The breakfast buffet was reasoanbly good. Food quality was average. Would have liked a little more variety. Basically 1 egg dish, 1 meat and a little fruit. They do have a waffle maker to make your own waffles. Plenty of seating in the breakfast area so it din't feel overcrowded. The hotels is about 2 miles from Magic Mountain and there are plenty of restaurants nearby. Just booked a return stay for next month.More</t>
   </si>
   <si>
+    <t>Freediveuk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r133939289-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1737,6 +1923,9 @@
     <t>Useful place if you have a family and great to have a fridge - otherwise - travelling solo - I'd rather have a standard hotel room. Rooms have everything but are dark and totally soul-less.  TV signal lousy, beds and baths fine. Tiny pool (not unusual). What did surprise me was that the free breakfast (which they started to clear before the deadline).  Choice was limited (OK for free though) but the scrambled eggs looked like they'd been made from egg powder - you cannot get such a uniform colour - or cement-like consistency from real eggs....BUT serving it on polystyrene plates with plastic cutlery - what do they think we'll do?  Go Greek and start throwing the plates on the floor and dance around them and steal the cutlery? Unfortunately as I stayed over 2 trips of Thursday night to Tuesday I didn't experience the Manager's buffet but hope it would be better than the breakfast.  However, stacks of cheap places to eat within walking distance, and better places a short drive away.Front desk staff were cheerful and helpful in every way and offered help when needed - and they were the heroes of the stay - otherwise - if I'd not used Marriott points for the stay I'd have checked out early and cancelled my second stay.More</t>
   </si>
   <si>
+    <t>Rononeil2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r129594374-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1764,6 +1953,9 @@
     <t>I've been very fortunate to stay there 170 days over the past year and have experienced exceptional service with everything you need.  The staff there have become my second family and treat everyone as if they are family as well.   Always helpful, proactive and react quickly when things need to be done.   I work in the hospitality industry and look for the small details, which make the biggest difference for me.  The accommodation and maintenance staff are always consistent and always on top of things that need to be done.   From the smallest thing to when you need to change rooms, they are there to assist you in anyway.  Plus, they are very friendly and personable always giving me smile.The Front Desk team are always on top of things, making sure my favourite room is reserved to greeting me when I come through the lobby. It's nice to see there smiling faces everyday.  The morning and evening staff that provide service in the cafe' area are always first to greet you in the morning.  It's not unusual to see them helping the kids and knowing there favourite foods and drinks.   I would suggest you get 3rd Floor looking East if you like to have the sun coming into your room when you open your blinds.  I would highly recommend the Residence Inn.More</t>
   </si>
   <si>
+    <t>wjdunc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r129415642-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1782,6 +1974,9 @@
     <t>I stay approximately 80 nights per year at the Residence Inn in Santa Clarita (work related) usually 3 to 4 nights at a time. Their staff is excellent and the amenities are perfect for someone like me. I can cook my own meals, whether in the room or the grill by the pool, as it gets pretty old eating out at restaraunts all the time (although there are many fine dining establishments in the area). The rooms are large and comfortable with full size aplliances in the kichen area that includes dinner ware, pots, pans etc. My wife joins me occasionally as do my grandchildren and they all enjoy the pool/spa area. The grandkids practically live in the pool when thay visit. It has become my home away from home. I have stayed at other hotels in the area but thay seem cramped and dark compared to the Residence Inn. A great place to stay especially if your traveling with family and they do accept pets (for a fee).More</t>
   </si>
   <si>
+    <t>jerry i</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r128086852-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1809,6 +2004,9 @@
     <t>this RI is ok but like all hotels around LA and Santa Clarita is overpriced by at least 40 $. Dont pay more than 80 bucks for this place. ITs not worth more than that. Truly.More</t>
   </si>
   <si>
+    <t>SLC1622</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r122882399-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1836,6 +2034,9 @@
     <t>Nice hotel with a wonderful breakfast!  A great place to stay if visiting Six Flags Magic Mountain!More</t>
   </si>
   <si>
+    <t>tedandmy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r121477023-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1857,6 +2058,9 @@
     <t>We were driving from Northern California down to Anaheim to visit family and Disneyland and we decided to leave a day early to get over the grapevine and beat the rain...  Glad we did, because we did indeed beat the rain.  What we neglected to do, however, was research where to stay on the way.  Once we got to Santa Clarita we decided we needed to find a place to stay for the night.  We started out at the Hampton Inn only to find out that their rooms only offer two beds, no roll-away beds are available.  (Since we were traveling with our high school aged daughter and college aged son we needed three beds.)  The staff at the front desk were quite helpful, they said that the Residence Inn across the parking lot would be perfect for us.  They gave me the number and suggested I call right then and there, which I did.  "Kyle with a smile" at the Residence Inn took our information and saved a room for us.  We made our way across the parking lot, and waited about five minutes for the front desk clerk to come out and register us and assign us a room.  We were tired and cranky, but once we opened the door to our very spacious room we were happy.  Two beds, sofa bed, full kitchen, flat screen TV...  Clean and tidy!  It was perfect!  The next morning before checking...We were driving from Northern California down to Anaheim to visit family and Disneyland and we decided to leave a day early to get over the grapevine and beat the rain...  Glad we did, because we did indeed beat the rain.  What we neglected to do, however, was research where to stay on the way.  Once we got to Santa Clarita we decided we needed to find a place to stay for the night.  We started out at the Hampton Inn only to find out that their rooms only offer two beds, no roll-away beds are available.  (Since we were traveling with our high school aged daughter and college aged son we needed three beds.)  The staff at the front desk were quite helpful, they said that the Residence Inn across the parking lot would be perfect for us.  They gave me the number and suggested I call right then and there, which I did.  "Kyle with a smile" at the Residence Inn took our information and saved a room for us.  We made our way across the parking lot, and waited about five minutes for the front desk clerk to come out and register us and assign us a room.  We were tired and cranky, but once we opened the door to our very spacious room we were happy.  Two beds, sofa bed, full kitchen, flat screen TV...  Clean and tidy!  It was perfect!  The next morning before checking out and heading down to Anaheim we had breakfast.  It was great.  Waffles, eggs, breakfast meat, fresh fruit, muffins, bagels, toast, juice, coffee, tea, soda...  Everything you could ask for; the place is great.  I would definitely recommend it to friends.More</t>
   </si>
   <si>
+    <t>Johnny E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r120966887-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1872,6 +2076,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>cliffsiler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r118106740-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1890,6 +2097,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>CocoWashington</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r118066786-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1908,6 +2118,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>Alex A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r116912690-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1926,6 +2139,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>MOTHERLOAD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r98028943-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1944,6 +2160,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>JulesOZBrisbane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r90263924-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -1960,6 +2179,9 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>TravelSavvyMomAZ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r85746719-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -1995,6 +2217,9 @@
 The front desk staff was a little scarce at times. I think they spend most of their time in the office area behind the front desk. Someone did come forward when we waited at the desk, but I would have preferred easier access. I don't know if the fact that this is an extended stay hotel (and many longer-stay guests may be self sufficient) explains why the desk was sometimes unoccupied? Overall, the front desk staff did address our needs, so this observation may be...We chose this hotel because of its proximity to Magic Mountain. The hotel offers complimentary shuttle service to and from the park--it was a huge convenience to be dropped off in front of the park and to avoid parking fees! (Make sure to reserve your shuttle times in advance as it is first-come/first served service.)The complimentary breakfast surpassed our expectations. The two dining areas were clean and cheerful and could accommodate a lot of people. The food area was also clean and very well stocked by the attentive staff. The breakfast spread included many unexpected extras, such as chocolate chips and whipped cream for the waffles. Our 2-bedroom suite was very clean and sound proof. The furnishings were nice (including a flat screen TV in each room), although our mattresses were a little springy. The kitchenette was clean and updated (including a stainless steel microwave).  Our room had free Wi-Fi with a good connection.The front desk staff was a little scarce at times. I think they spend most of their time in the office area behind the front desk. Someone did come forward when we waited at the desk, but I would have preferred easier access. I don't know if the fact that this is an extended stay hotel (and many longer-stay guests may be self sufficient) explains why the desk was sometimes unoccupied? Overall, the front desk staff did address our needs, so this observation may be a little picky.Considering the shuttle service to Magic Mountain and the terrific breakfast, this hotel is a solid value.More</t>
   </si>
   <si>
+    <t>CSDunford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r58717633-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2016,6 +2241,9 @@
     <t>We stayed at the Residence Inn while visiting our daughter based mostly on the prior glowing reviews.  Everybody was right.  Great hotel! Too cold to use the pool while we were there, but the small fitness room gave us a chance to workout each day.  Room walls are thin, though, so be prepared if you're a light sleeper.  Staff was outstanding--very helpful.  The morning breakfast was very good, and the evening snack was great, as well.  Would definitely recommend this hotel to someone who doesn't want to stay right in the teeth of smog-infested L.A.  My only recommendation to the hotel would be to have some recycling containers around, and offer the option of having the linens changed every 3rd day to save water and energy.More</t>
   </si>
   <si>
+    <t>MAXTRAVEL65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r48961830-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2035,6 +2263,9 @@
   </si>
   <si>
     <t>We love this hotel.  Great room size.  Kitchen was well equipped and the design and the layout of the suites works well for our family get-togethers.  The front desk is very helpful and the buffet breakfast and light dinner fare was great. We have always enjoyed staying here when we visit our parents. We have stayed here numerous times. The only issue I have is that on our last two stays, our room was not serviced on the second night on both of our last stays - even though we did not leave a do not disturb sign. Also, I wish the hotel was a little more flexible with late check-outs. We were willing to pay for a small difference but they were not so flexible. I work for another hotel chain and we try our best to always accommodate the guests needs. I could understand a full house or busy check-in but busy check-outs leaves me a little puzzled.More</t>
+  </si>
+  <si>
+    <t>TZK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r42467544-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -2064,6 +2295,9 @@
 I would recommend this hotel to  friends (after telling them about the negatives) if they wanted a suite with a kitchen.   If I was only staying one or two nights &amp; didn't need extra space or a kitchen, I would stay somewhere else but I would probably...We stayed  5 nights at this hotel in a one bedroom suite.  Overall, we were happy with our stay.   The location worked well for us &amp; we liked having a kitchen.  Because we had to leave early most days, we only had the complimentary breakfast on the day we checked out - the breakfast was quite good with many choices.The air conditioning was noisy.  Our room faced the freeway but we chose to open the windows for cool air at night (and hear some road noise) instead of listening to the air conditioner.  That worked for us because we were on an upper floor &amp; the evenings were cool.  If we had been on the ground floor or the nights wee hot, we would have had to use the air conditioning.  The vanity/sink area is outside the bathroom, which I liked.   What I didn't like was the heat put off by the lights over the mirror.  If we accidently left the lights on, they would heat up the area just as if a heater had been turned on.  The heat from the lamps was especially irritating when we were using the hairdryer.  I would recommend this hotel to  friends (after telling them about the negatives) if they wanted a suite with a kitchen.   If I was only staying one or two nights &amp; didn't need extra space or a kitchen, I would stay somewhere else but I would probably stay at the Residence Inn again for an extended stay.More</t>
   </si>
   <si>
+    <t>Jonathan_68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r23248584-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2091,6 +2325,9 @@
     <t>We spent a night here as we arrived to L.A and on our way to San Francisco. Its location near the 101 highway was comvenient for us. The hotel is quiet, the rooms clean. It's more like a business hotel.More</t>
   </si>
   <si>
+    <t>usmcwifey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r19627064-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2107,6 +2344,9 @@
   </si>
   <si>
     <t>September 2008</t>
+  </si>
+  <si>
+    <t>Juls205</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r16259213-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -2140,6 +2380,9 @@
 The only complaint I had was the shuttle service - which is one of the main reasons why I chose this hotel.  We had a large group and so having a shuttle service to Six Flags was a big deal for us.  The night before our park visit we inquired at the front desk about the shuttle service offered.  The gentleman at the desk said that he didn't know anything about the shuttle and that we'd have to wait until the morning to ask the person working the next shift.  So, at about 9 am we inquired again about the shuttle so we could get to the park at 10 am when it opens and the lady at...A group of us stayed in two rooms for two nights in May during a trip to visit the Six Flags Park.I booked the rooms over the phone directly with the hotel and the service was excellent.  The rep patiently walked me through the various options and discounts.We had the 1 Queen studio ($110/night) and the 2 Queen studio ($149/night).  Each room had a sofa sleeper so there was plenty of space.  The rooms were clean, spacious, updated and very comfortable.The buffet breakfast had plenty of variety and stayed open well past the 7:00 - 9:30 am estimate the front desk gave upon my check-in.  Check-in was smooth and I used express check-out so that was painless as well.The only complaint I had was the shuttle service - which is one of the main reasons why I chose this hotel.  We had a large group and so having a shuttle service to Six Flags was a big deal for us.  The night before our park visit we inquired at the front desk about the shuttle service offered.  The gentleman at the desk said that he didn't know anything about the shuttle and that we'd have to wait until the morning to ask the person working the next shift.  So, at about 9 am we inquired again about the shuttle so we could get to the park at 10 am when it opens and the lady at the desk told us that we needed to reserve the shuttle at least 2 hours in advance.  After we told her that we tried to reserve it the night before but the man at the desk didn't know anything about it, she said that there was a shuttle scheduled for 9:30 but it was already full and there are no other drivers since the hotel is short-staffed on the weekends so really there was nothing she could do.  Well, needless to say that was disappointing since the shuttle service was a large part of the reason why we chose this hotel.Overall, I would recommend this hotel to others - just know that you may not be able to depend on the park shuttle if you are factoring that into your stay.More</t>
   </si>
   <si>
+    <t>roundtheworld4me</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r13674123-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2171,6 +2414,9 @@
 The free breakfast in the morning is also very good - lots of selection - both hot and cold foods. The free manager's reception hour in the evening's on weekdays is also quite good. There was a lot of different soft drinks to choose from plus a couple of beers on...Wow - what can I say about this hotel? It is really excellent. From when you first arrive you can tell that this hotel is good. The exterior is in great condition. The front desk staff are really friendly when you check in.We stayed for 5 nights at the end of August 2007.We chose this hotel because of it's location - we wanted to visit Six Flags Magic Mountain and Hurricane Harbor. The hotel has a free shuttle to anywhere within 5 miles of the hotel - so we used this to get to the parks. It was on-time almost always except one day where it was 30 minutes late picking us up.The free Santa Clarita Trolley bus comes to this hotel also - which you can use to get around the various sites of the city - e.g. the Westfield Shops or even Six Flags.The rooms are very big - which is what is expected for a Residence Inn. We had a studio with 2 queen beds. The beds are really comfy. The rooms were kept well stocked and very clean during our stay.The free breakfast in the morning is also very good - lots of selection - both hot and cold foods. The free manager's reception hour in the evening's on weekdays is also quite good. There was a lot of different soft drinks to choose from plus a couple of beers on tap also.Overall an excellent experience for the first stop of our holiday.More</t>
   </si>
   <si>
+    <t>ExhaustedMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r10478667-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2192,6 +2438,9 @@
     <t>We used to live in Valencia; we were moved to Chicago in 2004.  Our adult children still live in the area, one in Sylmar (15 minutes south...) uses a wheelchair and the other one lives in Santa Barbara (90 minutes NW).  The hotel staff is gracious and accommodating, especially with our special needs for access and space due to our severely disabled daughters wheelchair.  Good, hearty breakfast in the mornings;  meet &amp; greet in the evenings on many nights.  EZ park access, EZ freeway access, close to Stevenson Ranch shopping area.  This is a very, very SAFE area - again, we were locals - we love this hotel and it's staff and location.  It has made visiting a real treat for us. The two bedroom suite is like a small apartment - wonderful for our situation. We'll be back - again, again and again!More</t>
   </si>
   <si>
+    <t>crocettesontour</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r8619307-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2208,6 +2457,9 @@
   </si>
   <si>
     <t>The best place to stay with families - and I've travelled alot and stayed in Plenty of hotels, This can't be beat. We had a 2 bedroom suite which was basically a 2-bedroom apartment which included 3 tv's, 2 bathrooms lounge and kitchen. It was kept immaculate by the maids and everything was restocked continuously. The staff were the nicest and most helpful I have EVER encountered. The complimentary breakfast was beyond expectations and the complimentary wine/beer and supper was fantastic. The pool and surrounding area was kept well stocked with towels and perfectly clean. The landerette was a defiante bonus. Overall, Couldn't possibly find fault - a rareity for me.More</t>
+  </si>
+  <si>
+    <t>kurseni</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r6833340-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -2235,6 +2487,9 @@
 Unlike most hotels and motels, the dining areas in this Residence Inn were large enough to comfortably accommodate all the guests who were there, and spacious enough...All we were looking for was a place to stay to break up a long driving trip, and instead we found a real gem.  We've stated in Residence Inns in several other places, and always enjoy them, but this one is superior to all the others, mainly because of their food service.  In addition to the ususal juices, cereals, breads and muffins that most hotels serve, there were scrambled eggs, potatoes, sausage and/or bacon, fresh fruit that was actually fresh and good, a variety of waffles, hard-boiled eggs.  On weekday evenings, a "light supper" was served, but both evenings that we were there, the food was more than adequate for our dinner.  The first night we had minestrone soup and barbecued beef sandwiches;  the second night there was a taco bar.  Both evenings there was green salad,  potato salad, and other side dishes that I can't remember.  There was also wine (not too good), beer and soft drinks, and freshly baked chocolate chip and M&amp;M cookies.  And all of this was included in the very reasoanble room rate!  And those freshyly baked cookies and tea and coffee were available at the front desk all day.The people who cooked and served the food and kept the area clean were exceptionally helpful and attentive. Unlike most hotels and motels, the dining areas in this Residence Inn were large enough to comfortably accommodate all the guests who were there, and spacious enough so that we never felt crowded.  There was one large room, and one smaller, quieter one, which we preferred.  My only complaint is that both rooms had TVs that were ususally showing  cartoons because many families stay there because of its proximity to Six Flags Magic Mountain.Our room was light, comfortable, quiet, and spacious.  Front desk service was very good.More</t>
   </si>
   <si>
+    <t>dunntimes4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r5928462-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2256,6 +2511,9 @@
     <t>This is a very nice, clean, family oriented hotel.  Where all of the staff are friendly and greet you when you walk by.  The rooms are clean,and spacious.    We like them because they have separate bedrooms (1 or 2 bedrooms) and then a common living room/kitchen area.  They also have studios, which we haven't stayed in.The pool area is nice and the water is heated.  The breakfast in the morning is more than a continental breakfast.  They offer hot food as well.  The mornings that we were here there were always scrambled eggs and potatoes.  The other hot food choices were differet each day but included sausage patties, tortillas, biscuits and gravy,  and french toast.  They also offered yogurt, fruit, cooked oatmeal, cold cereals, waffles that you cook yourself, bagels and other assorted pastries, juices, coffee, and milk.  We stayed at this hotel in July, 2006.  It is near Magic Mountain so when we decided to come back this hotel was our first choice.  When we arrived there was a problem with our room reservation but the staff, "M", "T", and "O" went out of their way to make sure that we were happy and taken care of.  Mistakes happen, I don't expect perfection, but it is how you handle the repair of the situation that will determine whether or not you will have a repeat customer or an angry one.  They have a repeat customer!More</t>
   </si>
   <si>
+    <t>turtlemum21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r4895143-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2271,6 +2529,9 @@
     <t>We spent 1 night here and it was a nice place.  We had a two bedroom suite and the bedrooms were very large and good sized bathrooms.  The road noise got a little irritating because of being right on the I-5 but it didn't wake us at night.  Breakfast was great too and it is an easy drive to some shopping and 5 minutes from Magic Mountain.</t>
   </si>
   <si>
+    <t>Disneylovers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r3750264-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2289,6 +2550,9 @@
     <t>We arrived early with young children, and our room type (oversized studio) was not yet ready.  The front desk recommended the use of the pool while waiting.  We checked back regularly and were able to check in prior to the official check-in time of 4 p.m.  We appreciated the extra area of the kitchenette with the full size refrigerator to keep our drinks cold, with the dishware/utensils to eat snacks, and with the free popcorn to microwave.We decided to enjoy the M-Th evening reception prior to heading into Magic Mountain, and we're glad we did.  The chicken salad, tortilla chips with cheese or salsa, and cookies became our dinner and held us so that we wouldn't have to eat the expensive amusement park food.  The morning breakfasts were wonderful and got us off to great starts in the morning.While they have complimentary shuttle service to local areas (including Magic Mountain), the service was limited to 6 people, a slight disappointment since parking at Magic Mountain was $10 per day.  I'm sure we could've split our party, but we didn't want to wait to get into the park.Overall, the facilities were clean, and the staff (especially the hospitality crew) was courteous and efficient.  With free food and drinks included within the room rates to feed a group of hungry and picky kids, you can't ask for much more.More</t>
   </si>
   <si>
+    <t>jondc9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r3610200-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
   </si>
   <si>
@@ -2305,6 +2569,9 @@
   </si>
   <si>
     <t>HI:I am a silver elite member of marriott's reward program.  I am an airline pilot and have stayed in way too many hotels.This residence inn is uneven at best.  Always less than stellar performance by the front desk.On one trip to this hotel, I was given a studio suite.  It was not bad.  No handholds to get into shower/tub at all.  All hotels should have minimum hand holds if not fully handicapped equipped.The second trip, I requested a disabled studio suite.  Upon arrival it was NOT available.  A non handicapped one bedroom suite was substituted.  This room was not nearly as nice as the studio!!!!!!!!Simple questions of the front desk staff proved a great challenge:  does your hotel have screens on the windows?  no.   When I got there, they did have screens.  The front desk staff had not even been IN the rooms in their careers!!!!!I would not take any room here except a studio, but the lack of hand holds has me looking for other hotels in the Valencia area.Why is it so hard to get a decent hotel?  I ask for something modern, safe, comfortable  (how about a recliner chair like a LA-Z-Boy?)  lots of cable tv channels.jonMore</t>
+  </si>
+  <si>
+    <t>OldSoftHsu</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33047-d258058-r2575232-Residence_Inn_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
@@ -2827,43 +3094,47 @@
       <c r="A2" t="n">
         <v>33068</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2879,56 +3150,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33068</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2940,56 +3215,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33068</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3001,56 +3280,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33068</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3068,56 +3351,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33068</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3129,56 +3416,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33068</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3190,56 +3481,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33068</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3255,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33068</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3320,56 +3619,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33068</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>124</v>
       </c>
-      <c r="L10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3387,56 +3690,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33068</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3454,56 +3761,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33068</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3521,56 +3832,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33068</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -3588,56 +3903,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33068</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3655,56 +3974,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33068</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3722,56 +4045,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33068</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3787,47 +4114,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="X16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33068</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
@@ -3844,56 +4175,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="X17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33068</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3905,56 +4240,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="X18" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Y18" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33068</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3972,56 +4311,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33068</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4037,56 +4380,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="X20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Y20" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33068</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4104,56 +4451,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="X21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Y21" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33068</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4169,56 +4520,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33068</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4234,47 +4589,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33068</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -4293,50 +4652,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33068</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4354,56 +4717,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="X25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="Y25" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33068</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>278</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="J26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="L26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4419,56 +4786,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="X26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="Y26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33068</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>288</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="J27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="K27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4486,56 +4857,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33068</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4553,56 +4928,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="X28" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="Y28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33068</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>303</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="J29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="K29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4620,56 +4999,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="Y29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33068</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4687,56 +5070,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33068</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4752,56 +5139,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33068</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4819,56 +5210,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33068</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4886,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33068</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4951,56 +5350,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33068</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5016,56 +5419,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33068</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -5083,56 +5490,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="X36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="Y36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33068</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>373</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="K37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5150,56 +5561,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="X37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33068</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5217,56 +5632,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="X38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33068</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>391</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5284,56 +5703,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="X39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="Y39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33068</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>401</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5349,56 +5772,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="X40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="Y40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33068</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5416,56 +5843,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="X41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="Y41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33068</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>420</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5481,56 +5912,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="X42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="Y42" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33068</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>430</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="J43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="K43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5552,47 +5987,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="Y43" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33068</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>439</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="J44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="L44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -5609,56 +6048,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="X44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="Y44" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33068</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>448</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="J45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="L45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5680,56 +6123,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="X45" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="Y45" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33068</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>457</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="J46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="K46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="L46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5751,56 +6198,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="X46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="Y46" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33068</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>466</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="K47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="L47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5822,56 +6273,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="X47" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="Y47" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33068</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>475</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="J48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5885,50 +6340,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33068</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>364</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="L49" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5948,56 +6407,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="X49" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="Y49" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33068</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>490</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="J50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="K50" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="L50" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6019,56 +6482,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="X50" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="Y50" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33068</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>500</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="J51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="K51" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="L51" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6090,56 +6557,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="X51" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="Y51" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33068</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>508</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="J52" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="K52" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="L52" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -6159,56 +6630,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="X52" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="Y52" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33068</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>517</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="J53" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="K53" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="L53" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6230,56 +6705,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="X53" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="Y53" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33068</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>526</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="J54" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="K54" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="L54" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6301,56 +6780,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="X54" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="Y54" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33068</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>535</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="J55" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="K55" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="L55" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6372,56 +6855,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="X55" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="Y55" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33068</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>545</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="J56" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="K56" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="L56" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6443,56 +6930,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="X56" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="Y56" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33068</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>555</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="J57" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="K57" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="L57" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6514,56 +7005,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="X57" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="Y57" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33068</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>562</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="J58" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="K58" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="L58" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6585,56 +7080,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="X58" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="Y58" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33068</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>571</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="J59" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="K59" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="L59" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6656,56 +7155,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="X59" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="Y59" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33068</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>581</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="J60" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="K60" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="L60" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="O60" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6727,56 +7230,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="X60" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="Y60" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33068</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>590</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="J61" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="K61" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="L61" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6798,56 +7305,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="X61" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="Y61" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33068</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>598</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="J62" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="K62" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="L62" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6869,56 +7380,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="X62" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="Y62" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33068</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>608</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="J63" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="K63" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="L63" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6940,56 +7455,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="X63" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="Y63" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33068</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>616</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="J64" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="K64" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="L64" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="O64" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -7011,56 +7530,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="X64" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="Y64" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33068</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>625</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="J65" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="K65" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="L65" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7082,56 +7605,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="X65" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="Y65" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33068</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>635</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="J66" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="K66" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="L66" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7153,56 +7680,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="X66" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="Y66" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33068</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>642</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="J67" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="K67" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="L67" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7214,56 +7745,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="X67" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="Y67" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33068</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>652</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="J68" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="K68" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="L68" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="O68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7285,56 +7820,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="X68" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="Y68" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33068</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>662</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="J69" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="K69" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="L69" t="s">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7358,50 +7897,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>602</v>
+        <v>669</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33068</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>670</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="J70" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="K70" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7425,50 +7968,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33068</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>676</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="J71" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="K71" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="L71" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7490,50 +8037,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33068</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>683</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="J72" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="K72" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="L72" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7555,50 +8106,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33068</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>690</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="J73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="K73" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="L73" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="O73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7618,50 +8173,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33068</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>697</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="J74" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="K74" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="L74" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7685,50 +8244,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33068</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>704</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="J75" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="K75" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="L75" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7752,50 +8315,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33068</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>711</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="J76" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="K76" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="L76" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7817,56 +8384,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="X76" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="Y76" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33068</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>721</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="J77" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="K77" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="L77" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7890,50 +8461,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33068</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>729</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="J78" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="K78" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="L78" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="O78" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7957,50 +8532,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33068</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>737</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="J79" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="K79" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="L79" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8024,50 +8603,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33068</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>745</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="J80" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="K80" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="L80" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8089,56 +8672,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
       <c r="X80" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="Y80" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33068</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>755</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="J81" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="K81" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="L81" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="O81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8162,50 +8749,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33068</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>762</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="J82" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
       <c r="K82" t="s">
-        <v>686</v>
+        <v>766</v>
       </c>
       <c r="L82" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
       <c r="O82" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8229,50 +8820,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33068</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>770</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="J83" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="K83" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="L83" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
       <c r="O83" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8296,50 +8891,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33068</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>778</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="J84" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="K84" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="L84" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8363,41 +8962,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33068</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>786</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="J85" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
       <c r="K85" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="L85" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -8416,50 +9019,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33068</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>793</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="J86" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="K86" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="L86" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8483,50 +9090,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33068</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>801</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="J87" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="K87" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
       <c r="L87" t="s">
-        <v>721</v>
+        <v>806</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>722</v>
+        <v>807</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8550,41 +9161,45 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>723</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33068</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>809</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>724</v>
+        <v>810</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>725</v>
+        <v>811</v>
       </c>
       <c r="J88" t="s">
-        <v>726</v>
+        <v>812</v>
       </c>
       <c r="K88" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
       <c r="L88" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
@@ -8611,41 +9226,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33068</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>815</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>729</v>
+        <v>816</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>730</v>
+        <v>817</v>
       </c>
       <c r="J89" t="s">
-        <v>731</v>
+        <v>818</v>
       </c>
       <c r="K89" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
       <c r="L89" t="s">
-        <v>733</v>
+        <v>820</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -8672,41 +9291,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>734</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33068</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>822</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>735</v>
+        <v>823</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>736</v>
+        <v>824</v>
       </c>
       <c r="J90" t="s">
-        <v>737</v>
+        <v>825</v>
       </c>
       <c r="K90" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
       <c r="L90" t="s">
-        <v>739</v>
+        <v>827</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
@@ -8733,41 +9356,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>740</v>
+        <v>828</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33068</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>829</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>741</v>
+        <v>830</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>742</v>
+        <v>831</v>
       </c>
       <c r="J91" t="s">
-        <v>743</v>
+        <v>832</v>
       </c>
       <c r="K91" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
       <c r="L91" t="s">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
@@ -8786,7 +9413,7 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>746</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
